--- a/Folio.xlsx
+++ b/Folio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA26CB32-B854-4994-95C2-4D0D2CD4218A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB1CBD4C-74FA-4611-A58F-3D16755BDE30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="14" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5835,8 +5835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC115C88-C50A-4C63-8FE8-A3BB8E337BDA}">
   <dimension ref="A1:T18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="E2" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17:M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -6835,7 +6835,7 @@
         <v>19</v>
       </c>
       <c r="M17" s="46" t="s">
-        <v>307</v>
+        <v>28</v>
       </c>
       <c r="N17" s="46" t="s">
         <v>28</v>
@@ -6897,7 +6897,7 @@
         <v>19</v>
       </c>
       <c r="M18" s="46" t="s">
-        <v>307</v>
+        <v>28</v>
       </c>
       <c r="N18" s="46" t="s">
         <v>28</v>
@@ -14554,12 +14554,13 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -14780,19 +14781,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{527B0702-8AF4-4307-A34D-2633AC2397ED}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{360C765C-5108-4856-B14E-979324B41D25}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -14817,11 +14819,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{360C765C-5108-4856-B14E-979324B41D25}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{527B0702-8AF4-4307-A34D-2633AC2397ED}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Folio.xlsx
+++ b/Folio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB1CBD4C-74FA-4611-A58F-3D16755BDE30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7935B74B-5B0B-4F84-ADD0-913084385E70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="14" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5835,8 +5835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC115C88-C50A-4C63-8FE8-A3BB8E337BDA}">
   <dimension ref="A1:T18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E2" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17:M18"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -6808,7 +6808,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="46" t="s">
-        <v>312</v>
+        <v>28</v>
       </c>
       <c r="E17" s="46" t="s">
         <v>306</v>
@@ -6870,7 +6870,7 @@
         <v>2</v>
       </c>
       <c r="D18" s="46" t="s">
-        <v>313</v>
+        <v>28</v>
       </c>
       <c r="E18" s="46" t="s">
         <v>306</v>
@@ -14554,13 +14554,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -14781,20 +14780,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{360C765C-5108-4856-B14E-979324B41D25}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{527B0702-8AF4-4307-A34D-2633AC2397ED}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -14819,9 +14817,11 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{527B0702-8AF4-4307-A34D-2633AC2397ED}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{360C765C-5108-4856-B14E-979324B41D25}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Folio.xlsx
+++ b/Folio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7935B74B-5B0B-4F84-ADD0-913084385E70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00D7DCF0-5D2E-457E-A3E6-35FDDF513D89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="14" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5836,7 +5836,7 @@
   <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D17" sqref="D17:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -6807,8 +6807,8 @@
       <c r="C17" s="46">
         <v>1</v>
       </c>
-      <c r="D17" s="46" t="s">
-        <v>28</v>
+      <c r="D17" s="52" t="s">
+        <v>312</v>
       </c>
       <c r="E17" s="46" t="s">
         <v>306</v>
@@ -6869,8 +6869,8 @@
       <c r="C18" s="46">
         <v>2</v>
       </c>
-      <c r="D18" s="46" t="s">
-        <v>28</v>
+      <c r="D18" s="52" t="s">
+        <v>312</v>
       </c>
       <c r="E18" s="46" t="s">
         <v>306</v>
@@ -14554,12 +14554,13 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -14780,19 +14781,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{527B0702-8AF4-4307-A34D-2633AC2397ED}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{360C765C-5108-4856-B14E-979324B41D25}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -14817,11 +14819,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{360C765C-5108-4856-B14E-979324B41D25}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{527B0702-8AF4-4307-A34D-2633AC2397ED}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Folio.xlsx
+++ b/Folio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00D7DCF0-5D2E-457E-A3E6-35FDDF513D89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD0AA62-DBDE-4FBA-9C07-FA32A8C1BDC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="14" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5836,7 +5836,7 @@
   <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17:D18"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -14554,13 +14554,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -14781,20 +14780,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{360C765C-5108-4856-B14E-979324B41D25}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{527B0702-8AF4-4307-A34D-2633AC2397ED}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -14819,9 +14817,11 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{527B0702-8AF4-4307-A34D-2633AC2397ED}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{360C765C-5108-4856-B14E-979324B41D25}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Folio.xlsx
+++ b/Folio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10826161-2E73-4E9B-A99E-9F330342DDAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD5FF22-E91F-432F-A619-EFCF2226309A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="530" windowWidth="19200" windowHeight="5800" firstSheet="13" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="13" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FolioAllegations" sheetId="1" r:id="rId1"/>
@@ -6955,8 +6955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC115C88-C50A-4C63-8FE8-A3BB8E337BDA}">
   <dimension ref="A1:T18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17:M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -8013,7 +8013,7 @@
         <v>19</v>
       </c>
       <c r="M17" s="46" t="s">
-        <v>307</v>
+        <v>28</v>
       </c>
       <c r="N17" s="46" t="s">
         <v>28</v>
@@ -8075,7 +8075,7 @@
         <v>19</v>
       </c>
       <c r="M18" s="46" t="s">
-        <v>307</v>
+        <v>28</v>
       </c>
       <c r="N18" s="46" t="s">
         <v>28</v>
@@ -14901,12 +14901,13 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -15127,19 +15128,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{527B0702-8AF4-4307-A34D-2633AC2397ED}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{360C765C-5108-4856-B14E-979324B41D25}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -15164,11 +15166,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{360C765C-5108-4856-B14E-979324B41D25}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{527B0702-8AF4-4307-A34D-2633AC2397ED}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Folio.xlsx
+++ b/Folio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD5FF22-E91F-432F-A619-EFCF2226309A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74B58134-05A8-4BAF-95EA-E8EE94E80CEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="13" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="12" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FolioAllegations" sheetId="1" r:id="rId1"/>
@@ -26,19 +26,20 @@
     <sheet name="FatalityNearFatality" sheetId="7" r:id="rId11"/>
     <sheet name="FolioCorrespondence" sheetId="8" r:id="rId12"/>
     <sheet name="FolioDocuments" sheetId="17" r:id="rId13"/>
-    <sheet name="FolioApprovalandAuditHistory" sheetId="19" r:id="rId14"/>
-    <sheet name="Logout" sheetId="13" r:id="rId15"/>
-    <sheet name="FolioValidatePerson" sheetId="14" r:id="rId16"/>
-    <sheet name="FolioPerson" sheetId="16" r:id="rId17"/>
-    <sheet name="FolioNewCase" sheetId="21" r:id="rId18"/>
-    <sheet name="FolioAddendums" sheetId="15" r:id="rId19"/>
-    <sheet name="FolioHistory" sheetId="11" r:id="rId20"/>
-    <sheet name="FolioScreeningReview" sheetId="12" r:id="rId21"/>
-    <sheet name="FolioSubmitForApproval" sheetId="18" r:id="rId22"/>
-    <sheet name="ProviderSearch" sheetId="30" r:id="rId23"/>
-    <sheet name="ProviderOptions" sheetId="31" r:id="rId24"/>
-    <sheet name="Removal" sheetId="32" r:id="rId25"/>
-    <sheet name="FolioChildLocations" sheetId="33" r:id="rId26"/>
+    <sheet name="GenerateDocument" sheetId="34" r:id="rId14"/>
+    <sheet name="FolioApprovalandAuditHistory" sheetId="19" r:id="rId15"/>
+    <sheet name="Logout" sheetId="13" r:id="rId16"/>
+    <sheet name="FolioValidatePerson" sheetId="14" r:id="rId17"/>
+    <sheet name="FolioPerson" sheetId="16" r:id="rId18"/>
+    <sheet name="FolioNewCase" sheetId="21" r:id="rId19"/>
+    <sheet name="FolioAddendums" sheetId="15" r:id="rId20"/>
+    <sheet name="FolioHistory" sheetId="11" r:id="rId21"/>
+    <sheet name="FolioScreeningReview" sheetId="12" r:id="rId22"/>
+    <sheet name="FolioSubmitForApproval" sheetId="18" r:id="rId23"/>
+    <sheet name="ProviderSearch" sheetId="30" r:id="rId24"/>
+    <sheet name="ProviderOptions" sheetId="31" r:id="rId25"/>
+    <sheet name="Removal" sheetId="32" r:id="rId26"/>
+    <sheet name="FolioChildLocations" sheetId="33" r:id="rId27"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">FolioAllegations!$A$1:$R$12</definedName>
@@ -64,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2719" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2897" uniqueCount="559">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -1738,12 +1739,39 @@
   <si>
     <t>Identified Parent</t>
   </si>
+  <si>
+    <t>Tribal Placement</t>
+  </si>
+  <si>
+    <t>Tribal Home Certification Letter</t>
+  </si>
+  <si>
+    <t>County Placement Form</t>
+  </si>
+  <si>
+    <t>GENERATE_DOCUMENT_BTN</t>
+  </si>
+  <si>
+    <t>SOC 153 - Placement Agency - Foster Family Agency Agreement Nonminor Dependent Placed by Agency in Foster Family Agency</t>
+  </si>
+  <si>
+    <t>SOC-155 - Voluntary Placement Agreement - Placement Request</t>
+  </si>
+  <si>
+    <t>SOC-156 - Agency - Foster Parents Agreement Child Placed by Agency in Foster Home</t>
+  </si>
+  <si>
+    <t>SOC 154A - Placement Agency - Foster Family Agency Agreement Child Placed By Agency In Foster Family Agency</t>
+  </si>
+  <si>
+    <t>Placement Agreement</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1844,6 +1872,11 @@
       <color rgb="FF181818"/>
       <name val="Salesforce-Sans"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="14">
@@ -1954,7 +1987,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2032,6 +2065,10 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink 2" xfId="1" xr:uid="{0244CCC0-C70B-4F46-AB95-4E0A98C0C68C}"/>
@@ -4520,10 +4557,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{065689CF-B8B7-4123-B223-FA611E0B0CC8}">
-  <dimension ref="A1:AN14"/>
+  <dimension ref="A1:AO17"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="AB15" sqref="AB15"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="Z13" sqref="Z13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -4541,35 +4578,36 @@
     <col min="12" max="12" width="16.453125" style="39" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="20.453125" style="39" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="21.1796875" style="39" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.81640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="27.26953125" style="39" customWidth="1"/>
     <col min="16" max="16" width="18.1796875" style="39" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11.81640625" style="39" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="18.81640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5" style="39" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="21.54296875" style="39" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.81640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="27.81640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="22.81640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="20" style="39" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="17.54296875" style="39" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="18.81640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.54296875" style="39" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="39.81640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="31.81640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="5.81640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="5.1796875" style="39" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="6.81640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.1796875" style="39" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="16.81640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="19.1796875" style="39" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="21.453125" style="39" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="14.81640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="14.81640625" style="52" customWidth="1"/>
-    <col min="40" max="40" width="110.453125" style="39" bestFit="1" customWidth="1"/>
-    <col min="41" max="16384" width="8.81640625" style="39"/>
+    <col min="19" max="19" width="18.81640625" style="52" customWidth="1"/>
+    <col min="20" max="20" width="10.90625" style="39" customWidth="1"/>
+    <col min="21" max="21" width="21.54296875" style="39" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.81640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="27.81640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="22.81640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="20" style="39" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="17.54296875" style="39" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="18.81640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.54296875" style="39" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="39.81640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="31.81640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="5.81640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="5.1796875" style="39" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="6.81640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="11.1796875" style="39" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="16.81640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="19.1796875" style="39" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="21.453125" style="39" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="14.81640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="14.81640625" style="52" customWidth="1"/>
+    <col min="41" max="41" width="110.453125" style="39" bestFit="1" customWidth="1"/>
+    <col min="42" max="16384" width="8.81640625" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
@@ -4624,74 +4662,77 @@
       <c r="R1" s="43" t="s">
         <v>205</v>
       </c>
-      <c r="S1" s="40" t="s">
+      <c r="S1" s="43" t="s">
+        <v>553</v>
+      </c>
+      <c r="T1" s="40" t="s">
         <v>206</v>
       </c>
-      <c r="T1" s="40" t="s">
+      <c r="U1" s="40" t="s">
         <v>207</v>
       </c>
-      <c r="U1" s="40" t="s">
+      <c r="V1" s="40" t="s">
         <v>208</v>
       </c>
-      <c r="V1" s="40" t="s">
+      <c r="W1" s="40" t="s">
         <v>209</v>
       </c>
-      <c r="W1" s="40" t="s">
+      <c r="X1" s="40" t="s">
         <v>210</v>
       </c>
-      <c r="X1" s="40" t="s">
+      <c r="Y1" s="40" t="s">
         <v>211</v>
       </c>
-      <c r="Y1" s="40" t="s">
+      <c r="Z1" s="40" t="s">
         <v>212</v>
       </c>
-      <c r="Z1" s="40" t="s">
+      <c r="AA1" s="40" t="s">
         <v>213</v>
       </c>
-      <c r="AA1" s="40" t="s">
+      <c r="AB1" s="40" t="s">
         <v>214</v>
       </c>
-      <c r="AB1" s="40" t="s">
+      <c r="AC1" s="40" t="s">
         <v>215</v>
       </c>
-      <c r="AC1" s="40" t="s">
+      <c r="AD1" s="40" t="s">
         <v>216</v>
       </c>
-      <c r="AD1" s="40" t="s">
+      <c r="AE1" s="40" t="s">
         <v>217</v>
       </c>
-      <c r="AE1" s="40" t="s">
+      <c r="AF1" s="40" t="s">
         <v>218</v>
       </c>
-      <c r="AF1" s="40" t="s">
+      <c r="AG1" s="40" t="s">
         <v>219</v>
       </c>
-      <c r="AG1" s="40" t="s">
+      <c r="AH1" s="40" t="s">
         <v>220</v>
       </c>
-      <c r="AH1" s="40" t="s">
+      <c r="AI1" s="40" t="s">
         <v>221</v>
       </c>
-      <c r="AI1" s="47" t="s">
+      <c r="AJ1" s="47" t="s">
         <v>222</v>
       </c>
-      <c r="AJ1" s="40" t="s">
+      <c r="AK1" s="40" t="s">
         <v>223</v>
       </c>
-      <c r="AK1" s="40" t="s">
+      <c r="AL1" s="40" t="s">
         <v>224</v>
       </c>
-      <c r="AL1" s="40" t="s">
+      <c r="AM1" s="40" t="s">
         <v>225</v>
       </c>
-      <c r="AM1" s="40" t="s">
+      <c r="AN1" s="40" t="s">
         <v>226</v>
       </c>
-      <c r="AN1" s="40" t="s">
+      <c r="AO1" s="40" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
+    <row r="2" spans="1:41">
       <c r="A2" s="50" t="s">
         <v>27</v>
       </c>
@@ -4747,13 +4788,13 @@
         <v>231</v>
       </c>
       <c r="S2" s="50" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="T2" s="50" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="U2" s="50" t="s">
-        <v>116</v>
+        <v>28</v>
       </c>
       <c r="V2" s="50" t="s">
         <v>116</v>
@@ -4771,19 +4812,19 @@
         <v>116</v>
       </c>
       <c r="AA2" s="50" t="s">
-        <v>30</v>
+        <v>116</v>
       </c>
       <c r="AB2" s="50" t="s">
         <v>30</v>
       </c>
       <c r="AC2" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD2" s="50" t="s">
         <v>232</v>
       </c>
-      <c r="AD2" s="50" t="s">
+      <c r="AE2" s="50" t="s">
         <v>233</v>
-      </c>
-      <c r="AE2" s="50" t="s">
-        <v>30</v>
       </c>
       <c r="AF2" s="50" t="s">
         <v>30</v>
@@ -4795,10 +4836,10 @@
         <v>30</v>
       </c>
       <c r="AI2" s="50" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AJ2" s="50" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AK2" s="50" t="s">
         <v>30</v>
@@ -4810,10 +4851,13 @@
         <v>30</v>
       </c>
       <c r="AN2" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="AO2" s="50" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="3" spans="1:40" s="46" customFormat="1">
+    <row r="3" spans="1:41" s="46" customFormat="1">
       <c r="A3" s="50" t="s">
         <v>27</v>
       </c>
@@ -4869,13 +4913,13 @@
         <v>231</v>
       </c>
       <c r="S3" s="50" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="T3" s="50" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="U3" s="50" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="V3" s="50" t="s">
         <v>30</v>
@@ -4917,10 +4961,10 @@
         <v>30</v>
       </c>
       <c r="AI3" s="50" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AJ3" s="50" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AK3" s="50" t="s">
         <v>30</v>
@@ -4934,8 +4978,11 @@
       <c r="AN3" s="50" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="1:40">
+      <c r="AO3" s="50" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41">
       <c r="A4" s="50" t="s">
         <v>27</v>
       </c>
@@ -5015,31 +5062,31 @@
         <v>28</v>
       </c>
       <c r="AA4" s="50" t="s">
-        <v>116</v>
+        <v>28</v>
       </c>
       <c r="AB4" s="50" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC4" s="50" t="s">
         <v>238</v>
-      </c>
-      <c r="AC4" s="50" t="s">
-        <v>30</v>
       </c>
       <c r="AD4" s="50" t="s">
         <v>30</v>
       </c>
       <c r="AE4" s="50" t="s">
-        <v>116</v>
+        <v>30</v>
       </c>
       <c r="AF4" s="50" t="s">
         <v>116</v>
       </c>
       <c r="AG4" s="50" t="s">
-        <v>28</v>
+        <v>116</v>
       </c>
       <c r="AH4" s="50" t="s">
-        <v>116</v>
+        <v>28</v>
       </c>
       <c r="AI4" s="50" t="s">
-        <v>28</v>
+        <v>116</v>
       </c>
       <c r="AJ4" s="50" t="s">
         <v>28</v>
@@ -5054,10 +5101,13 @@
         <v>28</v>
       </c>
       <c r="AN4" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="AO4" s="50" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
+    <row r="5" spans="1:41">
       <c r="A5" s="50" t="s">
         <v>27</v>
       </c>
@@ -5137,31 +5187,31 @@
         <v>28</v>
       </c>
       <c r="AA5" s="50" t="s">
-        <v>116</v>
+        <v>28</v>
       </c>
       <c r="AB5" s="50" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC5" s="50" t="s">
         <v>239</v>
-      </c>
-      <c r="AC5" s="50" t="s">
-        <v>30</v>
       </c>
       <c r="AD5" s="50" t="s">
         <v>30</v>
       </c>
       <c r="AE5" s="50" t="s">
-        <v>116</v>
+        <v>30</v>
       </c>
       <c r="AF5" s="50" t="s">
         <v>116</v>
       </c>
       <c r="AG5" s="50" t="s">
-        <v>28</v>
+        <v>116</v>
       </c>
       <c r="AH5" s="50" t="s">
-        <v>116</v>
+        <v>28</v>
       </c>
       <c r="AI5" s="50" t="s">
-        <v>28</v>
+        <v>116</v>
       </c>
       <c r="AJ5" s="50" t="s">
         <v>28</v>
@@ -5176,10 +5226,13 @@
         <v>28</v>
       </c>
       <c r="AN5" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="AO5" s="50" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
+    <row r="6" spans="1:41">
       <c r="A6" s="50" t="s">
         <v>27</v>
       </c>
@@ -5259,31 +5312,31 @@
         <v>28</v>
       </c>
       <c r="AA6" s="50" t="s">
-        <v>116</v>
+        <v>28</v>
       </c>
       <c r="AB6" s="50" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC6" s="50" t="s">
         <v>240</v>
-      </c>
-      <c r="AC6" s="50" t="s">
-        <v>30</v>
       </c>
       <c r="AD6" s="50" t="s">
         <v>30</v>
       </c>
       <c r="AE6" s="50" t="s">
-        <v>116</v>
+        <v>30</v>
       </c>
       <c r="AF6" s="50" t="s">
         <v>116</v>
       </c>
       <c r="AG6" s="50" t="s">
-        <v>28</v>
+        <v>116</v>
       </c>
       <c r="AH6" s="50" t="s">
-        <v>116</v>
+        <v>28</v>
       </c>
       <c r="AI6" s="50" t="s">
-        <v>28</v>
+        <v>116</v>
       </c>
       <c r="AJ6" s="50" t="s">
         <v>28</v>
@@ -5298,10 +5351,13 @@
         <v>28</v>
       </c>
       <c r="AN6" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="AO6" s="50" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
+    <row r="7" spans="1:41">
       <c r="A7" s="50" t="s">
         <v>27</v>
       </c>
@@ -5381,31 +5437,31 @@
         <v>28</v>
       </c>
       <c r="AA7" s="50" t="s">
-        <v>116</v>
+        <v>28</v>
       </c>
       <c r="AB7" s="50" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC7" s="50" t="s">
         <v>241</v>
-      </c>
-      <c r="AC7" s="50" t="s">
-        <v>30</v>
       </c>
       <c r="AD7" s="50" t="s">
         <v>30</v>
       </c>
       <c r="AE7" s="50" t="s">
-        <v>116</v>
+        <v>30</v>
       </c>
       <c r="AF7" s="50" t="s">
         <v>116</v>
       </c>
       <c r="AG7" s="50" t="s">
-        <v>28</v>
+        <v>116</v>
       </c>
       <c r="AH7" s="50" t="s">
-        <v>116</v>
+        <v>28</v>
       </c>
       <c r="AI7" s="50" t="s">
-        <v>28</v>
+        <v>116</v>
       </c>
       <c r="AJ7" s="50" t="s">
         <v>28</v>
@@ -5420,10 +5476,13 @@
         <v>28</v>
       </c>
       <c r="AN7" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="AO7" s="50" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
+    <row r="8" spans="1:41">
       <c r="A8" s="50" t="s">
         <v>27</v>
       </c>
@@ -5503,19 +5562,19 @@
         <v>28</v>
       </c>
       <c r="AA8" s="50" t="s">
-        <v>116</v>
+        <v>28</v>
       </c>
       <c r="AB8" s="50" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC8" s="50" t="s">
         <v>242</v>
-      </c>
-      <c r="AC8" s="50" t="s">
-        <v>30</v>
       </c>
       <c r="AD8" s="50" t="s">
         <v>30</v>
       </c>
       <c r="AE8" s="50" t="s">
-        <v>116</v>
+        <v>30</v>
       </c>
       <c r="AF8" s="50" t="s">
         <v>116</v>
@@ -5527,10 +5586,10 @@
         <v>116</v>
       </c>
       <c r="AI8" s="50" t="s">
-        <v>28</v>
+        <v>116</v>
       </c>
       <c r="AJ8" s="50" t="s">
-        <v>116</v>
+        <v>28</v>
       </c>
       <c r="AK8" s="50" t="s">
         <v>116</v>
@@ -5539,13 +5598,16 @@
         <v>116</v>
       </c>
       <c r="AM8" s="50" t="s">
-        <v>28</v>
+        <v>116</v>
       </c>
       <c r="AN8" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="AO8" s="50" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
+    <row r="9" spans="1:41">
       <c r="A9" s="50" t="s">
         <v>27</v>
       </c>
@@ -5601,10 +5663,10 @@
         <v>231</v>
       </c>
       <c r="S9" s="50" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="T9" s="50" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="U9" s="50" t="s">
         <v>28</v>
@@ -5625,34 +5687,34 @@
         <v>28</v>
       </c>
       <c r="AA9" s="50" t="s">
-        <v>116</v>
+        <v>28</v>
       </c>
       <c r="AB9" s="50" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC9" s="50" t="s">
         <v>233</v>
-      </c>
-      <c r="AC9" s="50" t="s">
-        <v>30</v>
       </c>
       <c r="AD9" s="50" t="s">
         <v>30</v>
       </c>
       <c r="AE9" s="50" t="s">
-        <v>116</v>
+        <v>30</v>
       </c>
       <c r="AF9" s="50" t="s">
         <v>116</v>
       </c>
       <c r="AG9" s="50" t="s">
-        <v>28</v>
+        <v>116</v>
       </c>
       <c r="AH9" s="50" t="s">
-        <v>116</v>
+        <v>28</v>
       </c>
       <c r="AI9" s="50" t="s">
-        <v>28</v>
+        <v>116</v>
       </c>
       <c r="AJ9" s="50" t="s">
-        <v>116</v>
+        <v>28</v>
       </c>
       <c r="AK9" s="50" t="s">
         <v>116</v>
@@ -5661,13 +5723,16 @@
         <v>116</v>
       </c>
       <c r="AM9" s="50" t="s">
+        <v>116</v>
+      </c>
+      <c r="AN9" s="50" t="s">
         <v>189</v>
       </c>
-      <c r="AN9" s="50" t="s">
+      <c r="AO9" s="50" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
+    <row r="10" spans="1:41">
       <c r="A10" s="46" t="s">
         <v>244</v>
       </c>
@@ -5722,11 +5787,11 @@
       <c r="R10" s="55" t="s">
         <v>231</v>
       </c>
-      <c r="S10" s="52" t="s">
-        <v>19</v>
+      <c r="S10" s="55" t="s">
+        <v>28</v>
       </c>
       <c r="T10" s="52" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="U10" s="52" t="s">
         <v>28</v>
@@ -5747,16 +5812,16 @@
         <v>28</v>
       </c>
       <c r="AA10" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB10" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="AB10" s="55" t="s">
+      <c r="AC10" s="55" t="s">
         <v>231</v>
       </c>
-      <c r="AC10" s="52"/>
       <c r="AD10" s="52"/>
-      <c r="AE10" s="52" t="s">
-        <v>28</v>
-      </c>
+      <c r="AE10" s="52"/>
       <c r="AF10" s="52" t="s">
         <v>28</v>
       </c>
@@ -5766,10 +5831,10 @@
       <c r="AH10" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="AI10" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="AJ10" s="52" t="s">
+      <c r="AI10" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ10" s="31" t="s">
         <v>28</v>
       </c>
       <c r="AK10" s="52" t="s">
@@ -5781,9 +5846,12 @@
       <c r="AM10" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="AN10" s="52"/>
-    </row>
-    <row r="11" spans="1:40">
+      <c r="AN10" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="AO10" s="52"/>
+    </row>
+    <row r="11" spans="1:41">
       <c r="A11" s="46" t="s">
         <v>244</v>
       </c>
@@ -5838,11 +5906,11 @@
       <c r="R11" s="55" t="s">
         <v>231</v>
       </c>
-      <c r="S11" s="52" t="s">
-        <v>19</v>
+      <c r="S11" s="55" t="s">
+        <v>28</v>
       </c>
       <c r="T11" s="52" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="U11" s="52" t="s">
         <v>28</v>
@@ -5863,12 +5931,14 @@
         <v>28</v>
       </c>
       <c r="AA11" s="52" t="s">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="AB11" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="AC11" s="52"/>
+      <c r="AC11" s="52" t="s">
+        <v>72</v>
+      </c>
       <c r="AD11" s="52"/>
       <c r="AE11" s="52"/>
       <c r="AF11" s="52"/>
@@ -5878,9 +5948,10 @@
       <c r="AJ11" s="52"/>
       <c r="AK11" s="52"/>
       <c r="AL11" s="52"/>
-      <c r="AN11" s="52"/>
-    </row>
-    <row r="12" spans="1:40" s="52" customFormat="1">
+      <c r="AM11" s="52"/>
+      <c r="AO11" s="52"/>
+    </row>
+    <row r="12" spans="1:41" s="52" customFormat="1">
       <c r="A12" s="46" t="s">
         <v>244</v>
       </c>
@@ -5936,10 +6007,10 @@
         <v>231</v>
       </c>
       <c r="S12" s="46" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="T12" s="46" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="U12" s="46" t="s">
         <v>28</v>
@@ -6001,8 +6072,11 @@
       <c r="AN12" s="46" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="13" spans="1:40" s="52" customFormat="1">
+      <c r="AO12" s="46" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:41" s="52" customFormat="1">
       <c r="A13" s="46" t="s">
         <v>244</v>
       </c>
@@ -6058,10 +6132,10 @@
         <v>548</v>
       </c>
       <c r="S13" s="46" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="T13" s="46" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="U13" s="46" t="s">
         <v>28</v>
@@ -6082,13 +6156,13 @@
         <v>28</v>
       </c>
       <c r="AA13" s="46" t="s">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="AB13" s="46" t="s">
         <v>72</v>
       </c>
       <c r="AC13" s="46" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="AD13" s="46" t="s">
         <v>28</v>
@@ -6123,8 +6197,11 @@
       <c r="AN13" s="46" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="14" spans="1:40" s="12" customFormat="1">
+      <c r="AO13" s="46" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:41" s="12" customFormat="1">
       <c r="A14" s="12" t="s">
         <v>249</v>
       </c>
@@ -6179,35 +6256,404 @@
       <c r="R14" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="S14" s="12" t="s">
-        <v>19</v>
+      <c r="S14" s="13" t="s">
+        <v>28</v>
       </c>
       <c r="T14" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="U14" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="U14" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="V14" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="V14" s="13" t="s">
+      <c r="W14" s="13" t="s">
         <v>247</v>
       </c>
-      <c r="W14" s="13" t="s">
+      <c r="X14" s="13" t="s">
         <v>250</v>
       </c>
-      <c r="X14" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y14" s="13" t="s">
+      <c r="Y14" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z14" s="13" t="s">
         <v>252</v>
       </c>
-      <c r="Z14" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA14" s="12" t="s">
-        <v>72</v>
+      <c r="AA14" s="13" t="s">
+        <v>28</v>
       </c>
       <c r="AB14" s="12" t="s">
         <v>72</v>
+      </c>
+      <c r="AC14" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:41" ht="43.5">
+      <c r="A15" s="46" t="s">
+        <v>540</v>
+      </c>
+      <c r="B15" s="46">
+        <v>1</v>
+      </c>
+      <c r="C15" s="46">
+        <v>1</v>
+      </c>
+      <c r="D15" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="J15" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="K15" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="L15" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="M15" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="N15" s="26" t="s">
+        <v>550</v>
+      </c>
+      <c r="O15" s="69" t="s">
+        <v>551</v>
+      </c>
+      <c r="P15" s="46" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q15" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="R15" s="46" t="s">
+        <v>231</v>
+      </c>
+      <c r="S15" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="T15" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="U15" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="V15" s="46" t="s">
+        <v>116</v>
+      </c>
+      <c r="W15" s="46" t="s">
+        <v>116</v>
+      </c>
+      <c r="X15" s="46" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y15" s="46" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z15" s="46" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA15" s="46" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB15" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC15" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD15" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE15" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF15" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG15" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH15" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI15" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ15" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK15" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="AL15" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="AM15" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN15" s="46" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:41" s="52" customFormat="1">
+      <c r="A16" s="46" t="s">
+        <v>540</v>
+      </c>
+      <c r="B16" s="46">
+        <v>1</v>
+      </c>
+      <c r="C16" s="46">
+        <v>2</v>
+      </c>
+      <c r="D16" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="J16" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="K16" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="L16" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="M16" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="N16" s="26" t="s">
+        <v>247</v>
+      </c>
+      <c r="O16" s="69" t="s">
+        <v>552</v>
+      </c>
+      <c r="P16" s="46" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q16" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="R16" s="46" t="s">
+        <v>231</v>
+      </c>
+      <c r="S16" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="T16" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="U16" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="V16" s="46" t="s">
+        <v>116</v>
+      </c>
+      <c r="W16" s="46" t="s">
+        <v>116</v>
+      </c>
+      <c r="X16" s="46" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y16" s="46" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z16" s="46" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA16" s="46" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB16" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC16" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD16" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE16" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF16" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG16" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH16" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI16" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ16" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK16" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="AL16" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="AM16" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN16" s="46" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:40" s="52" customFormat="1">
+      <c r="A17" s="46" t="s">
+        <v>540</v>
+      </c>
+      <c r="B17" s="46">
+        <v>1</v>
+      </c>
+      <c r="C17" s="46">
+        <v>3</v>
+      </c>
+      <c r="D17" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="J17" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="K17" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="L17" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="M17" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="N17" s="26" t="s">
+        <v>247</v>
+      </c>
+      <c r="O17" s="69" t="s">
+        <v>558</v>
+      </c>
+      <c r="P17" s="46" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q17" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="R17" s="46" t="s">
+        <v>231</v>
+      </c>
+      <c r="S17" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="T17" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="U17" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="V17" s="46" t="s">
+        <v>116</v>
+      </c>
+      <c r="W17" s="46" t="s">
+        <v>116</v>
+      </c>
+      <c r="X17" s="46" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y17" s="46" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z17" s="46" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA17" s="46" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB17" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC17" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD17" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE17" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF17" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG17" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH17" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI17" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ17" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK17" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="AL17" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="AM17" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN17" s="46" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -6217,6 +6663,158 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B8BFFCB-2EBD-4EF1-A547-11B320512EDC}">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="4" max="4" width="28" customWidth="1"/>
+    <col min="5" max="5" width="16.453125" customWidth="1"/>
+    <col min="6" max="6" width="23.453125" style="25" customWidth="1"/>
+    <col min="7" max="7" width="14.90625" customWidth="1"/>
+    <col min="8" max="8" width="14.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="52" customFormat="1">
+      <c r="A1" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="52" t="s">
+        <v>553</v>
+      </c>
+      <c r="E1" s="52" t="s">
+        <v>210</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="52" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" s="52" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="46" customFormat="1">
+      <c r="A2" s="46" t="s">
+        <v>314</v>
+      </c>
+      <c r="B2" s="46">
+        <v>1</v>
+      </c>
+      <c r="C2" s="46">
+        <v>1</v>
+      </c>
+      <c r="D2" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>554</v>
+      </c>
+      <c r="G2" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="46" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="46" customFormat="1" ht="16">
+      <c r="A3" s="46" t="s">
+        <v>314</v>
+      </c>
+      <c r="B3" s="46">
+        <v>1</v>
+      </c>
+      <c r="C3" s="46">
+        <v>2</v>
+      </c>
+      <c r="D3" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="70" t="s">
+        <v>555</v>
+      </c>
+      <c r="G3" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="46" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="46" customFormat="1" ht="16">
+      <c r="A4" s="46" t="s">
+        <v>314</v>
+      </c>
+      <c r="B4" s="46">
+        <v>1</v>
+      </c>
+      <c r="C4" s="46">
+        <v>3</v>
+      </c>
+      <c r="D4" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="70" t="s">
+        <v>556</v>
+      </c>
+      <c r="G4" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="46" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="46" customFormat="1" ht="16">
+      <c r="A5" s="46" t="s">
+        <v>314</v>
+      </c>
+      <c r="B5" s="46">
+        <v>1</v>
+      </c>
+      <c r="C5" s="46">
+        <v>4</v>
+      </c>
+      <c r="D5" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="70" t="s">
+        <v>557</v>
+      </c>
+      <c r="G5" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="46" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EB965DA-197B-4614-A4A7-724632791DDF}">
   <dimension ref="A1:P10"/>
   <sheetViews>
@@ -6441,7 +7039,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF8E0121-A3E3-4E0C-A6C2-D14C419C35E6}">
   <dimension ref="A1:F11"/>
   <sheetViews>
@@ -6680,7 +7278,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D0466C4-2A7E-450A-B61A-8C9FD13A7C54}">
   <dimension ref="A1:T4"/>
   <sheetViews>
@@ -6951,12 +7549,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC115C88-C50A-4C63-8FE8-A3BB8E337BDA}">
-  <dimension ref="A1:T18"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17:M18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -8099,13 +8697,75 @@
         <v>28</v>
       </c>
     </row>
+    <row r="19" spans="1:20" s="46" customFormat="1">
+      <c r="A19" s="46" t="s">
+        <v>540</v>
+      </c>
+      <c r="B19" s="46">
+        <v>1</v>
+      </c>
+      <c r="C19" s="46">
+        <v>3</v>
+      </c>
+      <c r="D19" s="46" t="s">
+        <v>312</v>
+      </c>
+      <c r="E19" s="46" t="s">
+        <v>306</v>
+      </c>
+      <c r="F19" s="46" t="s">
+        <v>306</v>
+      </c>
+      <c r="G19" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="H19" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="I19" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="J19" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="K19" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="L19" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="M19" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="N19" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="O19" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="P19" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q19" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="R19" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="S19" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="T19" s="46" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3FBF4A6-7E84-4BBE-931C-E882244C8ADD}">
   <dimension ref="A1:N2"/>
   <sheetViews>
@@ -8224,82 +8884,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA9DE1AC-8EA2-496B-95D5-07EEE381D497}">
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="1" max="1" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.81640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="52" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="52">
-        <v>1</v>
-      </c>
-      <c r="C2" s="52">
-        <v>1</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="52" t="s">
-        <v>229</v>
-      </c>
-      <c r="G2" s="52" t="s">
-        <v>131</v>
-      </c>
-      <c r="H2" s="52" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{186A334D-3D40-4E6E-89BC-E0399D12F63C}">
   <dimension ref="A1:W12"/>
@@ -8997,6 +9581,82 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA9DE1AC-8EA2-496B-95D5-07EEE381D497}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="52">
+        <v>1</v>
+      </c>
+      <c r="C2" s="52">
+        <v>1</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="52" t="s">
+        <v>229</v>
+      </c>
+      <c r="G2" s="52" t="s">
+        <v>131</v>
+      </c>
+      <c r="H2" s="52" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEB9A442-3ED4-406F-9296-DEFB50D41854}">
   <dimension ref="A1:AS12"/>
   <sheetViews>
@@ -9843,7 +10503,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{095CD396-3ADF-479F-9D73-2015DDAAC290}">
   <dimension ref="A1:AG17"/>
   <sheetViews>
@@ -10651,7 +11311,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91F26082-EA83-4A35-BBD3-990DF7F89614}">
   <dimension ref="A1:O9"/>
   <sheetViews>
@@ -10973,7 +11633,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D51A92E8-DE86-4923-B4B2-EC009BFCBA1D}">
   <dimension ref="A1:AL2"/>
   <sheetViews>
@@ -11212,7 +11872,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59212AD0-C31E-48EC-B224-4D88AD8AFE23}">
   <dimension ref="A1:L2"/>
   <sheetViews>
@@ -11299,7 +11959,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF5574DB-4887-4CA1-ACBF-C2C7DC4C1F7B}">
   <dimension ref="A1:M2"/>
   <sheetViews>
@@ -11394,7 +12054,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDAD89E8-F03C-4910-BC41-AC806E1DB4A1}">
   <dimension ref="A1:AC3"/>
   <sheetViews>
@@ -14901,13 +15561,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -15128,20 +15787,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{360C765C-5108-4856-B14E-979324B41D25}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{527B0702-8AF4-4307-A34D-2633AC2397ED}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -15166,9 +15824,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{527B0702-8AF4-4307-A34D-2633AC2397ED}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{360C765C-5108-4856-B14E-979324B41D25}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{ea60d57e-af5b-4752-ac57-3e4f28ca11dc}" enabled="1" method="Standard" siteId="{36da45f1-dd2c-4d1f-af13-5abe46b99921}" contentBits="0" removed="0"/>
+</clbl:labelList>
 </file>
--- a/Folio.xlsx
+++ b/Folio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{166D65CF-245E-4AEE-8B5F-5DE95FABDBB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BCEEA55-DD21-4B5F-9CF9-CBEFC7EE5495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="12" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="12" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Allegations" sheetId="1" r:id="rId1"/>
@@ -4852,8 +4852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{065689CF-B8B7-4123-B223-FA611E0B0CC8}">
   <dimension ref="A1:AO17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:AO17"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1:N1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
@@ -6554,10 +6554,10 @@
         <v>28</v>
       </c>
       <c r="E15" s="70" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="F15" s="70" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G15" s="70" t="s">
         <v>28</v>
@@ -6677,10 +6677,10 @@
         <v>28</v>
       </c>
       <c r="E16" s="70" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="F16" s="70" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G16" s="70" t="s">
         <v>28</v>
@@ -6918,7 +6918,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{369261F8-85B8-47AE-AF90-BA10816A09B4}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
@@ -15778,6 +15778,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -15994,15 +16003,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{360C765C-5108-4856-B14E-979324B41D25}">
   <ds:schemaRefs>
@@ -16014,6 +16014,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{527B0702-8AF4-4307-A34D-2633AC2397ED}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBA5B558-DFC3-420B-A09B-072555AB09C7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -16032,14 +16040,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{527B0702-8AF4-4307-A34D-2633AC2397ED}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{ea60d57e-af5b-4752-ac57-3e4f28ca11dc}" enabled="1" method="Standard" siteId="{36da45f1-dd2c-4d1f-af13-5abe46b99921}" contentBits="0" removed="0"/>

--- a/Folio.xlsx
+++ b/Folio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BCEEA55-DD21-4B5F-9CF9-CBEFC7EE5495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{176DB53A-7410-48A4-9122-9F12A698626C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="12" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4852,8 +4852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{065689CF-B8B7-4123-B223-FA611E0B0CC8}">
   <dimension ref="A1:AO17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:N1048576"/>
+    <sheetView tabSelected="1" topLeftCell="AJ1" workbookViewId="0">
+      <selection activeCell="U15" sqref="U15:U17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
@@ -6596,13 +6596,13 @@
         <v>309</v>
       </c>
       <c r="S15" s="70" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="T15" s="70" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="U15" s="70" t="s">
-        <v>28</v>
+        <v>147</v>
       </c>
       <c r="V15" s="70" t="s">
         <v>147</v>
@@ -6719,13 +6719,13 @@
         <v>309</v>
       </c>
       <c r="S16" s="70" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="T16" s="70" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="U16" s="70" t="s">
-        <v>28</v>
+        <v>147</v>
       </c>
       <c r="V16" s="70" t="s">
         <v>147</v>
@@ -6842,13 +6842,13 @@
         <v>309</v>
       </c>
       <c r="S17" s="70" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="T17" s="70" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="U17" s="70" t="s">
-        <v>28</v>
+        <v>147</v>
       </c>
       <c r="V17" s="70" t="s">
         <v>147</v>

--- a/Folio.xlsx
+++ b/Folio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{176DB53A-7410-48A4-9122-9F12A698626C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD00DB5D-D52A-48A8-A225-A0570985B22C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="12" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1750,9 +1750,6 @@
     <t>Tribal Home Certification Letter</t>
   </si>
   <si>
-    <t>County Placement Form</t>
-  </si>
-  <si>
     <t>Placement Agreement</t>
   </si>
   <si>
@@ -1769,6 +1766,9 @@
   </si>
   <si>
     <t>SOC 154A - Placement Agency - Foster Family Agency Agreement Child Placed By Agency In Foster Family Agency</t>
+  </si>
+  <si>
+    <t>Case Summary</t>
   </si>
 </sst>
 </file>
@@ -4852,8 +4852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{065689CF-B8B7-4123-B223-FA611E0B0CC8}">
   <dimension ref="A1:AO17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ1" workbookViewId="0">
-      <selection activeCell="U15" sqref="U15:U17"/>
+    <sheetView tabSelected="1" topLeftCell="I2" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
@@ -6663,7 +6663,7 @@
       </c>
       <c r="AO15" s="69"/>
     </row>
-    <row r="16" spans="1:41" ht="29">
+    <row r="16" spans="1:41">
       <c r="A16" s="70" t="s">
         <v>401</v>
       </c>
@@ -6707,7 +6707,7 @@
         <v>325</v>
       </c>
       <c r="O16" s="72" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="P16" s="70" t="s">
         <v>146</v>
@@ -6830,7 +6830,7 @@
         <v>325</v>
       </c>
       <c r="O17" s="72" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="P17" s="70" t="s">
         <v>146</v>
@@ -6944,7 +6944,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="69" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E1" s="69" t="s">
         <v>290</v>
@@ -6976,7 +6976,7 @@
         <v>28</v>
       </c>
       <c r="F2" s="71" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="G2" s="70" t="s">
         <v>19</v>
@@ -7002,7 +7002,7 @@
         <v>28</v>
       </c>
       <c r="F3" s="73" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="G3" s="70" t="s">
         <v>19</v>
@@ -7028,7 +7028,7 @@
         <v>28</v>
       </c>
       <c r="F4" s="73" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="G4" s="70" t="s">
         <v>19</v>
@@ -7054,7 +7054,7 @@
         <v>28</v>
       </c>
       <c r="F5" s="73" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="G5" s="70" t="s">
         <v>19</v>
@@ -15778,15 +15778,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -16003,6 +15994,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{360C765C-5108-4856-B14E-979324B41D25}">
   <ds:schemaRefs>
@@ -16014,14 +16014,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{527B0702-8AF4-4307-A34D-2633AC2397ED}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBA5B558-DFC3-420B-A09B-072555AB09C7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -16040,6 +16032,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{527B0702-8AF4-4307-A34D-2633AC2397ED}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{ea60d57e-af5b-4752-ac57-3e4f28ca11dc}" enabled="1" method="Standard" siteId="{36da45f1-dd2c-4d1f-af13-5abe46b99921}" contentBits="0" removed="0"/>

--- a/Folio.xlsx
+++ b/Folio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD00DB5D-D52A-48A8-A225-A0570985B22C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9F960C7-1575-4F85-95AC-9D51B1898B42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="12" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10" yWindow="4760" windowWidth="19200" windowHeight="5800" firstSheet="12" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Allegations" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2936" uniqueCount="560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2931" uniqueCount="560">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -4852,7 +4852,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{065689CF-B8B7-4123-B223-FA611E0B0CC8}">
   <dimension ref="A1:AO17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I2" workbookViewId="0">
+    <sheetView topLeftCell="I2" workbookViewId="0">
       <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
@@ -6916,24 +6916,23 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{369261F8-85B8-47AE-AF90-BA10816A09B4}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="3" width="8.7265625" style="69"/>
     <col min="4" max="4" width="28" style="69" customWidth="1"/>
-    <col min="5" max="5" width="16.453125" style="69" customWidth="1"/>
-    <col min="6" max="6" width="23.453125" style="25" customWidth="1"/>
-    <col min="7" max="7" width="14.90625" style="69" customWidth="1"/>
-    <col min="8" max="8" width="14.36328125" style="69" customWidth="1"/>
-    <col min="9" max="16384" width="8.7265625" style="69"/>
+    <col min="5" max="5" width="45.26953125" style="25" customWidth="1"/>
+    <col min="6" max="6" width="14.90625" style="69" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" style="69" customWidth="1"/>
+    <col min="8" max="16384" width="8.7265625" style="69"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:7">
       <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
@@ -6946,20 +6945,17 @@
       <c r="D1" s="69" t="s">
         <v>554</v>
       </c>
-      <c r="E1" s="69" t="s">
-        <v>290</v>
-      </c>
-      <c r="F1" s="25" t="s">
+      <c r="E1" s="25" t="s">
         <v>151</v>
       </c>
+      <c r="F1" s="69" t="s">
+        <v>150</v>
+      </c>
       <c r="G1" s="69" t="s">
-        <v>150</v>
-      </c>
-      <c r="H1" s="69" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="70" customFormat="1">
+    <row r="2" spans="1:7" s="70" customFormat="1" ht="12" customHeight="1">
       <c r="A2" s="70" t="s">
         <v>401</v>
       </c>
@@ -6972,20 +6968,17 @@
       <c r="D2" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="71" t="s">
+      <c r="E2" s="71" t="s">
         <v>555</v>
       </c>
+      <c r="F2" s="70" t="s">
+        <v>19</v>
+      </c>
       <c r="G2" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="70" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="70" customFormat="1" ht="16">
+    </row>
+    <row r="3" spans="1:7" s="70" customFormat="1" ht="16">
       <c r="A3" s="70" t="s">
         <v>401</v>
       </c>
@@ -6998,20 +6991,17 @@
       <c r="D3" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="73" t="s">
+      <c r="E3" s="73" t="s">
         <v>556</v>
       </c>
+      <c r="F3" s="70" t="s">
+        <v>19</v>
+      </c>
       <c r="G3" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="70" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="70" customFormat="1" ht="16">
+    </row>
+    <row r="4" spans="1:7" s="70" customFormat="1" ht="16">
       <c r="A4" s="70" t="s">
         <v>401</v>
       </c>
@@ -7024,20 +7014,17 @@
       <c r="D4" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="73" t="s">
+      <c r="E4" s="73" t="s">
         <v>557</v>
       </c>
+      <c r="F4" s="70" t="s">
+        <v>19</v>
+      </c>
       <c r="G4" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="70" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="70" customFormat="1" ht="16">
+    </row>
+    <row r="5" spans="1:7" s="70" customFormat="1" ht="16">
       <c r="A5" s="70" t="s">
         <v>401</v>
       </c>
@@ -7050,16 +7037,13 @@
       <c r="D5" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="73" t="s">
+      <c r="E5" s="73" t="s">
         <v>558</v>
       </c>
+      <c r="F5" s="70" t="s">
+        <v>19</v>
+      </c>
       <c r="G5" s="70" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="70" t="s">
         <v>19</v>
       </c>
     </row>
@@ -15778,6 +15762,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -15994,15 +15987,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{360C765C-5108-4856-B14E-979324B41D25}">
   <ds:schemaRefs>
@@ -16014,6 +15998,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{527B0702-8AF4-4307-A34D-2633AC2397ED}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBA5B558-DFC3-420B-A09B-072555AB09C7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -16032,14 +16024,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{527B0702-8AF4-4307-A34D-2633AC2397ED}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{ea60d57e-af5b-4752-ac57-3e4f28ca11dc}" enabled="1" method="Standard" siteId="{36da45f1-dd2c-4d1f-af13-5abe46b99921}" contentBits="0" removed="0"/>

--- a/Folio.xlsx
+++ b/Folio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9F960C7-1575-4F85-95AC-9D51B1898B42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0C48024-357B-4A40-B85A-8064E3D046DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10" yWindow="4760" windowWidth="19200" windowHeight="5800" firstSheet="12" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="1760" windowWidth="19200" windowHeight="5800" firstSheet="12" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Allegations" sheetId="1" r:id="rId1"/>
@@ -1759,16 +1759,16 @@
     <t>SOC 153 - Placement Agency - Foster Family Agency Agreement Nonminor Dependent Placed by Agency in Foster Family Agency</t>
   </si>
   <si>
-    <t>SOC-155 - Voluntary Placement Agreement - Placement Request</t>
-  </si>
-  <si>
-    <t>SOC-156 - Agency - Foster Parents Agreement Child Placed by Agency in Foster Home</t>
-  </si>
-  <si>
     <t>SOC 154A - Placement Agency - Foster Family Agency Agreement Child Placed By Agency In Foster Family Agency</t>
   </si>
   <si>
     <t>Case Summary</t>
+  </si>
+  <si>
+    <t>SOC 155 - Voluntary Placement Agreement - Placement Request</t>
+  </si>
+  <si>
+    <t>SOC 156 - Agency - Foster Parents Agreement Child Placed by Agency in Foster Home</t>
   </si>
 </sst>
 </file>
@@ -6707,7 +6707,7 @@
         <v>325</v>
       </c>
       <c r="O16" s="72" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="P16" s="70" t="s">
         <v>146</v>
@@ -6918,8 +6918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{369261F8-85B8-47AE-AF90-BA10816A09B4}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G6"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -6992,7 +6992,7 @@
         <v>19</v>
       </c>
       <c r="E3" s="73" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="F3" s="70" t="s">
         <v>19</v>
@@ -7015,7 +7015,7 @@
         <v>19</v>
       </c>
       <c r="E4" s="73" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="F4" s="70" t="s">
         <v>19</v>
@@ -7038,7 +7038,7 @@
         <v>19</v>
       </c>
       <c r="E5" s="73" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="F5" s="70" t="s">
         <v>19</v>

--- a/Folio.xlsx
+++ b/Folio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0C48024-357B-4A40-B85A-8064E3D046DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08F38D9B-3F52-42F9-A44B-3AA95458867E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="1760" windowWidth="19200" windowHeight="5800" firstSheet="12" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="570" yWindow="5300" windowWidth="19200" windowHeight="5800" firstSheet="12" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Allegations" sheetId="1" r:id="rId1"/>
@@ -4852,8 +4852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{065689CF-B8B7-4123-B223-FA611E0B0CC8}">
   <dimension ref="A1:AO17"/>
   <sheetViews>
-    <sheetView topLeftCell="I2" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" topLeftCell="K15" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
@@ -4871,7 +4871,7 @@
     <col min="12" max="12" width="16.453125" style="39" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="20.453125" style="39" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="21.08984375" style="39" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.90625" style="39" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.81640625" style="39" customWidth="1"/>
     <col min="16" max="16" width="18.08984375" style="39" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11.90625" style="39" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="18.90625" style="39" bestFit="1" customWidth="1"/>
@@ -6786,7 +6786,7 @@
       </c>
       <c r="AO16" s="69"/>
     </row>
-    <row r="17" spans="1:40" ht="29">
+    <row r="17" spans="1:40">
       <c r="A17" s="70" t="s">
         <v>401</v>
       </c>
@@ -6918,7 +6918,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{369261F8-85B8-47AE-AF90-BA10816A09B4}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>

--- a/Folio.xlsx
+++ b/Folio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08F38D9B-3F52-42F9-A44B-3AA95458867E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A81DDF6-3738-4B83-93A4-78D3A1D831D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="570" yWindow="5300" windowWidth="19200" windowHeight="5800" firstSheet="12" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="10" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Allegations" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2931" uniqueCount="560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2901" uniqueCount="560">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -1750,6 +1750,9 @@
     <t>Tribal Home Certification Letter</t>
   </si>
   <si>
+    <t>Case Summary</t>
+  </si>
+  <si>
     <t>Placement Agreement</t>
   </si>
   <si>
@@ -1759,16 +1762,13 @@
     <t>SOC 153 - Placement Agency - Foster Family Agency Agreement Nonminor Dependent Placed by Agency in Foster Family Agency</t>
   </si>
   <si>
+    <t>SOC 155 - Voluntary Placement Agreement - Placement Request</t>
+  </si>
+  <si>
+    <t>SOC 156 - Agency - Foster Parents Agreement Child Placed by Agency in Foster Home</t>
+  </si>
+  <si>
     <t>SOC 154A - Placement Agency - Foster Family Agency Agreement Child Placed By Agency In Foster Family Agency</t>
-  </si>
-  <si>
-    <t>Case Summary</t>
-  </si>
-  <si>
-    <t>SOC 155 - Voluntary Placement Agreement - Placement Request</t>
-  </si>
-  <si>
-    <t>SOC 156 - Agency - Foster Parents Agreement Child Placed by Agency in Foster Home</t>
   </si>
 </sst>
 </file>
@@ -1991,7 +1991,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2069,9 +2069,6 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2394,7 +2391,7 @@
   <dimension ref="A1:Y13"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -4850,10 +4847,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{065689CF-B8B7-4123-B223-FA611E0B0CC8}">
-  <dimension ref="A1:AO17"/>
+  <dimension ref="A1:AN17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K15" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
@@ -4871,7 +4868,7 @@
     <col min="12" max="12" width="16.453125" style="39" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="20.453125" style="39" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="21.08984375" style="39" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.81640625" style="39" customWidth="1"/>
+    <col min="15" max="15" width="15.90625" style="39" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="18.08984375" style="39" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11.90625" style="39" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="18.90625" style="39" bestFit="1" customWidth="1"/>
@@ -4899,7 +4896,7 @@
     <col min="41" max="16384" width="8.90625" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41">
+    <row r="1" spans="1:40">
       <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
@@ -5021,7 +5018,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:41">
+    <row r="2" spans="1:40">
       <c r="A2" s="50" t="s">
         <v>27</v>
       </c>
@@ -5143,7 +5140,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="3" spans="1:41" s="46" customFormat="1">
+    <row r="3" spans="1:40" s="46" customFormat="1">
       <c r="A3" s="50" t="s">
         <v>27</v>
       </c>
@@ -5265,7 +5262,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:41">
+    <row r="4" spans="1:40">
       <c r="A4" s="50" t="s">
         <v>27</v>
       </c>
@@ -5387,7 +5384,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:41">
+    <row r="5" spans="1:40">
       <c r="A5" s="50" t="s">
         <v>27</v>
       </c>
@@ -5509,7 +5506,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:41">
+    <row r="6" spans="1:40">
       <c r="A6" s="50" t="s">
         <v>27</v>
       </c>
@@ -5631,7 +5628,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:41">
+    <row r="7" spans="1:40">
       <c r="A7" s="50" t="s">
         <v>27</v>
       </c>
@@ -5753,7 +5750,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:41">
+    <row r="8" spans="1:40">
       <c r="A8" s="50" t="s">
         <v>27</v>
       </c>
@@ -5875,7 +5872,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:41">
+    <row r="9" spans="1:40">
       <c r="A9" s="50" t="s">
         <v>27</v>
       </c>
@@ -5997,7 +5994,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:41">
+    <row r="10" spans="1:40">
       <c r="A10" s="46" t="s">
         <v>322</v>
       </c>
@@ -6113,7 +6110,7 @@
       </c>
       <c r="AN10" s="52"/>
     </row>
-    <row r="11" spans="1:41">
+    <row r="11" spans="1:40">
       <c r="A11" s="46" t="s">
         <v>322</v>
       </c>
@@ -6210,7 +6207,7 @@
       <c r="AL11" s="52"/>
       <c r="AN11" s="52"/>
     </row>
-    <row r="12" spans="1:41" s="52" customFormat="1">
+    <row r="12" spans="1:40" s="52" customFormat="1">
       <c r="A12" s="46" t="s">
         <v>322</v>
       </c>
@@ -6332,7 +6329,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:41" s="52" customFormat="1">
+    <row r="13" spans="1:40" s="52" customFormat="1">
       <c r="A13" s="46" t="s">
         <v>322</v>
       </c>
@@ -6454,7 +6451,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:41" s="12" customFormat="1">
+    <row r="14" spans="1:40" s="12" customFormat="1">
       <c r="A14" s="12" t="s">
         <v>332</v>
       </c>
@@ -6540,371 +6537,369 @@
         <v>149</v>
       </c>
     </row>
-    <row r="15" spans="1:41" ht="43.5">
-      <c r="A15" s="70" t="s">
+    <row r="15" spans="1:40" s="52" customFormat="1" ht="43.5">
+      <c r="A15" s="46" t="s">
         <v>401</v>
       </c>
-      <c r="B15" s="70">
-        <v>1</v>
-      </c>
-      <c r="C15" s="70">
-        <v>1</v>
-      </c>
-      <c r="D15" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="70" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="H15" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="I15" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="J15" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="K15" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="L15" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="M15" s="70" t="s">
-        <v>19</v>
-      </c>
-      <c r="N15" s="71" t="s">
+      <c r="B15" s="46">
+        <v>1</v>
+      </c>
+      <c r="C15" s="46">
+        <v>1</v>
+      </c>
+      <c r="D15" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="J15" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="K15" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="L15" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="M15" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="N15" s="26" t="s">
         <v>551</v>
       </c>
-      <c r="O15" s="72" t="s">
+      <c r="O15" s="69" t="s">
         <v>552</v>
       </c>
-      <c r="P15" s="70" t="s">
+      <c r="P15" s="46" t="s">
         <v>146</v>
       </c>
-      <c r="Q15" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="R15" s="70" t="s">
+      <c r="Q15" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="R15" s="46" t="s">
         <v>309</v>
       </c>
-      <c r="S15" s="70" t="s">
-        <v>19</v>
-      </c>
-      <c r="T15" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="U15" s="70" t="s">
-        <v>147</v>
-      </c>
-      <c r="V15" s="70" t="s">
-        <v>147</v>
-      </c>
-      <c r="W15" s="70" t="s">
-        <v>147</v>
-      </c>
-      <c r="X15" s="70" t="s">
-        <v>147</v>
-      </c>
-      <c r="Y15" s="70" t="s">
-        <v>147</v>
-      </c>
-      <c r="Z15" s="70" t="s">
-        <v>147</v>
-      </c>
-      <c r="AA15" s="70" t="s">
-        <v>147</v>
-      </c>
-      <c r="AB15" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC15" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD15" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE15" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="AF15" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="AG15" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="AH15" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="AI15" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="AJ15" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="AK15" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="AL15" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="AM15" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="AN15" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="AO15" s="69"/>
-    </row>
-    <row r="16" spans="1:41">
-      <c r="A16" s="70" t="s">
+      <c r="S15" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="T15" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="U15" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="V15" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="W15" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="X15" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y15" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="Z15" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="AA15" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="AB15" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC15" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD15" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE15" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF15" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG15" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH15" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI15" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ15" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK15" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="AL15" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="AM15" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN15" s="46" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:40" s="52" customFormat="1">
+      <c r="A16" s="46" t="s">
         <v>401</v>
       </c>
-      <c r="B16" s="70">
-        <v>1</v>
-      </c>
-      <c r="C16" s="70">
+      <c r="B16" s="46">
+        <v>1</v>
+      </c>
+      <c r="C16" s="46">
         <v>2</v>
       </c>
-      <c r="D16" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="70" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="G16" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="H16" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="I16" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="J16" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="K16" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="L16" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="M16" s="70" t="s">
-        <v>19</v>
-      </c>
-      <c r="N16" s="71" t="s">
+      <c r="D16" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="J16" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="K16" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="L16" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="M16" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="N16" s="26" t="s">
         <v>325</v>
       </c>
-      <c r="O16" s="72" t="s">
-        <v>557</v>
-      </c>
-      <c r="P16" s="70" t="s">
+      <c r="O16" s="69" t="s">
+        <v>553</v>
+      </c>
+      <c r="P16" s="46" t="s">
         <v>146</v>
       </c>
-      <c r="Q16" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="R16" s="70" t="s">
+      <c r="Q16" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="R16" s="46" t="s">
         <v>309</v>
       </c>
-      <c r="S16" s="70" t="s">
-        <v>19</v>
-      </c>
-      <c r="T16" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="U16" s="70" t="s">
-        <v>147</v>
-      </c>
-      <c r="V16" s="70" t="s">
-        <v>147</v>
-      </c>
-      <c r="W16" s="70" t="s">
-        <v>147</v>
-      </c>
-      <c r="X16" s="70" t="s">
-        <v>147</v>
-      </c>
-      <c r="Y16" s="70" t="s">
-        <v>147</v>
-      </c>
-      <c r="Z16" s="70" t="s">
-        <v>147</v>
-      </c>
-      <c r="AA16" s="70" t="s">
-        <v>147</v>
-      </c>
-      <c r="AB16" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC16" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD16" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE16" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="AF16" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="AG16" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="AH16" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="AI16" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="AJ16" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="AK16" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="AL16" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="AM16" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="AN16" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="AO16" s="69"/>
-    </row>
-    <row r="17" spans="1:40">
-      <c r="A17" s="70" t="s">
+      <c r="S16" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="T16" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="U16" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="V16" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="W16" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="X16" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y16" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="Z16" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="AA16" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="AB16" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC16" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD16" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE16" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF16" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG16" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH16" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI16" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ16" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK16" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="AL16" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="AM16" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN16" s="46" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:40" s="52" customFormat="1" ht="29">
+      <c r="A17" s="46" t="s">
         <v>401</v>
       </c>
-      <c r="B17" s="70">
-        <v>1</v>
-      </c>
-      <c r="C17" s="70">
+      <c r="B17" s="46">
+        <v>1</v>
+      </c>
+      <c r="C17" s="46">
         <v>3</v>
       </c>
-      <c r="D17" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="70" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="G17" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="H17" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="I17" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="J17" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="K17" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="L17" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="M17" s="70" t="s">
-        <v>19</v>
-      </c>
-      <c r="N17" s="71" t="s">
+      <c r="D17" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="J17" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="K17" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="L17" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="M17" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="N17" s="26" t="s">
         <v>325</v>
       </c>
-      <c r="O17" s="72" t="s">
-        <v>553</v>
-      </c>
-      <c r="P17" s="70" t="s">
+      <c r="O17" s="69" t="s">
+        <v>554</v>
+      </c>
+      <c r="P17" s="46" t="s">
         <v>146</v>
       </c>
-      <c r="Q17" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="R17" s="70" t="s">
+      <c r="Q17" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="R17" s="46" t="s">
         <v>309</v>
       </c>
-      <c r="S17" s="70" t="s">
-        <v>19</v>
-      </c>
-      <c r="T17" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="U17" s="70" t="s">
-        <v>147</v>
-      </c>
-      <c r="V17" s="70" t="s">
-        <v>147</v>
-      </c>
-      <c r="W17" s="70" t="s">
-        <v>147</v>
-      </c>
-      <c r="X17" s="70" t="s">
-        <v>147</v>
-      </c>
-      <c r="Y17" s="70" t="s">
-        <v>147</v>
-      </c>
-      <c r="Z17" s="70" t="s">
-        <v>147</v>
-      </c>
-      <c r="AA17" s="70" t="s">
-        <v>147</v>
-      </c>
-      <c r="AB17" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC17" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD17" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE17" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="AF17" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="AG17" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="AH17" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="AI17" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="AJ17" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="AK17" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="AL17" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="AM17" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="AN17" s="70" t="s">
+      <c r="S17" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="T17" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="U17" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="V17" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="W17" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="X17" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y17" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="Z17" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="AA17" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="AB17" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC17" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD17" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE17" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF17" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG17" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH17" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI17" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ17" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK17" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="AL17" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="AM17" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN17" s="46" t="s">
         <v>28</v>
       </c>
     </row>
@@ -6915,135 +6910,127 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{369261F8-85B8-47AE-AF90-BA10816A09B4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8FCA55B-CD14-4ADB-91DF-0E908AE3D902}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="1" max="3" width="8.7265625" style="69"/>
-    <col min="4" max="4" width="28" style="69" customWidth="1"/>
-    <col min="5" max="5" width="45.26953125" style="25" customWidth="1"/>
-    <col min="6" max="6" width="14.90625" style="69" customWidth="1"/>
-    <col min="7" max="7" width="14.36328125" style="69" customWidth="1"/>
-    <col min="8" max="16384" width="8.7265625" style="69"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" s="52" customFormat="1">
       <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="69" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="69" t="s">
+      <c r="B1" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="69" t="s">
-        <v>554</v>
+      <c r="D1" s="52" t="s">
+        <v>555</v>
       </c>
       <c r="E1" s="25" t="s">
         <v>151</v>
       </c>
-      <c r="F1" s="69" t="s">
+      <c r="F1" s="52" t="s">
         <v>150</v>
       </c>
-      <c r="G1" s="69" t="s">
+      <c r="G1" s="52" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="70" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="70" t="s">
+    <row r="2" spans="1:7" s="46" customFormat="1" ht="12" customHeight="1">
+      <c r="A2" s="46" t="s">
         <v>401</v>
       </c>
-      <c r="B2" s="70">
-        <v>1</v>
-      </c>
-      <c r="C2" s="70">
-        <v>1</v>
-      </c>
-      <c r="D2" s="70" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="71" t="s">
-        <v>555</v>
-      </c>
-      <c r="F2" s="70" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="70" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="70" customFormat="1" ht="16">
-      <c r="A3" s="70" t="s">
+      <c r="B2" s="46">
+        <v>1</v>
+      </c>
+      <c r="C2" s="46">
+        <v>1</v>
+      </c>
+      <c r="D2" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>556</v>
+      </c>
+      <c r="F2" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="46" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="46" customFormat="1" ht="16">
+      <c r="A3" s="46" t="s">
         <v>401</v>
       </c>
-      <c r="B3" s="70">
-        <v>1</v>
-      </c>
-      <c r="C3" s="70">
+      <c r="B3" s="46">
+        <v>1</v>
+      </c>
+      <c r="C3" s="46">
         <v>2</v>
       </c>
-      <c r="D3" s="70" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="73" t="s">
+      <c r="D3" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="70" t="s">
+        <v>557</v>
+      </c>
+      <c r="F3" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="46" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="46" customFormat="1" ht="16">
+      <c r="A4" s="46" t="s">
+        <v>401</v>
+      </c>
+      <c r="B4" s="46">
+        <v>1</v>
+      </c>
+      <c r="C4" s="46">
+        <v>3</v>
+      </c>
+      <c r="D4" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="70" t="s">
         <v>558</v>
       </c>
-      <c r="F3" s="70" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="70" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="70" customFormat="1" ht="16">
-      <c r="A4" s="70" t="s">
+      <c r="F4" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="46" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="46" customFormat="1" ht="16">
+      <c r="A5" s="46" t="s">
         <v>401</v>
       </c>
-      <c r="B4" s="70">
-        <v>1</v>
-      </c>
-      <c r="C4" s="70">
-        <v>3</v>
-      </c>
-      <c r="D4" s="70" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="73" t="s">
+      <c r="B5" s="46">
+        <v>1</v>
+      </c>
+      <c r="C5" s="46">
+        <v>4</v>
+      </c>
+      <c r="D5" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="70" t="s">
         <v>559</v>
       </c>
-      <c r="F4" s="70" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="70" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="70" customFormat="1" ht="16">
-      <c r="A5" s="70" t="s">
-        <v>401</v>
-      </c>
-      <c r="B5" s="70">
-        <v>1</v>
-      </c>
-      <c r="C5" s="70">
-        <v>4</v>
-      </c>
-      <c r="D5" s="70" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="73" t="s">
-        <v>556</v>
-      </c>
-      <c r="F5" s="70" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="70" t="s">
+      <c r="F5" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="46" t="s">
         <v>19</v>
       </c>
     </row>
@@ -7789,10 +7776,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC115C88-C50A-4C63-8FE8-A3BB8E337BDA}">
-  <dimension ref="A1:T22"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -8811,189 +8798,189 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:20" s="70" customFormat="1">
-      <c r="A17" s="70" t="s">
+    <row r="17" spans="1:20" s="46" customFormat="1">
+      <c r="A17" s="46" t="s">
         <v>401</v>
       </c>
-      <c r="B17" s="70">
-        <v>1</v>
-      </c>
-      <c r="C17" s="70">
-        <v>1</v>
-      </c>
-      <c r="D17" s="70" t="s">
+      <c r="B17" s="46">
+        <v>1</v>
+      </c>
+      <c r="C17" s="46">
+        <v>1</v>
+      </c>
+      <c r="D17" s="46" t="s">
         <v>395</v>
       </c>
-      <c r="E17" s="70" t="s">
+      <c r="E17" s="46" t="s">
         <v>389</v>
       </c>
-      <c r="F17" s="70" t="s">
+      <c r="F17" s="46" t="s">
         <v>389</v>
       </c>
-      <c r="G17" s="70" t="s">
+      <c r="G17" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="H17" s="70" t="s">
-        <v>19</v>
-      </c>
-      <c r="I17" s="70" t="s">
-        <v>19</v>
-      </c>
-      <c r="J17" s="70" t="s">
-        <v>19</v>
-      </c>
-      <c r="K17" s="70" t="s">
-        <v>19</v>
-      </c>
-      <c r="L17" s="70" t="s">
-        <v>19</v>
-      </c>
-      <c r="M17" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="N17" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="O17" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="P17" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q17" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="R17" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="S17" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="T17" s="70" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" s="70" customFormat="1">
-      <c r="A18" s="70" t="s">
+      <c r="H17" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="J17" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="K17" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="L17" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="M17" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="N17" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="O17" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="P17" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q17" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="R17" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="S17" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="T17" s="46" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" s="46" customFormat="1">
+      <c r="A18" s="46" t="s">
         <v>401</v>
       </c>
-      <c r="B18" s="70">
-        <v>1</v>
-      </c>
-      <c r="C18" s="70">
+      <c r="B18" s="46">
+        <v>1</v>
+      </c>
+      <c r="C18" s="46">
         <v>2</v>
       </c>
-      <c r="D18" s="70" t="s">
+      <c r="D18" s="46" t="s">
         <v>402</v>
       </c>
-      <c r="E18" s="70" t="s">
+      <c r="E18" s="46" t="s">
         <v>389</v>
       </c>
-      <c r="F18" s="70" t="s">
+      <c r="F18" s="46" t="s">
         <v>389</v>
       </c>
-      <c r="G18" s="70" t="s">
+      <c r="G18" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="H18" s="70" t="s">
-        <v>19</v>
-      </c>
-      <c r="I18" s="70" t="s">
-        <v>19</v>
-      </c>
-      <c r="J18" s="70" t="s">
-        <v>19</v>
-      </c>
-      <c r="K18" s="70" t="s">
-        <v>19</v>
-      </c>
-      <c r="L18" s="70" t="s">
-        <v>19</v>
-      </c>
-      <c r="M18" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="N18" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="O18" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="P18" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q18" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="R18" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="S18" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="T18" s="70" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" s="70" customFormat="1">
-      <c r="A19" s="70" t="s">
-        <v>401</v>
-      </c>
-      <c r="B19" s="70">
-        <v>1</v>
-      </c>
-      <c r="C19" s="70">
-        <v>3</v>
-      </c>
-      <c r="D19" s="70" t="s">
+      <c r="H18" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="I18" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="J18" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="N18" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="O18" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="P18" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q18" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="R18" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="S18" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="T18" s="46" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="B19" s="5">
+        <v>1</v>
+      </c>
+      <c r="C19" s="5">
+        <v>1</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="E19" s="70" t="s">
+      <c r="E19" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="F19" s="70" t="s">
+      <c r="F19" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="G19" s="70" t="s">
+      <c r="G19" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="H19" s="70" t="s">
-        <v>19</v>
-      </c>
-      <c r="I19" s="70" t="s">
-        <v>19</v>
-      </c>
-      <c r="J19" s="70" t="s">
-        <v>19</v>
-      </c>
-      <c r="K19" s="70" t="s">
-        <v>19</v>
-      </c>
-      <c r="L19" s="70" t="s">
-        <v>19</v>
-      </c>
-      <c r="M19" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="N19" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="O19" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="P19" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q19" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="R19" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="S19" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="T19" s="70" t="s">
+      <c r="H19" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M19" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="N19" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="O19" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="P19" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q19" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="R19" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="S19" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="T19" s="5" t="s">
         <v>28</v>
       </c>
     </row>
@@ -9005,10 +8992,10 @@
         <v>1</v>
       </c>
       <c r="C20" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>389</v>
@@ -9060,88 +9047,26 @@
       </c>
     </row>
     <row r="21" spans="1:20">
-      <c r="A21" s="5" t="s">
-        <v>332</v>
-      </c>
-      <c r="B21" s="5">
-        <v>1</v>
-      </c>
-      <c r="C21" s="5">
-        <v>2</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>400</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>389</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>389</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="5" t="s">
-        <v>391</v>
-      </c>
-      <c r="N21" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="O21" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="P21" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q21" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="R21" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="S21" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="T21" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" s="52"/>
-      <c r="B22" s="52"/>
-      <c r="C22" s="52"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="52"/>
-      <c r="G22" s="52"/>
-      <c r="H22" s="52"/>
-      <c r="I22" s="52"/>
-      <c r="J22" s="52"/>
-      <c r="K22" s="52"/>
-      <c r="L22" s="52"/>
-      <c r="M22" s="52"/>
-      <c r="N22" s="52"/>
-      <c r="O22" s="52"/>
-      <c r="P22" s="52"/>
-      <c r="Q22" s="52"/>
-      <c r="R22" s="52"/>
-      <c r="S22" s="52"/>
-      <c r="T22" s="52"/>
+      <c r="A21" s="52"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="52"/>
+      <c r="N21" s="52"/>
+      <c r="O21" s="52"/>
+      <c r="P21" s="52"/>
+      <c r="Q21" s="52"/>
+      <c r="R21" s="52"/>
+      <c r="S21" s="52"/>
+      <c r="T21" s="52"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9154,7 +9079,7 @@
   <dimension ref="A1:W12"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -9504,8 +9429,8 @@
       <c r="K6" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="L6" s="31" t="s">
-        <v>28</v>
+      <c r="L6" s="57" t="s">
+        <v>58</v>
       </c>
       <c r="M6" s="31" t="s">
         <v>59</v>
@@ -13876,7 +13801,7 @@
   <dimension ref="A1:BF5"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -14945,28 +14870,27 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{056B68C9-3C17-4B06-80C0-880DDEDA4E17}">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="19.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.08984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.08984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.08984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.90625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="1.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:10">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -14997,11 +14921,8 @@
       <c r="J1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="49"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-    </row>
-    <row r="2" spans="1:13">
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="50" t="s">
         <v>548</v>
       </c>
@@ -15029,54 +14950,8 @@
       <c r="I2" s="50" t="s">
         <v>167</v>
       </c>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="L2" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="M2" s="50" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" s="52" customFormat="1">
-      <c r="A3" s="50" t="s">
-        <v>548</v>
-      </c>
-      <c r="B3" s="50">
-        <v>1</v>
-      </c>
-      <c r="C3" s="50">
-        <v>2</v>
-      </c>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50" t="s">
-        <v>163</v>
-      </c>
-      <c r="F3" s="50" t="s">
-        <v>164</v>
-      </c>
-      <c r="G3" s="50" t="s">
-        <v>165</v>
-      </c>
-      <c r="H3" s="50" t="s">
-        <v>166</v>
-      </c>
-      <c r="I3" s="50" t="s">
-        <v>167</v>
-      </c>
-      <c r="J3" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="L3" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="M3" s="50" t="s">
-        <v>30</v>
+      <c r="J2" s="50" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -15762,15 +15637,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -15987,6 +15853,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{360C765C-5108-4856-B14E-979324B41D25}">
   <ds:schemaRefs>
@@ -15998,14 +15873,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{527B0702-8AF4-4307-A34D-2633AC2397ED}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBA5B558-DFC3-420B-A09B-072555AB09C7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -16024,6 +15891,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{527B0702-8AF4-4307-A34D-2633AC2397ED}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{ea60d57e-af5b-4752-ac57-3e4f28ca11dc}" enabled="1" method="Standard" siteId="{36da45f1-dd2c-4d1f-af13-5abe46b99921}" contentBits="0" removed="0"/>

--- a/Folio.xlsx
+++ b/Folio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A81DDF6-3738-4B83-93A4-78D3A1D831D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC08C2A6-C0F4-42F7-B676-370AB5D85AB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="10" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="14" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Allegations" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2901" uniqueCount="560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2919" uniqueCount="560">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -6913,7 +6913,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8FCA55B-CD14-4ADB-91DF-0E908AE3D902}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -7776,10 +7776,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC115C88-C50A-4C63-8FE8-A3BB8E337BDA}">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -8922,65 +8922,65 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
-      <c r="A19" s="5" t="s">
-        <v>332</v>
-      </c>
-      <c r="B19" s="5">
-        <v>1</v>
-      </c>
-      <c r="C19" s="5">
-        <v>1</v>
-      </c>
-      <c r="D19" s="5" t="s">
+    <row r="19" spans="1:20" s="46" customFormat="1">
+      <c r="A19" s="46" t="s">
+        <v>401</v>
+      </c>
+      <c r="B19" s="46">
+        <v>1</v>
+      </c>
+      <c r="C19" s="46">
+        <v>3</v>
+      </c>
+      <c r="D19" s="46" t="s">
         <v>395</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="46" t="s">
         <v>389</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="46" t="s">
         <v>389</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="H19" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K19" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L19" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="M19" s="5" t="s">
-        <v>391</v>
-      </c>
-      <c r="N19" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="O19" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="P19" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q19" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="R19" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="S19" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="T19" s="5" t="s">
+      <c r="H19" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="I19" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="J19" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="K19" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="L19" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="M19" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="N19" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="O19" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="P19" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q19" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="R19" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="S19" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="T19" s="46" t="s">
         <v>28</v>
       </c>
     </row>
@@ -8992,10 +8992,10 @@
         <v>1</v>
       </c>
       <c r="C20" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>389</v>
@@ -9047,26 +9047,88 @@
       </c>
     </row>
     <row r="21" spans="1:20">
-      <c r="A21" s="52"/>
-      <c r="B21" s="52"/>
-      <c r="C21" s="52"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="52"/>
-      <c r="H21" s="52"/>
-      <c r="I21" s="52"/>
-      <c r="J21" s="52"/>
-      <c r="K21" s="52"/>
-      <c r="L21" s="52"/>
-      <c r="M21" s="52"/>
-      <c r="N21" s="52"/>
-      <c r="O21" s="52"/>
-      <c r="P21" s="52"/>
-      <c r="Q21" s="52"/>
-      <c r="R21" s="52"/>
-      <c r="S21" s="52"/>
-      <c r="T21" s="52"/>
+      <c r="A21" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="B21" s="5">
+        <v>1</v>
+      </c>
+      <c r="C21" s="5">
+        <v>2</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M21" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="N21" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="O21" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="P21" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q21" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="R21" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="S21" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="T21" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="52"/>
+      <c r="B22" s="52"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="52"/>
+      <c r="M22" s="52"/>
+      <c r="N22" s="52"/>
+      <c r="O22" s="52"/>
+      <c r="P22" s="52"/>
+      <c r="Q22" s="52"/>
+      <c r="R22" s="52"/>
+      <c r="S22" s="52"/>
+      <c r="T22" s="52"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15627,13 +15689,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -15854,20 +15915,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{360C765C-5108-4856-B14E-979324B41D25}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{527B0702-8AF4-4307-A34D-2633AC2397ED}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -15892,9 +15952,11 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{527B0702-8AF4-4307-A34D-2633AC2397ED}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{360C765C-5108-4856-B14E-979324B41D25}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Folio.xlsx
+++ b/Folio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC08C2A6-C0F4-42F7-B676-370AB5D85AB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E0152CB-E823-4C12-8A2F-2F073A5D5023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="14" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="13" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Allegations" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2919" uniqueCount="560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2919" uniqueCount="561">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -176,6 +176,12 @@
     <t>testT4244</t>
   </si>
   <si>
+    <t>testCaseDataSetup1</t>
+  </si>
+  <si>
+    <t>testCaseDataSetup2</t>
+  </si>
+  <si>
     <t>testT4250</t>
   </si>
   <si>
@@ -572,6 +578,9 @@
     <t>Caseload</t>
   </si>
   <si>
+    <t>RELATED_FOLIOS_TAB</t>
+  </si>
+  <si>
     <t>FOLIO_COMMERCIALSEXUALEXPLOITATION_TAB</t>
   </si>
   <si>
@@ -1070,12 +1079,48 @@
     <t>SILP</t>
   </si>
   <si>
+    <t>In Draft</t>
+  </si>
+  <si>
     <t>SILP Approval and Placement Agreement (SOC 157A).pdf</t>
   </si>
   <si>
     <t>cares_mulesoft_docuedge</t>
   </si>
   <si>
+    <t>testT4275</t>
+  </si>
+  <si>
+    <t>Tribal Placement</t>
+  </si>
+  <si>
+    <t>Tribal Home Certification Letter</t>
+  </si>
+  <si>
+    <t>Case Summary</t>
+  </si>
+  <si>
+    <t>Placement Agreement</t>
+  </si>
+  <si>
+    <t>GENERATE_DOCUMENT_BTN</t>
+  </si>
+  <si>
+    <t>SUBMIT_BTN</t>
+  </si>
+  <si>
+    <t>SOC 153 - Placement Agency - Foster Family Agency Agreement Nonminor Dependent Placed by Agency in Foster Family Agency</t>
+  </si>
+  <si>
+    <t>SOC 155 - Voluntary Placement Agreement - Placement Request</t>
+  </si>
+  <si>
+    <t>SOC 156 - Agency - Foster Parents Agreement Child Placed by Agency in Foster Home</t>
+  </si>
+  <si>
+    <t>SOC 154A - Placement Agency - Foster Family Agency Agreement Child Placed By Agency In Foster Family Agency</t>
+  </si>
+  <si>
     <t>APPROVAL_AUDIT_HISTORY_TAB</t>
   </si>
   <si>
@@ -1271,9 +1316,6 @@
     <t>Non-Minor Dependent</t>
   </si>
   <si>
-    <t>testT4275</t>
-  </si>
-  <si>
     <t>Identified Parent</t>
   </si>
   <si>
@@ -1476,9 +1518,6 @@
   </si>
   <si>
     <t>FAMILYCONFIDENTIALITYWAIVED_VERIFY</t>
-  </si>
-  <si>
-    <t>SUBMIT_BTN</t>
   </si>
   <si>
     <t>SUBMITFORAPPROVAL_BTN</t>
@@ -1733,42 +1772,6 @@
   </si>
   <si>
     <t>SOC 157B - Supervised Independent Living Placement (SILP) Inspection: Checklist of Facility Health and Safety Standards</t>
-  </si>
-  <si>
-    <t>testCaseDataSetup1</t>
-  </si>
-  <si>
-    <t>testCaseDataSetup2</t>
-  </si>
-  <si>
-    <t>RELATED_FOLIOS_TAB</t>
-  </si>
-  <si>
-    <t>Tribal Placement</t>
-  </si>
-  <si>
-    <t>Tribal Home Certification Letter</t>
-  </si>
-  <si>
-    <t>Case Summary</t>
-  </si>
-  <si>
-    <t>Placement Agreement</t>
-  </si>
-  <si>
-    <t>GENERATE_DOCUMENT_BTN</t>
-  </si>
-  <si>
-    <t>SOC 153 - Placement Agency - Foster Family Agency Agreement Nonminor Dependent Placed by Agency in Foster Family Agency</t>
-  </si>
-  <si>
-    <t>SOC 155 - Voluntary Placement Agreement - Placement Request</t>
-  </si>
-  <si>
-    <t>SOC 156 - Agency - Foster Parents Agreement Child Placed by Agency in Foster Home</t>
-  </si>
-  <si>
-    <t>SOC 154A - Placement Agency - Foster Family Agency Agreement Child Placed By Agency In Foster Family Agency</t>
   </si>
 </sst>
 </file>
@@ -2396,26 +2399,26 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="2" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.90625" customWidth="1"/>
+    <col min="5" max="5" width="8.81640625" customWidth="1"/>
     <col min="6" max="6" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.1796875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="32.453125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17" customWidth="1"/>
-    <col min="10" max="10" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.81640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="22" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="31.453125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="28.08984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="28.1796875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.453125" customWidth="1"/>
-    <col min="15" max="15" width="17.90625" customWidth="1"/>
+    <col min="15" max="15" width="17.81640625" customWidth="1"/>
     <col min="16" max="16" width="25" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="28.08984375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="28.1796875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="22" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="26.08984375" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="26.1796875" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="31.453125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.81640625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="14.54296875" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="12.453125" bestFit="1" customWidth="1"/>
   </cols>
@@ -2810,7 +2813,7 @@
     </row>
     <row r="7" spans="1:25" s="31" customFormat="1">
       <c r="A7" s="31" t="s">
-        <v>548</v>
+        <v>36</v>
       </c>
       <c r="B7" s="31">
         <v>1</v>
@@ -2863,7 +2866,7 @@
     </row>
     <row r="8" spans="1:25" s="31" customFormat="1">
       <c r="A8" s="31" t="s">
-        <v>548</v>
+        <v>36</v>
       </c>
       <c r="B8" s="31">
         <v>1</v>
@@ -2916,7 +2919,7 @@
     </row>
     <row r="9" spans="1:25" s="30" customFormat="1">
       <c r="A9" s="46" t="s">
-        <v>549</v>
+        <v>37</v>
       </c>
       <c r="B9" s="46">
         <v>1</v>
@@ -2977,7 +2980,7 @@
     </row>
     <row r="10" spans="1:25" s="30" customFormat="1">
       <c r="A10" s="46" t="s">
-        <v>549</v>
+        <v>37</v>
       </c>
       <c r="B10" s="46">
         <v>1</v>
@@ -3038,7 +3041,7 @@
     </row>
     <row r="11" spans="1:25" s="30" customFormat="1">
       <c r="A11" s="46" t="s">
-        <v>549</v>
+        <v>37</v>
       </c>
       <c r="B11" s="46">
         <v>1</v>
@@ -3099,7 +3102,7 @@
     </row>
     <row r="12" spans="1:25" s="30" customFormat="1">
       <c r="A12" s="46" t="s">
-        <v>549</v>
+        <v>37</v>
       </c>
       <c r="B12" s="46">
         <v>1</v>
@@ -3160,7 +3163,7 @@
     </row>
     <row r="13" spans="1:25">
       <c r="A13" s="46" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B13" s="46">
         <v>1</v>
@@ -3176,13 +3179,13 @@
       </c>
       <c r="F13" s="52"/>
       <c r="G13" s="24" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H13" s="24" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I13" s="24" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J13" s="24" t="s">
         <v>33</v>
@@ -3236,17 +3239,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="19.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.1796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.1796875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="29" style="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="16.90625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="16" customFormat="1">
@@ -3260,31 +3263,31 @@
         <v>2</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="F1" s="40" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="G1" s="40" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="I1" s="40" t="s">
         <v>13</v>
       </c>
       <c r="J1" s="40" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="K1" s="40" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="M1" s="52"/>
     </row>
@@ -3299,10 +3302,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="52" t="s">
@@ -3329,28 +3332,28 @@
         <v>19</v>
       </c>
       <c r="E3" s="50" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="F3" s="50" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="G3" s="50" t="s">
         <v>19</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="I3" s="50" t="s">
         <v>19</v>
       </c>
       <c r="J3" s="50" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K3" s="50" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="L3" s="50" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M3" s="46"/>
     </row>
@@ -3365,7 +3368,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="50" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="E4" s="50" t="s">
         <v>30</v>
@@ -3377,7 +3380,7 @@
         <v>30</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="I4" s="50" t="s">
         <v>30</v>
@@ -3386,7 +3389,7 @@
         <v>30</v>
       </c>
       <c r="K4" s="50" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="L4" s="50" t="s">
         <v>30</v>
@@ -3404,7 +3407,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="50" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="E5" s="50" t="s">
         <v>30</v>
@@ -3416,7 +3419,7 @@
         <v>30</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="I5" s="50" t="s">
         <v>30</v>
@@ -3425,7 +3428,7 @@
         <v>30</v>
       </c>
       <c r="K5" s="50" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="L5" s="50" t="s">
         <v>30</v>
@@ -3443,7 +3446,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="52" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="E6" s="40" t="s">
         <v>28</v>
@@ -3473,7 +3476,7 @@
     </row>
     <row r="7" spans="1:13" s="31" customFormat="1">
       <c r="A7" s="31" t="s">
-        <v>548</v>
+        <v>36</v>
       </c>
       <c r="B7" s="31">
         <v>1</v>
@@ -3485,25 +3488,25 @@
         <v>19</v>
       </c>
       <c r="E7" s="47" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="F7" s="47" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="G7" s="31" t="s">
         <v>19</v>
       </c>
       <c r="H7" s="31" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I7" s="31" t="s">
         <v>19</v>
       </c>
       <c r="J7" s="31" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K7" s="31" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -3524,13 +3527,13 @@
   <cols>
     <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.08984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.1796875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.08984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.90625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18.54296875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.453125" bestFit="1" customWidth="1"/>
   </cols>
@@ -3546,37 +3549,37 @@
         <v>2</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="E1" s="40" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="40" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="G1" s="40" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="H1" s="40" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="I1" s="40" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="J1" s="40" t="s">
         <v>13</v>
       </c>
       <c r="K1" s="40" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="L1" s="40" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="M1" s="40" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="N1" s="52" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="O1" s="52"/>
       <c r="P1" s="52"/>
@@ -3592,31 +3595,31 @@
         <v>1</v>
       </c>
       <c r="D2" s="40" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="E2" s="40" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="F2" s="40" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="G2" s="40" t="s">
         <v>19</v>
       </c>
       <c r="H2" s="40" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I2" s="40" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="J2" s="40" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="K2" s="40" t="s">
         <v>19</v>
       </c>
       <c r="L2" s="40" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="M2" s="52"/>
       <c r="N2" s="52"/>
@@ -3634,31 +3637,31 @@
         <v>2</v>
       </c>
       <c r="D3" s="40" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="E3" s="40" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="F3" s="43" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="G3" s="40" t="s">
         <v>19</v>
       </c>
       <c r="H3" s="40" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I3" s="40" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="J3" s="40" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="K3" s="40" t="s">
         <v>19</v>
       </c>
       <c r="L3" s="40" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="M3" s="52"/>
       <c r="N3" s="52"/>
@@ -3667,40 +3670,40 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="52" t="s">
+        <v>219</v>
+      </c>
+      <c r="B4" s="52">
+        <v>1</v>
+      </c>
+      <c r="C4" s="52">
+        <v>1</v>
+      </c>
+      <c r="D4" s="52" t="s">
+        <v>180</v>
+      </c>
+      <c r="E4" s="52" t="s">
+        <v>180</v>
+      </c>
+      <c r="F4" s="40" t="s">
+        <v>215</v>
+      </c>
+      <c r="G4" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="I4" s="40" t="s">
         <v>216</v>
       </c>
-      <c r="B4" s="52">
-        <v>1</v>
-      </c>
-      <c r="C4" s="52">
-        <v>1</v>
-      </c>
-      <c r="D4" s="52" t="s">
-        <v>177</v>
-      </c>
-      <c r="E4" s="52" t="s">
-        <v>177</v>
-      </c>
-      <c r="F4" s="40" t="s">
-        <v>212</v>
-      </c>
-      <c r="G4" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="I4" s="40" t="s">
-        <v>213</v>
-      </c>
       <c r="J4" s="40" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="K4" s="40" t="s">
+        <v>220</v>
+      </c>
+      <c r="L4" s="40" t="s">
         <v>217</v>
-      </c>
-      <c r="L4" s="40" t="s">
-        <v>214</v>
       </c>
       <c r="M4" s="40" t="s">
         <v>19</v>
@@ -3711,7 +3714,7 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="52" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B5" s="52">
         <v>1</v>
@@ -3723,22 +3726,22 @@
         <v>19</v>
       </c>
       <c r="E5" s="52" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="F5" s="52" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="G5" s="52" t="s">
         <v>19</v>
       </c>
       <c r="H5" s="40" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I5" s="40" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="J5" s="40" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="K5" s="52" t="s">
         <v>28</v>
@@ -3772,13 +3775,13 @@
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="4" max="4" width="23.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.81640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.1796875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="18" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="31.08984375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="31.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -3792,43 +3795,43 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -3842,44 +3845,44 @@
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="O2" s="52"/>
       <c r="P2" s="52"/>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B3" s="5">
         <v>1</v>
@@ -3900,31 +3903,31 @@
         <v>28</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>28</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>28</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N3" s="5" t="s">
         <v>19</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -4352,23 +4355,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.81640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.1796875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.08984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="37.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="37.81640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="30.453125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="30.453125" style="39" customWidth="1"/>
     <col min="13" max="13" width="25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.08984375" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="8.90625" style="28"/>
-    <col min="21" max="21" width="13.08984375" style="28" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="8.81640625" style="28"/>
+    <col min="21" max="21" width="13.1796875" style="28" bestFit="1" customWidth="1"/>
     <col min="23" max="25" width="8.54296875" style="39"/>
   </cols>
   <sheetData>
@@ -4383,43 +4386,43 @@
         <v>2</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E1" s="40" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="41" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="G1" s="41" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H1" s="41" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="J1" s="52" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="K1" s="41" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="L1" s="41" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="M1" s="41" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="N1" s="41" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="O1" s="41" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="P1" s="41" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q1" s="41" t="s">
         <v>13</v>
@@ -4428,43 +4431,43 @@
         <v>15</v>
       </c>
       <c r="S1" s="41" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="T1" s="41" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="U1" s="41" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="V1" s="41" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="W1" s="41" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="X1" s="41" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Y1" s="41" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Z1" s="41" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="AA1" s="41" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="AB1" s="41" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="AC1" s="41" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="AD1" s="41" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="AE1" s="41" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="AF1" s="52"/>
       <c r="AG1" s="52"/>
@@ -4481,25 +4484,25 @@
         <v>1</v>
       </c>
       <c r="D2" s="52" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="E2" s="52" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="F2" s="52" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="G2" s="52" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="H2" s="52" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="I2" s="52" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="J2" s="52" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -4528,7 +4531,7 @@
     </row>
     <row r="3" spans="1:34">
       <c r="A3" s="52" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B3" s="52">
         <v>1</v>
@@ -4537,27 +4540,27 @@
         <v>1</v>
       </c>
       <c r="D3" s="52" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="E3" s="52" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="F3" s="52"/>
       <c r="G3" s="52" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="H3" s="52"/>
       <c r="I3" s="52"/>
       <c r="J3" s="52"/>
       <c r="K3" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="52" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="N3" s="52" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="O3" s="52"/>
       <c r="P3" s="52"/>
@@ -4594,7 +4597,7 @@
         <v>19</v>
       </c>
       <c r="E4" s="46" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="F4" s="46" t="s">
         <v>19</v>
@@ -4606,16 +4609,16 @@
         <v>34</v>
       </c>
       <c r="I4" s="46" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="J4" s="46" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="K4" s="46" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="L4" s="29" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="M4" s="44"/>
       <c r="N4" s="44"/>
@@ -4625,50 +4628,50 @@
         <v>19</v>
       </c>
       <c r="R4" s="46" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="S4" s="46" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="T4" s="46" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="U4" s="46" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="V4" s="46" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="W4" s="46" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="X4" s="46"/>
       <c r="Y4" s="46" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Z4" s="46" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="AA4" s="46" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="AB4" s="46" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="AC4" s="46" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="AD4" s="46" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="AE4" s="46" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="AF4" s="46" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="AG4" s="46" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AH4" s="46"/>
     </row>
@@ -4686,40 +4689,40 @@
         <v>19</v>
       </c>
       <c r="E5" s="46" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="F5" s="46" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G5" s="46" t="s">
         <v>19</v>
       </c>
       <c r="H5" s="46" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="I5" s="46" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="J5" s="46" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K5" s="46" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L5" s="46" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M5" s="45" t="s">
         <v>19</v>
       </c>
       <c r="N5" s="45" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="O5" s="46" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="P5" s="46" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q5" s="46" t="s">
         <v>19</v>
@@ -4728,12 +4731,12 @@
       <c r="S5" s="46"/>
       <c r="T5" s="46"/>
       <c r="U5" s="46" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="V5" s="46"/>
       <c r="W5" s="46"/>
       <c r="X5" s="46" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Y5" s="46"/>
       <c r="Z5" s="46"/>
@@ -4781,7 +4784,7 @@
         <v>28</v>
       </c>
       <c r="L6" s="52" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M6" s="52" t="s">
         <v>28</v>
@@ -4808,7 +4811,7 @@
         <v>28</v>
       </c>
       <c r="U6" s="52" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="V6" s="52" t="s">
         <v>28</v>
@@ -4849,51 +4852,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{065689CF-B8B7-4123-B223-FA611E0B0CC8}">
   <dimension ref="A1:AN17"/>
   <sheetViews>
-    <sheetView topLeftCell="AA1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A15" sqref="A15:XFD17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="8.90625" style="39" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.81640625" style="39" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.54296875" style="39" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="39" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.08984375" style="39" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.08984375" style="39" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.08984375" style="39" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.90625" style="39" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.90625" style="39" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.1796875" style="39" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.1796875" style="39" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.1796875" style="39" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.81640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.81640625" style="39" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.453125" style="39" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.90625" style="39" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.81640625" style="39" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.453125" style="39" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="20.453125" style="39" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.08984375" style="39" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.90625" style="39" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.08984375" style="39" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.90625" style="39" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.90625" style="39" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.1796875" style="39" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.81640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.1796875" style="39" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.81640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.81640625" style="39" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="5" style="39" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="21.54296875" style="39" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.90625" style="39" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="27.90625" style="39" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="22.90625" style="39" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.81640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="27.81640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22.81640625" style="39" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="20" style="39" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="17.54296875" style="39" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="18.90625" style="39" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="18.81640625" style="39" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="14.54296875" style="39" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="39.90625" style="39" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="31.90625" style="39" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="5.90625" style="39" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="5.08984375" style="39" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="6.90625" style="39" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.08984375" style="39" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="16.90625" style="39" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="19.08984375" style="39" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="39.81640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="31.81640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="5.81640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="5.1796875" style="39" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="6.81640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.1796875" style="39" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="16.81640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="19.1796875" style="39" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="21.453125" style="39" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="14.90625" style="39" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="14.90625" style="52" customWidth="1"/>
+    <col min="38" max="38" width="14.81640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="14.81640625" style="52" customWidth="1"/>
     <col min="40" max="40" width="110.453125" style="39" bestFit="1" customWidth="1"/>
-    <col min="41" max="16384" width="8.90625" style="39"/>
+    <col min="41" max="16384" width="8.81640625" style="39"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40">
@@ -4907,115 +4910,115 @@
         <v>2</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="F1" s="40" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="G1" s="40" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="H1" s="40" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="I1" s="40" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="J1" s="40" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="K1" s="40" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="L1" s="40" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="M1" s="40" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="N1" s="40" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="O1" s="40" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="P1" s="40" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q1" s="43" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="R1" s="43" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="S1" s="40" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="T1" s="40" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="U1" s="40" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="V1" s="40" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="W1" s="40" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="X1" s="40" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Y1" s="40" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Z1" s="40" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="AA1" s="40" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="AB1" s="40" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="AC1" s="40" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="AD1" s="40" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="AE1" s="40" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="AF1" s="40" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="AG1" s="40" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="AH1" s="40" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="AI1" s="47" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="AJ1" s="40" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="AK1" s="40" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="AL1" s="40" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="AM1" s="40" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="AN1" s="40" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:40">
@@ -5059,19 +5062,19 @@
         <v>19</v>
       </c>
       <c r="N2" s="50" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="O2" s="50" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="P2" s="50" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q2" s="50" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="R2" s="50" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="S2" s="50" t="s">
         <v>19</v>
@@ -5080,22 +5083,22 @@
         <v>28</v>
       </c>
       <c r="U2" s="50" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="V2" s="50" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="W2" s="50" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="X2" s="50" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Y2" s="50" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Z2" s="50" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AA2" s="50" t="s">
         <v>30</v>
@@ -5104,10 +5107,10 @@
         <v>30</v>
       </c>
       <c r="AC2" s="50" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="AD2" s="50" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="AE2" s="50" t="s">
         <v>30</v>
@@ -5137,7 +5140,7 @@
         <v>30</v>
       </c>
       <c r="AN2" s="50" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="3" spans="1:40" s="46" customFormat="1">
@@ -5181,19 +5184,19 @@
         <v>19</v>
       </c>
       <c r="N3" s="50" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="O3" s="50" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="P3" s="50" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q3" s="50" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="R3" s="50" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="S3" s="50" t="s">
         <v>19</v>
@@ -5303,10 +5306,10 @@
         <v>28</v>
       </c>
       <c r="N4" s="50" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="O4" s="50" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="P4" s="50" t="s">
         <v>28</v>
@@ -5342,10 +5345,10 @@
         <v>28</v>
       </c>
       <c r="AA4" s="50" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AB4" s="50" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="AC4" s="50" t="s">
         <v>30</v>
@@ -5354,16 +5357,16 @@
         <v>30</v>
       </c>
       <c r="AE4" s="50" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AF4" s="50" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AG4" s="50" t="s">
         <v>28</v>
       </c>
       <c r="AH4" s="50" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AI4" s="50" t="s">
         <v>28</v>
@@ -5464,10 +5467,10 @@
         <v>28</v>
       </c>
       <c r="AA5" s="50" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AB5" s="50" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="AC5" s="50" t="s">
         <v>30</v>
@@ -5476,16 +5479,16 @@
         <v>30</v>
       </c>
       <c r="AE5" s="50" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AF5" s="50" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AG5" s="50" t="s">
         <v>28</v>
       </c>
       <c r="AH5" s="50" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AI5" s="50" t="s">
         <v>28</v>
@@ -5586,10 +5589,10 @@
         <v>28</v>
       </c>
       <c r="AA6" s="50" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AB6" s="50" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="AC6" s="50" t="s">
         <v>30</v>
@@ -5598,16 +5601,16 @@
         <v>30</v>
       </c>
       <c r="AE6" s="50" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AF6" s="50" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AG6" s="50" t="s">
         <v>28</v>
       </c>
       <c r="AH6" s="50" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AI6" s="50" t="s">
         <v>28</v>
@@ -5708,10 +5711,10 @@
         <v>28</v>
       </c>
       <c r="AA7" s="50" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AB7" s="50" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="AC7" s="50" t="s">
         <v>30</v>
@@ -5720,16 +5723,16 @@
         <v>30</v>
       </c>
       <c r="AE7" s="50" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AF7" s="50" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AG7" s="50" t="s">
         <v>28</v>
       </c>
       <c r="AH7" s="50" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AI7" s="50" t="s">
         <v>28</v>
@@ -5830,10 +5833,10 @@
         <v>28</v>
       </c>
       <c r="AA8" s="50" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AB8" s="50" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="AC8" s="50" t="s">
         <v>30</v>
@@ -5842,28 +5845,28 @@
         <v>30</v>
       </c>
       <c r="AE8" s="50" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AF8" s="50" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AG8" s="50" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AH8" s="50" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AI8" s="50" t="s">
         <v>28</v>
       </c>
       <c r="AJ8" s="50" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AK8" s="50" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AL8" s="50" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AM8" s="50" t="s">
         <v>28</v>
@@ -5913,19 +5916,19 @@
         <v>19</v>
       </c>
       <c r="N9" s="50" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="O9" s="50" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="P9" s="50" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q9" s="50" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="R9" s="63" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="S9" s="50" t="s">
         <v>19</v>
@@ -5952,10 +5955,10 @@
         <v>28</v>
       </c>
       <c r="AA9" s="50" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AB9" s="50" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="AC9" s="50" t="s">
         <v>30</v>
@@ -5964,31 +5967,31 @@
         <v>30</v>
       </c>
       <c r="AE9" s="50" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AF9" s="50" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AG9" s="50" t="s">
         <v>28</v>
       </c>
       <c r="AH9" s="50" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AI9" s="50" t="s">
         <v>28</v>
       </c>
       <c r="AJ9" s="50" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AK9" s="50" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AL9" s="50" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AM9" s="50" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="AN9" s="50" t="s">
         <v>30</v>
@@ -5996,7 +5999,7 @@
     </row>
     <row r="10" spans="1:40">
       <c r="A10" s="46" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B10" s="52">
         <v>1</v>
@@ -6035,19 +6038,19 @@
         <v>19</v>
       </c>
       <c r="N10" s="52" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="O10" s="52" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="P10" s="52" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q10" s="52" t="s">
         <v>28</v>
       </c>
       <c r="R10" s="55" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="S10" s="52" t="s">
         <v>19</v>
@@ -6074,10 +6077,10 @@
         <v>28</v>
       </c>
       <c r="AA10" s="52" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AB10" s="55" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="AC10" s="52"/>
       <c r="AD10" s="52"/>
@@ -6112,7 +6115,7 @@
     </row>
     <row r="11" spans="1:40">
       <c r="A11" s="46" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B11" s="52">
         <v>1</v>
@@ -6151,19 +6154,19 @@
         <v>19</v>
       </c>
       <c r="N11" s="52" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="O11" s="52" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="P11" s="52" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q11" s="52" t="s">
         <v>28</v>
       </c>
       <c r="R11" s="55" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="S11" s="52" t="s">
         <v>19</v>
@@ -6190,10 +6193,10 @@
         <v>28</v>
       </c>
       <c r="AA11" s="52" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AB11" s="52" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AC11" s="52"/>
       <c r="AD11" s="52"/>
@@ -6209,7 +6212,7 @@
     </row>
     <row r="12" spans="1:40" s="52" customFormat="1">
       <c r="A12" s="46" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B12" s="46">
         <v>1</v>
@@ -6248,19 +6251,19 @@
         <v>19</v>
       </c>
       <c r="N12" s="46" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="O12" s="46" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="P12" s="46" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q12" s="46" t="s">
         <v>28</v>
       </c>
       <c r="R12" s="46" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="S12" s="46" t="s">
         <v>19</v>
@@ -6331,7 +6334,7 @@
     </row>
     <row r="13" spans="1:40" s="52" customFormat="1">
       <c r="A13" s="46" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B13" s="46">
         <v>1</v>
@@ -6370,19 +6373,19 @@
         <v>19</v>
       </c>
       <c r="N13" s="46" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="O13" s="46" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="P13" s="46" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q13" s="46" t="s">
         <v>28</v>
       </c>
       <c r="R13" s="46" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="S13" s="46" t="s">
         <v>19</v>
@@ -6409,10 +6412,10 @@
         <v>28</v>
       </c>
       <c r="AA13" s="46" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AB13" s="46" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AC13" s="46" t="s">
         <v>28</v>
@@ -6453,7 +6456,7 @@
     </row>
     <row r="14" spans="1:40" s="12" customFormat="1">
       <c r="A14" s="12" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="B14" s="12">
         <v>1</v>
@@ -6492,19 +6495,19 @@
         <v>19</v>
       </c>
       <c r="N14" s="12" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="O14" s="12" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="P14" s="12" t="s">
-        <v>146</v>
+        <v>337</v>
       </c>
       <c r="Q14" s="12" t="s">
         <v>28</v>
       </c>
       <c r="R14" s="13" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="S14" s="12" t="s">
         <v>19</v>
@@ -6513,33 +6516,33 @@
         <v>28</v>
       </c>
       <c r="U14" s="13" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="V14" s="13" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="W14" s="13" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="X14" s="12" t="s">
         <v>28</v>
       </c>
       <c r="Y14" s="13" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="Z14" s="13" t="s">
         <v>28</v>
       </c>
       <c r="AA14" s="12" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AB14" s="12" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:40" s="52" customFormat="1" ht="43.5">
       <c r="A15" s="46" t="s">
-        <v>401</v>
+        <v>340</v>
       </c>
       <c r="B15" s="46">
         <v>1</v>
@@ -6578,19 +6581,19 @@
         <v>19</v>
       </c>
       <c r="N15" s="26" t="s">
-        <v>551</v>
+        <v>341</v>
       </c>
       <c r="O15" s="69" t="s">
-        <v>552</v>
+        <v>342</v>
       </c>
       <c r="P15" s="46" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q15" s="46" t="s">
         <v>28</v>
       </c>
       <c r="R15" s="46" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="S15" s="46" t="s">
         <v>19</v>
@@ -6599,25 +6602,25 @@
         <v>28</v>
       </c>
       <c r="U15" s="46" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="V15" s="46" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="W15" s="46" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="X15" s="46" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Y15" s="46" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Z15" s="46" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AA15" s="46" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AB15" s="46" t="s">
         <v>28</v>
@@ -6661,7 +6664,7 @@
     </row>
     <row r="16" spans="1:40" s="52" customFormat="1">
       <c r="A16" s="46" t="s">
-        <v>401</v>
+        <v>340</v>
       </c>
       <c r="B16" s="46">
         <v>1</v>
@@ -6700,19 +6703,19 @@
         <v>19</v>
       </c>
       <c r="N16" s="26" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="O16" s="69" t="s">
-        <v>553</v>
+        <v>343</v>
       </c>
       <c r="P16" s="46" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q16" s="46" t="s">
         <v>28</v>
       </c>
       <c r="R16" s="46" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="S16" s="46" t="s">
         <v>19</v>
@@ -6721,25 +6724,25 @@
         <v>28</v>
       </c>
       <c r="U16" s="46" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="V16" s="46" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="W16" s="46" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="X16" s="46" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Y16" s="46" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Z16" s="46" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AA16" s="46" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AB16" s="46" t="s">
         <v>28</v>
@@ -6783,7 +6786,7 @@
     </row>
     <row r="17" spans="1:40" s="52" customFormat="1" ht="29">
       <c r="A17" s="46" t="s">
-        <v>401</v>
+        <v>340</v>
       </c>
       <c r="B17" s="46">
         <v>1</v>
@@ -6822,19 +6825,19 @@
         <v>19</v>
       </c>
       <c r="N17" s="26" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="O17" s="69" t="s">
-        <v>554</v>
+        <v>344</v>
       </c>
       <c r="P17" s="46" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q17" s="46" t="s">
         <v>28</v>
       </c>
       <c r="R17" s="46" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="S17" s="46" t="s">
         <v>19</v>
@@ -6843,25 +6846,25 @@
         <v>28</v>
       </c>
       <c r="U17" s="46" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="V17" s="46" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="W17" s="46" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="X17" s="46" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Y17" s="46" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Z17" s="46" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AA17" s="46" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AB17" s="46" t="s">
         <v>28</v>
@@ -6913,8 +6916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8FCA55B-CD14-4ADB-91DF-0E908AE3D902}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -6930,21 +6933,21 @@
         <v>2</v>
       </c>
       <c r="D1" s="52" t="s">
-        <v>555</v>
+        <v>345</v>
       </c>
       <c r="E1" s="25" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F1" s="52" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G1" s="52" t="s">
-        <v>470</v>
+        <v>346</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="46" customFormat="1" ht="12" customHeight="1">
       <c r="A2" s="46" t="s">
-        <v>401</v>
+        <v>340</v>
       </c>
       <c r="B2" s="46">
         <v>1</v>
@@ -6956,7 +6959,7 @@
         <v>19</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>556</v>
+        <v>347</v>
       </c>
       <c r="F2" s="46" t="s">
         <v>19</v>
@@ -6967,7 +6970,7 @@
     </row>
     <row r="3" spans="1:7" s="46" customFormat="1" ht="16">
       <c r="A3" s="46" t="s">
-        <v>401</v>
+        <v>340</v>
       </c>
       <c r="B3" s="46">
         <v>1</v>
@@ -6979,7 +6982,7 @@
         <v>19</v>
       </c>
       <c r="E3" s="70" t="s">
-        <v>557</v>
+        <v>348</v>
       </c>
       <c r="F3" s="46" t="s">
         <v>19</v>
@@ -6990,7 +6993,7 @@
     </row>
     <row r="4" spans="1:7" s="46" customFormat="1" ht="16">
       <c r="A4" s="46" t="s">
-        <v>401</v>
+        <v>340</v>
       </c>
       <c r="B4" s="46">
         <v>1</v>
@@ -7002,7 +7005,7 @@
         <v>19</v>
       </c>
       <c r="E4" s="70" t="s">
-        <v>558</v>
+        <v>349</v>
       </c>
       <c r="F4" s="46" t="s">
         <v>19</v>
@@ -7013,7 +7016,7 @@
     </row>
     <row r="5" spans="1:7" s="46" customFormat="1" ht="16">
       <c r="A5" s="46" t="s">
-        <v>401</v>
+        <v>340</v>
       </c>
       <c r="B5" s="46">
         <v>1</v>
@@ -7025,7 +7028,7 @@
         <v>19</v>
       </c>
       <c r="E5" s="70" t="s">
-        <v>559</v>
+        <v>350</v>
       </c>
       <c r="F5" s="46" t="s">
         <v>19</v>
@@ -7049,19 +7052,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.1796875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.1796875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19.54296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.90625" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="4.08984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="4.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="16" customFormat="1">
@@ -7075,37 +7078,37 @@
         <v>2</v>
       </c>
       <c r="D1" s="52" t="s">
-        <v>336</v>
+        <v>351</v>
       </c>
       <c r="E1" s="52" t="s">
-        <v>337</v>
+        <v>352</v>
       </c>
       <c r="F1" s="52" t="s">
-        <v>338</v>
+        <v>353</v>
       </c>
       <c r="G1" s="52" t="s">
-        <v>339</v>
+        <v>354</v>
       </c>
       <c r="H1" s="52" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="I1" s="52" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="J1" s="52" t="s">
-        <v>342</v>
+        <v>357</v>
       </c>
       <c r="K1" s="52" t="s">
-        <v>343</v>
+        <v>358</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>344</v>
+        <v>359</v>
       </c>
       <c r="M1" s="65" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="N1" s="65" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="O1" s="52"/>
       <c r="P1" s="52"/>
@@ -7130,19 +7133,19 @@
         <v>19</v>
       </c>
       <c r="G2" s="26" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H2" s="26" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="I2" s="26" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="J2" s="26" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K2" s="26" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="M2" s="26" t="s">
         <v>28</v>
@@ -7153,7 +7156,7 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="52" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B3" s="52">
         <v>1</v>
@@ -7177,10 +7180,10 @@
         <v>19</v>
       </c>
       <c r="I3" s="52" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="J3" s="52" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K3" s="52" t="s">
         <v>19</v>
@@ -7197,7 +7200,7 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="52" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B4" s="52">
         <v>1</v>
@@ -7215,16 +7218,16 @@
         <v>28</v>
       </c>
       <c r="G4" s="52" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H4" s="52" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="I4" s="52" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="J4" s="52" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K4" s="52" t="s">
         <v>28</v>
@@ -7236,7 +7239,7 @@
         <v>19</v>
       </c>
       <c r="N4" s="52" t="s">
-        <v>347</v>
+        <v>362</v>
       </c>
       <c r="O4" s="52"/>
       <c r="P4" s="52"/>
@@ -7272,8 +7275,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
   </cols>
@@ -7289,24 +7292,24 @@
         <v>2</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>348</v>
+        <v>363</v>
       </c>
       <c r="E1" s="29" t="s">
-        <v>349</v>
+        <v>364</v>
       </c>
       <c r="F1" s="52" t="s">
-        <v>350</v>
+        <v>365</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="29" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>351</v>
+        <v>366</v>
       </c>
       <c r="D2" s="29" t="s">
         <v>19</v>
@@ -7315,12 +7318,12 @@
         <v>19</v>
       </c>
       <c r="F2" s="52" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="29" t="s">
-        <v>352</v>
+        <v>367</v>
       </c>
       <c r="B3" s="29">
         <v>1</v>
@@ -7335,12 +7338,12 @@
         <v>19</v>
       </c>
       <c r="F3" s="52" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="29" t="s">
-        <v>352</v>
+        <v>367</v>
       </c>
       <c r="B4" s="29">
         <v>2</v>
@@ -7355,12 +7358,12 @@
         <v>19</v>
       </c>
       <c r="F4" s="52" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="29" t="s">
-        <v>353</v>
+        <v>368</v>
       </c>
       <c r="B5" s="52">
         <v>1</v>
@@ -7375,12 +7378,12 @@
         <v>19</v>
       </c>
       <c r="F5" s="52" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="29" t="s">
-        <v>354</v>
+        <v>369</v>
       </c>
       <c r="B6" s="29">
         <v>1</v>
@@ -7395,12 +7398,12 @@
         <v>19</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="29" t="s">
-        <v>354</v>
+        <v>369</v>
       </c>
       <c r="B7" s="29">
         <v>2</v>
@@ -7415,12 +7418,12 @@
         <v>19</v>
       </c>
       <c r="F7" s="29" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="29" t="s">
-        <v>355</v>
+        <v>370</v>
       </c>
       <c r="B8" s="29">
         <v>1</v>
@@ -7435,12 +7438,12 @@
         <v>19</v>
       </c>
       <c r="F8" s="29" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="29" t="s">
-        <v>355</v>
+        <v>370</v>
       </c>
       <c r="B9" s="29">
         <v>2</v>
@@ -7455,12 +7458,12 @@
         <v>19</v>
       </c>
       <c r="F9" s="29" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="29" t="s">
-        <v>356</v>
+        <v>371</v>
       </c>
       <c r="B10" s="29">
         <v>1</v>
@@ -7475,12 +7478,12 @@
         <v>19</v>
       </c>
       <c r="F10" s="29" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="29" t="s">
-        <v>356</v>
+        <v>371</v>
       </c>
       <c r="B11" s="29">
         <v>2</v>
@@ -7495,7 +7498,7 @@
         <v>19</v>
       </c>
       <c r="F11" s="29" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -7514,9 +7517,9 @@
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.08984375" customWidth="1"/>
+    <col min="4" max="4" width="18.1796875" customWidth="1"/>
     <col min="5" max="5" width="19.54296875" customWidth="1"/>
-    <col min="18" max="18" width="15.90625" customWidth="1"/>
+    <col min="18" max="18" width="15.81640625" customWidth="1"/>
     <col min="20" max="20" width="21.54296875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7531,55 +7534,55 @@
         <v>2</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>357</v>
+        <v>372</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>358</v>
+        <v>373</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>359</v>
+        <v>374</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>362</v>
+        <v>377</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="K1" s="12" t="s">
-        <v>364</v>
+        <v>379</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>365</v>
+        <v>380</v>
       </c>
       <c r="M1" s="12" t="s">
-        <v>366</v>
+        <v>381</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>367</v>
+        <v>382</v>
       </c>
       <c r="O1" s="12" t="s">
-        <v>368</v>
+        <v>383</v>
       </c>
       <c r="P1" s="12" t="s">
-        <v>369</v>
+        <v>384</v>
       </c>
       <c r="Q1" s="12" t="s">
-        <v>370</v>
+        <v>385</v>
       </c>
       <c r="R1" s="12" t="s">
-        <v>371</v>
+        <v>386</v>
       </c>
       <c r="S1" s="12" t="s">
         <v>15</v>
       </c>
       <c r="T1" s="12" t="s">
-        <v>372</v>
+        <v>387</v>
       </c>
     </row>
     <row r="2" spans="1:20">
@@ -7599,34 +7602,34 @@
         <v>19</v>
       </c>
       <c r="F2" s="52" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="G2" s="52" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H2" s="52" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="I2" s="52" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="J2" s="52" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K2" s="52" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L2" s="52" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M2" s="52" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="N2" s="52" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="O2" s="52" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P2" s="52" t="s">
         <v>19</v>
@@ -7635,7 +7638,7 @@
         <v>19</v>
       </c>
       <c r="R2" s="52" t="s">
-        <v>373</v>
+        <v>388</v>
       </c>
       <c r="S2" s="52" t="s">
         <v>19</v>
@@ -7697,7 +7700,7 @@
         <v>19</v>
       </c>
       <c r="R3" s="46" t="s">
-        <v>373</v>
+        <v>388</v>
       </c>
       <c r="S3" s="46" t="s">
         <v>19</v>
@@ -7759,7 +7762,7 @@
         <v>19</v>
       </c>
       <c r="R4" s="46" t="s">
-        <v>374</v>
+        <v>389</v>
       </c>
       <c r="S4" s="46" t="s">
         <v>19</v>
@@ -7778,15 +7781,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC115C88-C50A-4C63-8FE8-A3BB8E337BDA}">
   <dimension ref="A1:T22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD19"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="9.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.54296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.54296875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24" bestFit="1" customWidth="1"/>
@@ -7794,7 +7797,7 @@
     <col min="8" max="8" width="9.54296875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.54296875" customWidth="1"/>
-    <col min="11" max="11" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.453125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16.54296875" bestFit="1" customWidth="1"/>
@@ -7803,7 +7806,7 @@
     <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="16.54296875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="23.54296875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -7817,55 +7820,55 @@
         <v>2</v>
       </c>
       <c r="D1" s="43" t="s">
-        <v>375</v>
+        <v>390</v>
       </c>
       <c r="E1" s="43" t="s">
-        <v>376</v>
+        <v>391</v>
       </c>
       <c r="F1" s="43" t="s">
-        <v>377</v>
+        <v>392</v>
       </c>
       <c r="G1" s="43" t="s">
-        <v>378</v>
+        <v>393</v>
       </c>
       <c r="H1" s="43" t="s">
         <v>13</v>
       </c>
       <c r="I1" s="43" t="s">
-        <v>379</v>
+        <v>394</v>
       </c>
       <c r="J1" s="43" t="s">
         <v>4</v>
       </c>
       <c r="K1" s="43" t="s">
-        <v>369</v>
+        <v>384</v>
       </c>
       <c r="L1" s="43" t="s">
-        <v>370</v>
+        <v>385</v>
       </c>
       <c r="M1" s="43" t="s">
-        <v>380</v>
+        <v>395</v>
       </c>
       <c r="N1" s="42" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="O1" s="42" t="s">
-        <v>382</v>
+        <v>397</v>
       </c>
       <c r="P1" s="42" t="s">
-        <v>383</v>
+        <v>398</v>
       </c>
       <c r="Q1" s="42" t="s">
-        <v>384</v>
+        <v>399</v>
       </c>
       <c r="R1" s="42" t="s">
-        <v>385</v>
+        <v>400</v>
       </c>
       <c r="S1" s="42" t="s">
-        <v>386</v>
+        <v>401</v>
       </c>
       <c r="T1" s="42" t="s">
-        <v>387</v>
+        <v>402</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="16" customFormat="1">
@@ -7879,16 +7882,16 @@
         <v>1</v>
       </c>
       <c r="D2" s="46" t="s">
-        <v>388</v>
+        <v>403</v>
       </c>
       <c r="E2" s="46" t="s">
-        <v>389</v>
+        <v>404</v>
       </c>
       <c r="F2" s="46" t="s">
-        <v>389</v>
+        <v>404</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H2" s="20" t="s">
         <v>19</v>
@@ -7941,16 +7944,16 @@
         <v>2</v>
       </c>
       <c r="D3" s="46" t="s">
-        <v>390</v>
+        <v>405</v>
       </c>
       <c r="E3" s="46" t="s">
-        <v>389</v>
+        <v>404</v>
       </c>
       <c r="F3" s="46" t="s">
-        <v>389</v>
+        <v>404</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H3" s="20" t="s">
         <v>19</v>
@@ -8006,10 +8009,10 @@
         <v>28</v>
       </c>
       <c r="E4" s="52" t="s">
-        <v>389</v>
+        <v>404</v>
       </c>
       <c r="F4" s="52" t="s">
-        <v>389</v>
+        <v>404</v>
       </c>
       <c r="G4" s="52" t="s">
         <v>28</v>
@@ -8030,33 +8033,33 @@
         <v>19</v>
       </c>
       <c r="M4" s="52" t="s">
-        <v>391</v>
+        <v>406</v>
       </c>
       <c r="N4" s="52" t="s">
-        <v>392</v>
+        <v>407</v>
       </c>
       <c r="O4" s="52" t="s">
-        <v>392</v>
+        <v>407</v>
       </c>
       <c r="P4" s="52" t="s">
-        <v>392</v>
+        <v>407</v>
       </c>
       <c r="Q4" s="52" t="s">
-        <v>392</v>
+        <v>407</v>
       </c>
       <c r="R4" s="52" t="s">
-        <v>392</v>
+        <v>407</v>
       </c>
       <c r="S4" s="52" t="s">
-        <v>392</v>
+        <v>407</v>
       </c>
       <c r="T4" s="52" t="s">
-        <v>392</v>
+        <v>407</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" s="52" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B5" s="52">
         <v>1</v>
@@ -8118,7 +8121,7 @@
     </row>
     <row r="6" spans="1:20">
       <c r="A6" s="52" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B6" s="52">
         <v>1</v>
@@ -8172,7 +8175,7 @@
         <v>28</v>
       </c>
       <c r="S6" s="51" t="s">
-        <v>393</v>
+        <v>408</v>
       </c>
       <c r="T6" s="52" t="s">
         <v>28</v>
@@ -8180,7 +8183,7 @@
     </row>
     <row r="7" spans="1:20" s="39" customFormat="1">
       <c r="A7" s="52" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B7" s="52">
         <v>1</v>
@@ -8189,16 +8192,16 @@
         <v>2</v>
       </c>
       <c r="D7" s="52" t="s">
-        <v>388</v>
+        <v>403</v>
       </c>
       <c r="E7" s="52" t="s">
-        <v>389</v>
+        <v>404</v>
       </c>
       <c r="F7" s="52" t="s">
-        <v>389</v>
+        <v>404</v>
       </c>
       <c r="G7" s="52" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H7" s="52" t="s">
         <v>19</v>
@@ -8216,7 +8219,7 @@
         <v>19</v>
       </c>
       <c r="M7" s="52" t="s">
-        <v>391</v>
+        <v>406</v>
       </c>
       <c r="N7" s="52" t="s">
         <v>28</v>
@@ -8242,7 +8245,7 @@
     </row>
     <row r="8" spans="1:20" s="39" customFormat="1">
       <c r="A8" s="52" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B8" s="52">
         <v>1</v>
@@ -8251,16 +8254,16 @@
         <v>3</v>
       </c>
       <c r="D8" s="52" t="s">
-        <v>390</v>
+        <v>405</v>
       </c>
       <c r="E8" s="52" t="s">
-        <v>389</v>
+        <v>404</v>
       </c>
       <c r="F8" s="52" t="s">
-        <v>389</v>
+        <v>404</v>
       </c>
       <c r="G8" s="52" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H8" s="52" t="s">
         <v>19</v>
@@ -8278,7 +8281,7 @@
         <v>19</v>
       </c>
       <c r="M8" s="52" t="s">
-        <v>394</v>
+        <v>409</v>
       </c>
       <c r="N8" s="52" t="s">
         <v>28</v>
@@ -8304,7 +8307,7 @@
     </row>
     <row r="9" spans="1:20">
       <c r="A9" s="52" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B9" s="52">
         <v>1</v>
@@ -8313,16 +8316,16 @@
         <v>1</v>
       </c>
       <c r="D9" s="52" t="s">
-        <v>395</v>
+        <v>410</v>
       </c>
       <c r="E9" s="52" t="s">
-        <v>389</v>
+        <v>404</v>
       </c>
       <c r="F9" s="52" t="s">
-        <v>389</v>
+        <v>404</v>
       </c>
       <c r="G9" s="52" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H9" s="52" t="s">
         <v>19</v>
@@ -8340,7 +8343,7 @@
         <v>19</v>
       </c>
       <c r="M9" s="52" t="s">
-        <v>391</v>
+        <v>406</v>
       </c>
       <c r="N9" s="52" t="s">
         <v>28</v>
@@ -8366,7 +8369,7 @@
     </row>
     <row r="10" spans="1:20">
       <c r="A10" s="52" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B10" s="52">
         <v>1</v>
@@ -8375,16 +8378,16 @@
         <v>2</v>
       </c>
       <c r="D10" s="52" t="s">
-        <v>396</v>
+        <v>411</v>
       </c>
       <c r="E10" s="52" t="s">
-        <v>389</v>
+        <v>404</v>
       </c>
       <c r="F10" s="52" t="s">
-        <v>389</v>
+        <v>404</v>
       </c>
       <c r="G10" s="52" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H10" s="52" t="s">
         <v>19</v>
@@ -8402,7 +8405,7 @@
         <v>19</v>
       </c>
       <c r="M10" s="52" t="s">
-        <v>391</v>
+        <v>406</v>
       </c>
       <c r="N10" s="52" t="s">
         <v>28</v>
@@ -8428,7 +8431,7 @@
     </row>
     <row r="11" spans="1:20" s="56" customFormat="1">
       <c r="A11" s="56" t="s">
-        <v>397</v>
+        <v>412</v>
       </c>
       <c r="B11" s="56">
         <v>1</v>
@@ -8437,13 +8440,13 @@
         <v>1</v>
       </c>
       <c r="D11" s="56" t="s">
-        <v>395</v>
+        <v>410</v>
       </c>
       <c r="E11" s="56" t="s">
-        <v>389</v>
+        <v>404</v>
       </c>
       <c r="F11" s="56" t="s">
-        <v>389</v>
+        <v>404</v>
       </c>
       <c r="G11" s="56" t="s">
         <v>28</v>
@@ -8490,7 +8493,7 @@
     </row>
     <row r="12" spans="1:20" s="56" customFormat="1">
       <c r="A12" s="56" t="s">
-        <v>397</v>
+        <v>412</v>
       </c>
       <c r="B12" s="56">
         <v>1</v>
@@ -8499,13 +8502,13 @@
         <v>2</v>
       </c>
       <c r="D12" s="56" t="s">
-        <v>398</v>
+        <v>413</v>
       </c>
       <c r="E12" s="56" t="s">
-        <v>389</v>
+        <v>404</v>
       </c>
       <c r="F12" s="56" t="s">
-        <v>389</v>
+        <v>404</v>
       </c>
       <c r="G12" s="56" t="s">
         <v>28</v>
@@ -8552,7 +8555,7 @@
     </row>
     <row r="13" spans="1:20">
       <c r="A13" s="52" t="s">
-        <v>399</v>
+        <v>414</v>
       </c>
       <c r="B13" s="52">
         <v>1</v>
@@ -8614,7 +8617,7 @@
     </row>
     <row r="14" spans="1:20">
       <c r="A14" s="52" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B14" s="52">
         <v>1</v>
@@ -8623,16 +8626,16 @@
         <v>1</v>
       </c>
       <c r="D14" s="52" t="s">
-        <v>395</v>
+        <v>410</v>
       </c>
       <c r="E14" s="52" t="s">
-        <v>389</v>
+        <v>404</v>
       </c>
       <c r="F14" s="52" t="s">
-        <v>389</v>
+        <v>404</v>
       </c>
       <c r="G14" s="52" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H14" s="52" t="s">
         <v>19</v>
@@ -8676,7 +8679,7 @@
     </row>
     <row r="15" spans="1:20">
       <c r="A15" s="52" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B15" s="52">
         <v>1</v>
@@ -8685,16 +8688,16 @@
         <v>2</v>
       </c>
       <c r="D15" s="52" t="s">
-        <v>396</v>
+        <v>411</v>
       </c>
       <c r="E15" s="52" t="s">
-        <v>389</v>
+        <v>404</v>
       </c>
       <c r="F15" s="52" t="s">
-        <v>389</v>
+        <v>404</v>
       </c>
       <c r="G15" s="52" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H15" s="52" t="s">
         <v>19</v>
@@ -8738,7 +8741,7 @@
     </row>
     <row r="16" spans="1:20">
       <c r="A16" s="52" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B16" s="52">
         <v>1</v>
@@ -8747,16 +8750,16 @@
         <v>3</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>400</v>
+        <v>415</v>
       </c>
       <c r="E16" s="52" t="s">
-        <v>389</v>
+        <v>404</v>
       </c>
       <c r="F16" s="52" t="s">
-        <v>389</v>
+        <v>404</v>
       </c>
       <c r="G16" s="52" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H16" s="52" t="s">
         <v>19</v>
@@ -8800,7 +8803,7 @@
     </row>
     <row r="17" spans="1:20" s="46" customFormat="1">
       <c r="A17" s="46" t="s">
-        <v>401</v>
+        <v>340</v>
       </c>
       <c r="B17" s="46">
         <v>1</v>
@@ -8809,16 +8812,16 @@
         <v>1</v>
       </c>
       <c r="D17" s="46" t="s">
-        <v>395</v>
+        <v>410</v>
       </c>
       <c r="E17" s="46" t="s">
-        <v>389</v>
+        <v>404</v>
       </c>
       <c r="F17" s="46" t="s">
-        <v>389</v>
+        <v>404</v>
       </c>
       <c r="G17" s="46" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H17" s="46" t="s">
         <v>19</v>
@@ -8862,7 +8865,7 @@
     </row>
     <row r="18" spans="1:20" s="46" customFormat="1">
       <c r="A18" s="46" t="s">
-        <v>401</v>
+        <v>340</v>
       </c>
       <c r="B18" s="46">
         <v>1</v>
@@ -8871,16 +8874,16 @@
         <v>2</v>
       </c>
       <c r="D18" s="46" t="s">
-        <v>402</v>
+        <v>416</v>
       </c>
       <c r="E18" s="46" t="s">
-        <v>389</v>
+        <v>404</v>
       </c>
       <c r="F18" s="46" t="s">
-        <v>389</v>
+        <v>404</v>
       </c>
       <c r="G18" s="46" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H18" s="46" t="s">
         <v>19</v>
@@ -8924,7 +8927,7 @@
     </row>
     <row r="19" spans="1:20" s="46" customFormat="1">
       <c r="A19" s="46" t="s">
-        <v>401</v>
+        <v>340</v>
       </c>
       <c r="B19" s="46">
         <v>1</v>
@@ -8933,16 +8936,16 @@
         <v>3</v>
       </c>
       <c r="D19" s="46" t="s">
-        <v>395</v>
+        <v>410</v>
       </c>
       <c r="E19" s="46" t="s">
-        <v>389</v>
+        <v>404</v>
       </c>
       <c r="F19" s="46" t="s">
-        <v>389</v>
+        <v>404</v>
       </c>
       <c r="G19" s="46" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H19" s="46" t="s">
         <v>19</v>
@@ -8986,7 +8989,7 @@
     </row>
     <row r="20" spans="1:20">
       <c r="A20" s="5" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="B20" s="5">
         <v>1</v>
@@ -8995,16 +8998,16 @@
         <v>1</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>395</v>
+        <v>410</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>389</v>
+        <v>404</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>389</v>
+        <v>404</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>19</v>
@@ -9022,7 +9025,7 @@
         <v>19</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>391</v>
+        <v>406</v>
       </c>
       <c r="N20" s="5" t="s">
         <v>28</v>
@@ -9048,7 +9051,7 @@
     </row>
     <row r="21" spans="1:20">
       <c r="A21" s="5" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="B21" s="5">
         <v>1</v>
@@ -9057,16 +9060,16 @@
         <v>2</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>400</v>
+        <v>415</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>389</v>
+        <v>404</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>389</v>
+        <v>404</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>19</v>
@@ -9084,7 +9087,7 @@
         <v>19</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>391</v>
+        <v>406</v>
       </c>
       <c r="N21" s="5" t="s">
         <v>28</v>
@@ -9146,14 +9149,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="2" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="16.08984375" style="16" customWidth="1"/>
-    <col min="7" max="7" width="17.08984375" customWidth="1"/>
+    <col min="1" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="16.1796875" style="16" customWidth="1"/>
+    <col min="7" max="7" width="17.1796875" customWidth="1"/>
     <col min="9" max="9" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.90625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.81640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="28.54296875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
@@ -9167,61 +9170,61 @@
         <v>2</v>
       </c>
       <c r="D1" s="52" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E1" s="52" t="s">
         <v>15</v>
       </c>
       <c r="F1" s="52" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G1" s="52" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H1" s="52" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I1" s="23" t="s">
         <v>5</v>
       </c>
       <c r="J1" s="52" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K1" s="52" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L1" s="52" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M1" s="52" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="N1" s="52" t="s">
         <v>13</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="W1" s="29" t="s">
         <v>17</v>
@@ -9256,16 +9259,16 @@
         <v>19</v>
       </c>
       <c r="J2" s="52" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K2" s="52" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L2" s="52" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M2" s="52" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="N2" s="52" t="s">
         <v>19</v>
@@ -9309,16 +9312,16 @@
         <v>19</v>
       </c>
       <c r="J3" s="57" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" s="57" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" s="57" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" s="57" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="N3" s="57" t="s">
         <v>19</v>
@@ -9336,7 +9339,7 @@
       <c r="S3" s="5"/>
       <c r="T3" s="5"/>
       <c r="U3" s="50" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V3" s="5"/>
       <c r="W3" s="5"/>
@@ -9370,16 +9373,16 @@
         <v>19</v>
       </c>
       <c r="J4" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" s="57" t="s">
+        <v>59</v>
+      </c>
+      <c r="L4" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="57" t="s">
         <v>61</v>
-      </c>
-      <c r="K4" s="57" t="s">
-        <v>57</v>
-      </c>
-      <c r="L4" s="57" t="s">
-        <v>28</v>
-      </c>
-      <c r="M4" s="57" t="s">
-        <v>59</v>
       </c>
       <c r="N4" s="57" t="s">
         <v>19</v>
@@ -9429,16 +9432,16 @@
         <v>19</v>
       </c>
       <c r="J5" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="K5" s="57" t="s">
+        <v>59</v>
+      </c>
+      <c r="L5" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" s="57" t="s">
         <v>61</v>
-      </c>
-      <c r="K5" s="57" t="s">
-        <v>57</v>
-      </c>
-      <c r="L5" s="57" t="s">
-        <v>28</v>
-      </c>
-      <c r="M5" s="57" t="s">
-        <v>59</v>
       </c>
       <c r="N5" s="57" t="s">
         <v>19</v>
@@ -9451,7 +9454,7 @@
       <c r="T5" s="5"/>
       <c r="U5" s="5"/>
       <c r="V5" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="W5" s="62" t="s">
         <v>32</v>
@@ -9459,7 +9462,7 @@
     </row>
     <row r="6" spans="1:23" s="31" customFormat="1">
       <c r="A6" s="31" t="s">
-        <v>548</v>
+        <v>36</v>
       </c>
       <c r="B6" s="31">
         <v>1</v>
@@ -9486,28 +9489,28 @@
         <v>19</v>
       </c>
       <c r="J6" s="57" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K6" s="31" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L6" s="57" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M6" s="31" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="N6" s="31" t="s">
         <v>19</v>
       </c>
       <c r="R6" s="32"/>
       <c r="U6" s="31" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:23" s="31" customFormat="1">
       <c r="A7" s="31" t="s">
-        <v>548</v>
+        <v>36</v>
       </c>
       <c r="B7" s="31">
         <v>1</v>
@@ -9534,28 +9537,28 @@
         <v>19</v>
       </c>
       <c r="J7" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="K7" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="L7" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="M7" s="31" t="s">
         <v>61</v>
-      </c>
-      <c r="K7" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="L7" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="M7" s="31" t="s">
-        <v>59</v>
       </c>
       <c r="N7" s="31" t="s">
         <v>19</v>
       </c>
       <c r="R7" s="32"/>
       <c r="U7" s="31" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:23" s="30" customFormat="1">
       <c r="A8" s="46" t="s">
-        <v>549</v>
+        <v>37</v>
       </c>
       <c r="B8" s="46">
         <v>1</v>
@@ -9582,16 +9585,16 @@
         <v>19</v>
       </c>
       <c r="J8" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="K8" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="L8" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="M8" s="46" t="s">
         <v>61</v>
-      </c>
-      <c r="K8" s="46" t="s">
-        <v>57</v>
-      </c>
-      <c r="L8" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="M8" s="46" t="s">
-        <v>59</v>
       </c>
       <c r="N8" s="46" t="s">
         <v>19</v>
@@ -9603,14 +9606,14 @@
       <c r="S8" s="46"/>
       <c r="T8" s="46"/>
       <c r="U8" s="46" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V8" s="46"/>
       <c r="W8" s="46"/>
     </row>
     <row r="9" spans="1:23" s="30" customFormat="1">
       <c r="A9" s="46" t="s">
-        <v>549</v>
+        <v>37</v>
       </c>
       <c r="B9" s="46">
         <v>1</v>
@@ -9637,16 +9640,16 @@
         <v>19</v>
       </c>
       <c r="J9" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="K9" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="L9" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="M9" s="46" t="s">
         <v>61</v>
-      </c>
-      <c r="K9" s="46" t="s">
-        <v>57</v>
-      </c>
-      <c r="L9" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="M9" s="46" t="s">
-        <v>59</v>
       </c>
       <c r="N9" s="46" t="s">
         <v>19</v>
@@ -9658,14 +9661,14 @@
       <c r="S9" s="46"/>
       <c r="T9" s="46"/>
       <c r="U9" s="46" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V9" s="46"/>
       <c r="W9" s="46"/>
     </row>
     <row r="10" spans="1:23" s="30" customFormat="1">
       <c r="A10" s="46" t="s">
-        <v>549</v>
+        <v>37</v>
       </c>
       <c r="B10" s="46">
         <v>1</v>
@@ -9692,16 +9695,16 @@
         <v>19</v>
       </c>
       <c r="J10" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="K10" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="L10" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="M10" s="46" t="s">
         <v>61</v>
-      </c>
-      <c r="K10" s="46" t="s">
-        <v>57</v>
-      </c>
-      <c r="L10" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="M10" s="46" t="s">
-        <v>59</v>
       </c>
       <c r="N10" s="46" t="s">
         <v>19</v>
@@ -9713,14 +9716,14 @@
       <c r="S10" s="46"/>
       <c r="T10" s="46"/>
       <c r="U10" s="46" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V10" s="46"/>
       <c r="W10" s="46"/>
     </row>
     <row r="11" spans="1:23" s="30" customFormat="1">
       <c r="A11" s="46" t="s">
-        <v>549</v>
+        <v>37</v>
       </c>
       <c r="B11" s="46">
         <v>1</v>
@@ -9747,16 +9750,16 @@
         <v>19</v>
       </c>
       <c r="J11" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="K11" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="L11" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="M11" s="46" t="s">
         <v>61</v>
-      </c>
-      <c r="K11" s="46" t="s">
-        <v>57</v>
-      </c>
-      <c r="L11" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="M11" s="46" t="s">
-        <v>59</v>
       </c>
       <c r="N11" s="46" t="s">
         <v>19</v>
@@ -9768,14 +9771,14 @@
       <c r="S11" s="46"/>
       <c r="T11" s="46"/>
       <c r="U11" s="46" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V11" s="46"/>
       <c r="W11" s="46"/>
     </row>
     <row r="12" spans="1:23">
       <c r="A12" s="46" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B12" s="46">
         <v>1</v>
@@ -9802,16 +9805,16 @@
         <v>19</v>
       </c>
       <c r="J12" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="K12" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="L12" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="M12" s="46" t="s">
         <v>61</v>
-      </c>
-      <c r="K12" s="46" t="s">
-        <v>57</v>
-      </c>
-      <c r="L12" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="M12" s="46" t="s">
-        <v>59</v>
       </c>
       <c r="N12" s="46" t="s">
         <v>19</v>
@@ -9842,20 +9845,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.81640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.453125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.453125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.54296875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="24.453125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="30.90625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="30.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -9869,34 +9872,34 @@
         <v>2</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E1" s="52" t="s">
-        <v>403</v>
+        <v>417</v>
       </c>
       <c r="F1" s="52" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G1" s="52" t="s">
-        <v>404</v>
+        <v>418</v>
       </c>
       <c r="H1" s="52" t="s">
-        <v>405</v>
+        <v>419</v>
       </c>
       <c r="I1" s="52" t="s">
-        <v>406</v>
+        <v>420</v>
       </c>
       <c r="J1" s="52" t="s">
-        <v>407</v>
+        <v>421</v>
       </c>
       <c r="K1" s="52" t="s">
-        <v>408</v>
+        <v>422</v>
       </c>
       <c r="L1" s="52" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="M1" s="52" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="N1" s="52" t="s">
         <v>13</v>
@@ -9904,7 +9907,7 @@
     </row>
     <row r="2" spans="1:14" s="34" customFormat="1">
       <c r="A2" s="34" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B2" s="34">
         <v>1</v>
@@ -9913,31 +9916,31 @@
         <v>1</v>
       </c>
       <c r="D2" s="34" t="s">
-        <v>409</v>
+        <v>423</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>410</v>
+        <v>424</v>
       </c>
       <c r="F2" s="34" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G2" s="34" t="s">
-        <v>411</v>
+        <v>425</v>
       </c>
       <c r="H2" s="34" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="I2" s="34" t="s">
-        <v>412</v>
+        <v>426</v>
       </c>
       <c r="J2" s="34" t="s">
-        <v>413</v>
+        <v>427</v>
       </c>
       <c r="K2" s="34" t="s">
-        <v>414</v>
+        <v>428</v>
       </c>
       <c r="L2" s="34" t="s">
-        <v>415</v>
+        <v>429</v>
       </c>
       <c r="M2" s="34" t="s">
         <v>19</v>
@@ -9961,13 +9964,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.1796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -9981,19 +9984,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>416</v>
+        <v>430</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>417</v>
+        <v>431</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -10013,10 +10016,10 @@
         <v>19</v>
       </c>
       <c r="F2" s="52" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G2" s="52" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="H2" s="52" t="s">
         <v>19</v>
@@ -10037,29 +10040,29 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.1796875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.08984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.81640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19.54296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.08984375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="18.08984375" customWidth="1"/>
+    <col min="12" max="12" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="18.1796875" customWidth="1"/>
     <col min="16" max="17" width="23" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="32.453125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="31.453125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="25" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="28.08984375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="28.1796875" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="23" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="19.90625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="27.08984375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="27.1796875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="19.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:45" s="16" customFormat="1">
@@ -10073,76 +10076,76 @@
         <v>2</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>418</v>
+        <v>432</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>419</v>
+        <v>433</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>365</v>
+        <v>380</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>387</v>
+        <v>402</v>
       </c>
       <c r="I1" s="52" t="s">
-        <v>420</v>
+        <v>434</v>
       </c>
       <c r="J1" s="52" t="s">
-        <v>421</v>
+        <v>435</v>
       </c>
       <c r="K1" s="52" t="s">
-        <v>422</v>
+        <v>436</v>
       </c>
       <c r="L1" s="52" t="s">
-        <v>423</v>
+        <v>437</v>
       </c>
       <c r="M1" s="52" t="s">
-        <v>424</v>
+        <v>438</v>
       </c>
       <c r="N1" s="52" t="s">
-        <v>425</v>
+        <v>439</v>
       </c>
       <c r="O1" s="52" t="s">
-        <v>426</v>
+        <v>440</v>
       </c>
       <c r="P1" s="52" t="s">
-        <v>427</v>
+        <v>441</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>429</v>
+        <v>443</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>430</v>
+        <v>444</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>431</v>
+        <v>445</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>432</v>
+        <v>446</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>433</v>
+        <v>447</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>436</v>
+        <v>450</v>
       </c>
       <c r="AB1" s="52"/>
       <c r="AC1" s="52"/>
@@ -10174,62 +10177,62 @@
         <v>1</v>
       </c>
       <c r="D2" s="52" t="s">
-        <v>437</v>
+        <v>451</v>
       </c>
       <c r="E2" s="52" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="F2" s="52" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G2" s="52" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H2" s="52"/>
       <c r="I2" s="52"/>
       <c r="J2" s="52"/>
       <c r="K2" s="52" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L2" s="52" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M2" s="52" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="N2" s="52"/>
       <c r="O2" s="52" t="s">
         <v>19</v>
       </c>
       <c r="P2" s="52" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q2" s="52" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="R2" s="52" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="S2" s="52" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="T2" s="52" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="U2" s="52" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="V2" s="52" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="W2" s="52" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="X2" s="52" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Y2" s="52" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Z2" s="52"/>
       <c r="AA2" s="52"/>
@@ -10263,25 +10266,25 @@
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>438</v>
+        <v>452</v>
       </c>
       <c r="E3" s="52" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="F3" s="52" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" s="52" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H3" s="52" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="I3" s="52" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="J3" s="52" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K3" s="52"/>
       <c r="L3" s="52"/>
@@ -10291,34 +10294,34 @@
       </c>
       <c r="O3" s="52"/>
       <c r="P3" s="52" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q3" s="52" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="R3" s="52" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="S3" s="52" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="T3" s="52" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="U3" s="52" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="V3" s="52" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="W3" s="52" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="X3" s="52" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Y3" s="52" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Z3" s="52"/>
       <c r="AA3" s="52"/>
@@ -10355,10 +10358,10 @@
         <v>19</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>439</v>
+        <v>453</v>
       </c>
       <c r="F4" s="52" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="G4" s="52" t="s">
         <v>28</v>
@@ -10367,16 +10370,16 @@
         <v>28</v>
       </c>
       <c r="I4" s="52" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="J4" s="52" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K4" s="52" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L4" s="52" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M4" s="52"/>
       <c r="N4" s="52"/>
@@ -10390,34 +10393,34 @@
         <v>28</v>
       </c>
       <c r="R4" s="52" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="S4" s="52" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="T4" s="52" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="U4" s="52" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="V4" s="52" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="W4" s="52" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="X4" s="52" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Y4" s="52" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Z4" s="52" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AA4" s="52" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AB4" s="52"/>
       <c r="AC4" s="52"/>
@@ -10452,10 +10455,10 @@
         <v>19</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>437</v>
+        <v>451</v>
       </c>
       <c r="F5" s="52" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="G5" s="52" t="s">
         <v>28</v>
@@ -10464,7 +10467,7 @@
         <v>28</v>
       </c>
       <c r="I5" s="52" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="J5" s="52" t="s">
         <v>28</v>
@@ -10476,10 +10479,10 @@
         <v>28</v>
       </c>
       <c r="M5" s="52" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="N5" s="52" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="O5" s="52" t="s">
         <v>28</v>
@@ -10491,22 +10494,22 @@
         <v>28</v>
       </c>
       <c r="R5" s="52" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="S5" s="52" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="T5" s="52" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="U5" s="52" t="s">
         <v>28</v>
       </c>
       <c r="V5" s="52" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="W5" s="52" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="X5" s="52" t="s">
         <v>28</v>
@@ -10518,7 +10521,7 @@
         <v>28</v>
       </c>
       <c r="AA5" s="52" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AB5" s="52"/>
       <c r="AC5" s="52"/>
@@ -10884,36 +10887,36 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.54296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.81640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.08984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="20.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="20.81640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="22" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.08984375" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="19.81640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="33.54296875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="35.90625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.08984375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="35.81640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.1796875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="24" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="23" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.81640625" bestFit="1" customWidth="1"/>
     <col min="21" max="22" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.08984375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.1796875" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="24" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="20.90625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="29.08984375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="29.08984375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="28.08984375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="29.08984375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="20.90625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="29.08984375" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="36.90625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="29.1796875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="29.1796875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="28.1796875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="29.1796875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="29.1796875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="36.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33">
@@ -10927,94 +10930,94 @@
         <v>2</v>
       </c>
       <c r="D1" s="52" t="s">
-        <v>440</v>
+        <v>454</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>441</v>
+        <v>455</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>442</v>
+        <v>456</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>443</v>
+        <v>457</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>444</v>
+        <v>458</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>445</v>
+        <v>459</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>446</v>
+        <v>460</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>449</v>
+        <v>463</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>450</v>
+        <v>464</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>451</v>
+        <v>465</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>452</v>
+        <v>466</v>
       </c>
       <c r="Q1" s="52" t="s">
-        <v>453</v>
+        <v>467</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>454</v>
+        <v>468</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>455</v>
+        <v>469</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>456</v>
+        <v>470</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>457</v>
+        <v>471</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>460</v>
+        <v>474</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>461</v>
+        <v>475</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>463</v>
+        <v>477</v>
       </c>
       <c r="AB1" s="3" t="s">
-        <v>464</v>
+        <v>478</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>465</v>
+        <v>479</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>466</v>
+        <v>480</v>
       </c>
       <c r="AE1" s="2" t="s">
-        <v>467</v>
+        <v>481</v>
       </c>
       <c r="AF1" s="2" t="s">
-        <v>468</v>
+        <v>482</v>
       </c>
       <c r="AG1" s="2" t="s">
-        <v>469</v>
+        <v>483</v>
       </c>
     </row>
     <row r="2" spans="1:33">
@@ -11028,99 +11031,99 @@
         <v>1</v>
       </c>
       <c r="D2" s="52" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:33">
       <c r="A3" s="52" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B3" s="52">
         <v>1</v>
@@ -11129,7 +11132,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="52" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>28</v>
@@ -11138,7 +11141,7 @@
         <v>28</v>
       </c>
       <c r="G3" s="52" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H3" s="52" t="b">
         <v>1</v>
@@ -11690,23 +11693,23 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="19.08984375" style="39" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.90625" style="39" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.08984375" style="39" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.90625" style="39" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.90625" style="39" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.1796875" style="39" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" style="39" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.81640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.81640625" style="39" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23" style="39" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.08984375" style="39" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.08984375" style="39" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.08984375" style="39" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.1796875" style="39" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.1796875" style="39" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.1796875" style="39" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="23" style="39" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.08984375" style="39" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.08984375" style="39" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.1796875" style="39" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.1796875" style="39" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="118.453125" style="39" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="17.90625" style="39" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.90625" style="39"/>
+    <col min="14" max="15" width="17.81640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.81640625" style="39"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -11720,40 +11723,40 @@
         <v>2</v>
       </c>
       <c r="D1" s="52" t="s">
-        <v>342</v>
+        <v>357</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>470</v>
+        <v>346</v>
       </c>
       <c r="F1" s="41" t="s">
-        <v>471</v>
+        <v>484</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>472</v>
+        <v>485</v>
       </c>
       <c r="H1" s="41" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I1" s="41" t="s">
-        <v>473</v>
+        <v>486</v>
       </c>
       <c r="J1" s="41" t="s">
-        <v>474</v>
+        <v>487</v>
       </c>
       <c r="K1" s="41" t="s">
-        <v>475</v>
+        <v>488</v>
       </c>
       <c r="L1" s="41" t="s">
-        <v>476</v>
+        <v>489</v>
       </c>
       <c r="M1" s="41" t="s">
-        <v>477</v>
+        <v>490</v>
       </c>
       <c r="N1" s="41" t="s">
-        <v>478</v>
+        <v>491</v>
       </c>
       <c r="O1" s="41" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="46" customFormat="1" ht="58">
@@ -11785,7 +11788,7 @@
         <v>19</v>
       </c>
       <c r="J2" s="57" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K2" s="57" t="s">
         <v>28</v>
@@ -11794,10 +11797,10 @@
         <v>28</v>
       </c>
       <c r="M2" s="64" t="s">
-        <v>479</v>
+        <v>492</v>
       </c>
       <c r="N2" s="57" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="O2" s="57" t="s">
         <v>30</v>
@@ -11814,7 +11817,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="50" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="E3" s="50" t="s">
         <v>19</v>
@@ -11832,16 +11835,16 @@
         <v>28</v>
       </c>
       <c r="J3" s="57" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K3" s="50" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L3" s="50" t="s">
         <v>28</v>
       </c>
       <c r="M3" s="64" t="s">
-        <v>480</v>
+        <v>493</v>
       </c>
       <c r="N3" s="57" t="s">
         <v>30</v>
@@ -11852,7 +11855,7 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="40" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B4" s="40">
         <v>1</v>
@@ -11861,7 +11864,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="E4" s="40" t="s">
         <v>19</v>
@@ -11891,7 +11894,7 @@
     </row>
     <row r="5" spans="1:15" s="31" customFormat="1">
       <c r="A5" s="31" t="s">
-        <v>548</v>
+        <v>36</v>
       </c>
       <c r="B5" s="47">
         <v>1</v>
@@ -11900,7 +11903,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="E5" s="31" t="s">
         <v>19</v>
@@ -11918,10 +11921,10 @@
         <v>28</v>
       </c>
       <c r="J5" s="47" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K5" s="47" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L5" s="47" t="s">
         <v>28</v>
@@ -12025,103 +12028,103 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>481</v>
+        <v>494</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>482</v>
+        <v>495</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>483</v>
+        <v>496</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>484</v>
+        <v>497</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>485</v>
+        <v>498</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>486</v>
+        <v>499</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>486</v>
+        <v>499</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>488</v>
+        <v>501</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>489</v>
+        <v>502</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>485</v>
+        <v>498</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>490</v>
+        <v>503</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>491</v>
+        <v>504</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>492</v>
+        <v>505</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>493</v>
+        <v>506</v>
       </c>
       <c r="T1" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="AA1" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="AB1" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="AC1" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="AD1" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="AE1" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="AF1" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="AG1" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="AH1" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="AI1" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="AJ1" s="5" t="s">
         <v>495</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>483</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>496</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>491</v>
-      </c>
-      <c r="Y1" s="5" t="s">
-        <v>497</v>
-      </c>
-      <c r="Z1" s="5" t="s">
-        <v>485</v>
-      </c>
-      <c r="AA1" s="5" t="s">
-        <v>498</v>
-      </c>
-      <c r="AB1" s="5" t="s">
-        <v>487</v>
-      </c>
-      <c r="AC1" s="5" t="s">
-        <v>488</v>
-      </c>
-      <c r="AD1" s="5" t="s">
-        <v>489</v>
-      </c>
-      <c r="AE1" s="5" t="s">
-        <v>499</v>
-      </c>
-      <c r="AF1" s="5" t="s">
-        <v>500</v>
-      </c>
-      <c r="AG1" s="5" t="s">
-        <v>501</v>
-      </c>
-      <c r="AH1" s="5" t="s">
-        <v>502</v>
-      </c>
-      <c r="AI1" s="5" t="s">
-        <v>481</v>
-      </c>
-      <c r="AJ1" s="5" t="s">
-        <v>482</v>
       </c>
       <c r="AK1" s="5" t="s">
         <v>13</v>
@@ -12130,7 +12133,7 @@
     </row>
     <row r="2" spans="1:38">
       <c r="A2" s="5" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -12175,36 +12178,36 @@
         <v>28</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>504</v>
+        <v>517</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>505</v>
+        <v>518</v>
       </c>
       <c r="S2" s="49"/>
       <c r="T2" s="49"/>
       <c r="U2" s="5" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="V2" s="5" t="s">
         <v>28</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>506</v>
+        <v>519</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>504</v>
+        <v>517</v>
       </c>
       <c r="Y2" s="5" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Z2" s="5" t="s">
         <v>28</v>
       </c>
       <c r="AA2" s="5" t="s">
-        <v>507</v>
+        <v>520</v>
       </c>
       <c r="AB2" s="5">
         <v>4</v>
@@ -12219,22 +12222,22 @@
         <v>28</v>
       </c>
       <c r="AF2" s="5" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="AG2" s="5" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="AH2" s="5">
         <v>89377</v>
       </c>
       <c r="AI2" s="5" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="AJ2" s="5" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="AK2" s="5" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="AL2" s="5"/>
     </row>
@@ -12264,34 +12267,34 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>508</v>
+        <v>521</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>522</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>509</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>496</v>
-      </c>
       <c r="H1" s="5" t="s">
-        <v>491</v>
+        <v>504</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>510</v>
+        <v>523</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>511</v>
+        <v>524</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>512</v>
+        <v>525</v>
       </c>
       <c r="L1" s="49"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="5" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -12300,10 +12303,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>28</v>
@@ -12349,31 +12352,31 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>513</v>
+        <v>526</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>514</v>
+        <v>527</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>515</v>
+        <v>528</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>516</v>
+        <v>529</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>517</v>
+        <v>530</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>518</v>
+        <v>531</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>519</v>
+        <v>532</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M1" s="5" t="s">
         <v>13</v>
@@ -12381,7 +12384,7 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="5" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -12390,17 +12393,17 @@
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5" t="s">
-        <v>520</v>
+        <v>533</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>521</v>
+        <v>534</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>28</v>
@@ -12415,7 +12418,7 @@
         <v>28</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -12433,7 +12436,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="27" max="27" width="9.08984375" style="52"/>
+    <col min="27" max="27" width="9.1796875" style="52"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
@@ -12447,87 +12450,87 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>522</v>
+        <v>535</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>523</v>
+        <v>536</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>524</v>
+        <v>537</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>485</v>
+        <v>498</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>483</v>
+        <v>496</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>525</v>
+        <v>538</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>526</v>
+        <v>539</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>527</v>
+        <v>540</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>528</v>
+        <v>541</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>529</v>
+        <v>542</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>530</v>
+        <v>543</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>531</v>
+        <v>544</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>532</v>
+        <v>545</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>533</v>
+        <v>546</v>
       </c>
       <c r="V1" s="5" t="s">
-        <v>534</v>
+        <v>547</v>
       </c>
       <c r="W1" s="5" t="s">
-        <v>535</v>
+        <v>548</v>
       </c>
       <c r="X1" s="5" t="s">
-        <v>536</v>
+        <v>549</v>
       </c>
       <c r="Y1" s="5" t="s">
-        <v>537</v>
+        <v>550</v>
       </c>
       <c r="Z1" s="5" t="s">
-        <v>538</v>
+        <v>551</v>
       </c>
       <c r="AA1" s="5" t="s">
-        <v>539</v>
+        <v>552</v>
       </c>
       <c r="AB1" s="5" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="AC1" s="52" t="s">
-        <v>540</v>
+        <v>553</v>
       </c>
     </row>
     <row r="2" spans="1:29">
       <c r="A2" s="5" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -12536,75 +12539,75 @@
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>28</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="I2" s="5"/>
       <c r="J2" s="5" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="K2" s="5"/>
       <c r="L2" s="5" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="M2" s="5"/>
       <c r="N2" s="5" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>541</v>
+        <v>554</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>542</v>
+        <v>555</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>543</v>
+        <v>556</v>
       </c>
       <c r="S2" s="5" t="s">
         <v>28</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="U2" s="52" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="V2" s="52" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="W2" s="52" t="s">
-        <v>544</v>
+        <v>557</v>
       </c>
       <c r="X2" s="52" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Y2" s="52"/>
       <c r="Z2" s="52" t="s">
-        <v>545</v>
+        <v>558</v>
       </c>
       <c r="AA2" s="52" t="s">
-        <v>546</v>
+        <v>559</v>
       </c>
       <c r="AB2" s="52"/>
       <c r="AC2" s="52"/>
     </row>
     <row r="3" spans="1:29">
       <c r="A3" s="5" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="B3" s="5">
         <v>1</v>
@@ -12613,7 +12616,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>28</v>
@@ -12652,16 +12655,16 @@
         <v>28</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>547</v>
+        <v>560</v>
       </c>
       <c r="S3" s="5" t="s">
         <v>28</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="U3" s="5" t="s">
         <v>28</v>
@@ -12706,42 +12709,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.90625" style="52" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.81640625" style="52" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="52" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.90625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.1796875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.453125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="29.90625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.81640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="68.453125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.81640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.54296875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="41.54296875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="10.81640625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="23.90625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.81640625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="21.453125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="22.453125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="24.453125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="22.453125" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="23.453125" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="19.08984375" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="19.1796875" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="25.453125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="16.08984375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="17.08984375" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="17.08984375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="19.08984375" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="20.08984375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="20.1796875" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="22.453125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="14.1796875" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="12" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="18" bestFit="1" customWidth="1"/>
   </cols>
@@ -12760,112 +12763,112 @@
         <v>4</v>
       </c>
       <c r="E1" s="53" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F1" s="54" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I1" s="17" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="J1" s="17" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K1" s="17" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L1" s="17" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M1" s="17" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="N1" s="17" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O1" s="17" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P1" s="17" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q1" s="17" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="R1" s="17" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S1" s="17" t="s">
         <v>13</v>
       </c>
       <c r="T1" s="17" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="U1" s="8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="V1" s="8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W1" s="8" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="X1" s="8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Y1" s="8" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Z1" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AA1" s="8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AB1" s="8" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AC1" s="8" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AD1" s="8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AE1" s="8" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AF1" s="8" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AG1" s="8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AH1" s="8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AI1" s="8" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AJ1" s="8" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AK1" s="8" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="AL1" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AM1" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AN1" s="17" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:40">
@@ -12888,28 +12891,28 @@
         <v>19</v>
       </c>
       <c r="G2" s="52" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H2" s="52" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I2" s="52" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="J2" s="52" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K2" s="42" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L2" s="42" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M2" s="42" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="N2" s="17" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="O2" s="42" t="s">
         <v>19</v>
@@ -12918,10 +12921,10 @@
         <v>28</v>
       </c>
       <c r="Q2" s="17" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="R2" s="17" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="S2" s="17" t="s">
         <v>19</v>
@@ -13010,40 +13013,40 @@
         <v>30</v>
       </c>
       <c r="G3" s="66" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H3" s="66" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I3" s="66" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="J3" s="66" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K3" s="66" t="s">
+        <v>105</v>
+      </c>
+      <c r="L3" s="67" t="s">
+        <v>106</v>
+      </c>
+      <c r="M3" s="66" t="s">
+        <v>102</v>
+      </c>
+      <c r="N3" s="66" t="s">
         <v>103</v>
       </c>
-      <c r="L3" s="67" t="s">
+      <c r="O3" s="66" t="s">
+        <v>19</v>
+      </c>
+      <c r="P3" s="66" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q3" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="M3" s="66" t="s">
-        <v>100</v>
-      </c>
-      <c r="N3" s="66" t="s">
-        <v>101</v>
-      </c>
-      <c r="O3" s="66" t="s">
-        <v>19</v>
-      </c>
-      <c r="P3" s="66" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q3" s="66" t="s">
-        <v>102</v>
-      </c>
       <c r="R3" s="66" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="S3" s="66" t="s">
         <v>19</v>
@@ -13114,7 +13117,7 @@
     </row>
     <row r="4" spans="1:40" s="31" customFormat="1" ht="15.65" customHeight="1">
       <c r="A4" s="31" t="s">
-        <v>548</v>
+        <v>36</v>
       </c>
       <c r="B4" s="31">
         <v>1</v>
@@ -13128,28 +13131,28 @@
       <c r="E4" s="47"/>
       <c r="F4" s="47"/>
       <c r="G4" s="31" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H4" s="31" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I4" s="31" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="J4" s="31" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K4" s="47" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L4" s="48" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="M4" s="47" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="N4" s="47" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="O4" s="47" t="s">
         <v>19</v>
@@ -13158,10 +13161,10 @@
         <v>28</v>
       </c>
       <c r="Q4" s="47" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="R4" s="47" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="S4" s="47" t="s">
         <v>19</v>
@@ -13232,7 +13235,7 @@
     </row>
     <row r="5" spans="1:40">
       <c r="A5" s="17" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B5" s="17">
         <v>1</v>
@@ -13868,60 +13871,60 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.1796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.1796875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.90625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.90625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="26.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.1796875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="22" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.08984375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.08984375" style="14" customWidth="1"/>
-    <col min="18" max="18" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.08984375" style="15" customWidth="1"/>
-    <col min="21" max="21" width="38.90625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="27.08984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.1796875" style="14" customWidth="1"/>
+    <col min="18" max="18" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.1796875" style="15" customWidth="1"/>
+    <col min="21" max="21" width="38.81640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="27.1796875" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="25.453125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="25.08984375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="25.1796875" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="22" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="24" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="22" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="24" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="25" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="19.90625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="26.08984375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="26.1796875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="19.81640625" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="22" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="16.54296875" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="30.453125" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="23" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="17.81640625" bestFit="1" customWidth="1"/>
     <col min="38" max="39" width="23" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="20.90625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="20.81640625" bestFit="1" customWidth="1"/>
     <col min="41" max="42" width="23" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="20.90625" bestFit="1" customWidth="1"/>
-    <col min="44" max="45" width="28.08984375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="44" max="45" width="28.1796875" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="31.453125" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="14.54296875" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="12.453125" bestFit="1" customWidth="1"/>
     <col min="49" max="49" width="19.453125" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="34.90625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="34.81640625" bestFit="1" customWidth="1"/>
     <col min="51" max="51" width="22" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="23" bestFit="1" customWidth="1"/>
     <col min="53" max="53" width="22" bestFit="1" customWidth="1"/>
     <col min="54" max="54" width="33.54296875" bestFit="1" customWidth="1"/>
     <col min="55" max="55" width="22" bestFit="1" customWidth="1"/>
     <col min="56" max="56" width="32.453125" bestFit="1" customWidth="1"/>
-    <col min="57" max="58" width="37.90625" bestFit="1" customWidth="1"/>
+    <col min="57" max="58" width="37.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:58">
@@ -13935,169 +13938,169 @@
         <v>2</v>
       </c>
       <c r="D1" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="N1" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="O1" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="P1" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q1" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="R1" s="17" t="s">
         <v>76</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="J1" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="K1" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="L1" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="M1" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="N1" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="O1" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="P1" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q1" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="R1" s="17" t="s">
-        <v>74</v>
       </c>
       <c r="S1" s="17" t="s">
         <v>13</v>
       </c>
       <c r="T1" s="17" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="U1" s="17" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="V1" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="W1" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="X1" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y1" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z1" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA1" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="W1" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="X1" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y1" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="Z1" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA1" s="8" t="s">
-        <v>77</v>
-      </c>
       <c r="AB1" s="8" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AC1" s="8" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AD1" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AE1" s="8" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AF1" s="8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AG1" s="8" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AH1" s="8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AI1" s="8" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AJ1" s="8" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AK1" s="8" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AL1" s="8" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AM1" s="8" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AN1" s="8" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AO1" s="8" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AP1" s="8" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AQ1" s="8" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AR1" s="8" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AS1" s="8" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AT1" s="8" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AU1" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AV1" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AW1" s="17" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AX1" s="9" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AY1" s="8" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AZ1" s="9" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="BA1" s="9" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="BB1" s="8" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="BC1" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="BD1" s="9" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="BE1" s="8" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="BF1" s="9" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:58">
@@ -14117,22 +14120,22 @@
         <v>19</v>
       </c>
       <c r="F2" s="52" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G2" s="52" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H2" s="52" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="I2" s="52" t="s">
+        <v>102</v>
+      </c>
+      <c r="J2" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="J2" s="46" t="s">
-        <v>98</v>
-      </c>
       <c r="K2" s="40" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L2" s="52" t="s">
         <v>28</v>
@@ -14141,16 +14144,16 @@
         <v>28</v>
       </c>
       <c r="N2" s="52" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="O2" s="52" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P2" s="42" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q2" s="42" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="R2" s="52" t="s">
         <v>28</v>
@@ -14159,7 +14162,7 @@
         <v>19</v>
       </c>
       <c r="T2" s="52" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="U2" s="52" t="s">
         <v>28</v>
@@ -14296,7 +14299,7 @@
         <v>28</v>
       </c>
       <c r="G3" s="35" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H3" s="36" t="s">
         <v>28</v>
@@ -14311,7 +14314,7 @@
         <v>28</v>
       </c>
       <c r="L3" s="36" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M3" s="36" t="s">
         <v>28</v>
@@ -14469,22 +14472,22 @@
         <v>19</v>
       </c>
       <c r="F4" s="57" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G4" s="57" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H4" s="57" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="I4" s="57" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="J4" s="57" t="s">
         <v>33</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L4" s="57" t="s">
         <v>28</v>
@@ -14493,16 +14496,16 @@
         <v>28</v>
       </c>
       <c r="N4" s="57" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="O4" s="57" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P4" s="57" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q4" s="57" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="R4" s="57" t="s">
         <v>28</v>
@@ -14511,7 +14514,7 @@
         <v>19</v>
       </c>
       <c r="T4" s="57" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="U4" s="57" t="s">
         <v>28</v>
@@ -14630,7 +14633,7 @@
     </row>
     <row r="5" spans="1:58">
       <c r="A5" s="52" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B5" s="52">
         <v>1</v>
@@ -14821,10 +14824,10 @@
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="3" max="3" width="13.54296875" customWidth="1"/>
-    <col min="4" max="4" width="15.90625" customWidth="1"/>
-    <col min="5" max="5" width="24.08984375" customWidth="1"/>
-    <col min="6" max="6" width="15.90625" customWidth="1"/>
-    <col min="7" max="7" width="28.08984375" customWidth="1"/>
+    <col min="4" max="4" width="15.81640625" customWidth="1"/>
+    <col min="5" max="5" width="24.1796875" customWidth="1"/>
+    <col min="6" max="6" width="15.81640625" customWidth="1"/>
+    <col min="7" max="7" width="28.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="16" customFormat="1">
@@ -14838,19 +14841,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F1" s="29" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G1" s="52" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H1" s="40" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I1" s="40"/>
       <c r="J1" s="40"/>
@@ -14872,16 +14875,16 @@
         <v>19</v>
       </c>
       <c r="E2" s="57" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F2" s="57" t="s">
         <v>19</v>
       </c>
       <c r="G2" s="57" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H2" s="57" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I2" s="57" t="s">
         <v>30</v>
@@ -14901,7 +14904,7 @@
     </row>
     <row r="3" spans="1:13" s="31" customFormat="1">
       <c r="A3" s="31" t="s">
-        <v>548</v>
+        <v>36</v>
       </c>
       <c r="B3" s="47">
         <v>1</v>
@@ -14913,16 +14916,16 @@
         <v>19</v>
       </c>
       <c r="E3" s="31" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F3" s="31" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G3" s="31" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H3" s="31" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -14940,15 +14943,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="17.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.54296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.54296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.54296875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.1796875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="29.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.453125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -14963,22 +14966,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="J1" s="5" t="s">
         <v>13</v>
@@ -14986,7 +14989,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="50" t="s">
-        <v>548</v>
+        <v>36</v>
       </c>
       <c r="B2" s="50">
         <v>1</v>
@@ -14998,19 +15001,19 @@
         <v>19</v>
       </c>
       <c r="E2" s="50" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F2" s="50" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G2" s="50" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H2" s="50" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="I2" s="50" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="J2" s="50" t="s">
         <v>19</v>
@@ -15031,9 +15034,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="17.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.54296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.1796875" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="1.453125" bestFit="1" customWidth="1"/>
   </cols>
@@ -15049,14 +15052,14 @@
         <v>2</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>550</v>
+        <v>170</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:6" s="52" customFormat="1">
       <c r="A2" s="50" t="s">
-        <v>548</v>
+        <v>36</v>
       </c>
       <c r="B2" s="50">
         <v>1</v>
@@ -15089,13 +15092,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="44.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="44.90625" style="16" customWidth="1"/>
-    <col min="6" max="6" width="19.08984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="42.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.81640625" style="16" customWidth="1"/>
+    <col min="6" max="6" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="42.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -15109,31 +15112,31 @@
         <v>2</v>
       </c>
       <c r="D1" s="52" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E1" s="52" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="F1" s="52" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="G1" s="52" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="H1" s="52" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="I1" s="52" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="J1" s="52" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="K1" s="52" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="L1" s="52" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -15147,32 +15150,32 @@
         <v>1</v>
       </c>
       <c r="D2" s="52" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="E2" s="52"/>
       <c r="F2" s="52" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="G2" s="52" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="H2" s="52" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="I2" s="52" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J2" s="52" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="K2" s="52" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="L2" s="52" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="21.9" customHeight="1">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="22" customHeight="1">
       <c r="A3" s="52" t="s">
         <v>35</v>
       </c>
@@ -15183,21 +15186,21 @@
         <v>1</v>
       </c>
       <c r="D3" s="52" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="E3" s="52" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="F3" s="52"/>
       <c r="G3" s="52"/>
       <c r="H3" s="52" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="I3" s="52" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J3" s="52" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="K3" s="52"/>
       <c r="L3" s="52"/>
@@ -15228,31 +15231,31 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -15266,29 +15269,29 @@
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="F2" s="5">
         <v>987654321</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -15698,6 +15701,16 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -15914,16 +15927,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{527B0702-8AF4-4307-A34D-2633AC2397ED}">
   <ds:schemaRefs>
@@ -15933,6 +15936,16 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{360C765C-5108-4856-B14E-979324B41D25}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBA5B558-DFC3-420B-A09B-072555AB09C7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -15951,16 +15964,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{360C765C-5108-4856-B14E-979324B41D25}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{ea60d57e-af5b-4752-ac57-3e4f28ca11dc}" enabled="1" method="Standard" siteId="{36da45f1-dd2c-4d1f-af13-5abe46b99921}" contentBits="0" removed="0"/>

--- a/Folio.xlsx
+++ b/Folio.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E0152CB-E823-4C12-8A2F-2F073A5D5023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{5E0152CB-E823-4C12-8A2F-2F073A5D5023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D6A7CDA2-9DF4-4DBC-AD2F-FCFBF8376318}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="13" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="14" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Allegations" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2919" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2937" uniqueCount="562">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -1317,6 +1317,9 @@
   </si>
   <si>
     <t>Identified Parent</t>
+  </si>
+  <si>
+    <t>CaseChildLocationSetup</t>
   </si>
   <si>
     <t>PRIMARY_RESPONSIBLE_AGENCY</t>
@@ -2397,30 +2400,30 @@
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.81640625" customWidth="1"/>
-    <col min="6" max="6" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17" customWidth="1"/>
-    <col min="10" max="10" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="22" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="31.453125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="28.1796875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.453125" customWidth="1"/>
-    <col min="15" max="15" width="17.81640625" customWidth="1"/>
+    <col min="12" max="12" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" customWidth="1"/>
+    <col min="15" max="15" width="17.85546875" customWidth="1"/>
     <col min="16" max="16" width="25" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="28.1796875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="28.140625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="22" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="26.1796875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="31.453125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25">
@@ -3237,19 +3240,19 @@
       <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="29" style="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="16" customFormat="1">
@@ -3523,19 +3526,19 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -3772,16 +3775,16 @@
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="4" max="4" width="23.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="18" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="31.1796875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="31.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -4353,26 +4356,26 @@
       <selection activeCell="Y6" sqref="Y6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="37.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="30.453125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30.453125" style="39" customWidth="1"/>
+    <col min="9" max="9" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="37.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.42578125" style="39" customWidth="1"/>
     <col min="13" max="13" width="25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="8.81640625" style="28"/>
-    <col min="21" max="21" width="13.1796875" style="28" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="8.54296875" style="39"/>
+    <col min="14" max="14" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="8.85546875" style="28"/>
+    <col min="21" max="21" width="13.140625" style="28" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="8.5703125" style="39"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" s="16" customFormat="1">
@@ -4856,47 +4859,47 @@
       <selection activeCell="A15" sqref="A15:XFD17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.54296875" style="39" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="39" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="39" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="39" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.1796875" style="39" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.1796875" style="39" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.1796875" style="39" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.81640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.81640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.453125" style="39" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.81640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.453125" style="39" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.453125" style="39" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.1796875" style="39" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.81640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.1796875" style="39" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.81640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.81640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.85546875" style="39" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.85546875" style="39" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.42578125" style="39" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="39" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.42578125" style="39" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.42578125" style="39" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.85546875" style="39" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" style="39" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.85546875" style="39" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="5" style="39" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="21.54296875" style="39" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.81640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="27.81640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="22.81640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21.5703125" style="39" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.85546875" style="39" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="27.85546875" style="39" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22.85546875" style="39" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="20" style="39" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="17.54296875" style="39" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="18.81640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.54296875" style="39" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="39.81640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="31.81640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="5.81640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="5.1796875" style="39" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="6.81640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.1796875" style="39" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="16.81640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="19.1796875" style="39" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="21.453125" style="39" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="14.81640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="14.81640625" style="52" customWidth="1"/>
-    <col min="40" max="40" width="110.453125" style="39" bestFit="1" customWidth="1"/>
-    <col min="41" max="16384" width="8.81640625" style="39"/>
+    <col min="25" max="25" width="17.5703125" style="39" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="18.85546875" style="39" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.5703125" style="39" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="39.85546875" style="39" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="31.85546875" style="39" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="5.85546875" style="39" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="5.140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="6.85546875" style="39" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="16.85546875" style="39" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="19.140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="21.42578125" style="39" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="14.85546875" style="39" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="14.85546875" style="52" customWidth="1"/>
+    <col min="40" max="40" width="110.42578125" style="39" bestFit="1" customWidth="1"/>
+    <col min="41" max="16384" width="8.85546875" style="39"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40">
@@ -6784,7 +6787,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:40" s="52" customFormat="1" ht="29">
+    <row r="17" spans="1:40" s="52" customFormat="1" ht="29.1">
       <c r="A17" s="46" t="s">
         <v>340</v>
       </c>
@@ -6920,7 +6923,7 @@
       <selection sqref="A1:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <sheetData>
     <row r="1" spans="1:7" s="52" customFormat="1">
       <c r="A1" s="40" t="s">
@@ -6968,7 +6971,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="46" customFormat="1" ht="16">
+    <row r="3" spans="1:7" s="46" customFormat="1" ht="15.95">
       <c r="A3" s="46" t="s">
         <v>340</v>
       </c>
@@ -6991,7 +6994,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="46" customFormat="1" ht="16">
+    <row r="4" spans="1:7" s="46" customFormat="1" ht="15.95">
       <c r="A4" s="46" t="s">
         <v>340</v>
       </c>
@@ -7014,7 +7017,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="46" customFormat="1" ht="16">
+    <row r="5" spans="1:7" s="46" customFormat="1" ht="15.95">
       <c r="A5" s="46" t="s">
         <v>340</v>
       </c>
@@ -7050,21 +7053,21 @@
       <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.54296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="4.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="4.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="16" customFormat="1">
@@ -7273,10 +7276,10 @@
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
   </cols>
@@ -7514,13 +7517,13 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.1796875" customWidth="1"/>
-    <col min="5" max="5" width="19.54296875" customWidth="1"/>
-    <col min="18" max="18" width="15.81640625" customWidth="1"/>
-    <col min="20" max="20" width="21.54296875" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" customWidth="1"/>
+    <col min="18" max="18" width="15.85546875" customWidth="1"/>
+    <col min="20" max="20" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="12" customFormat="1">
@@ -7781,32 +7784,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC115C88-C50A-4C63-8FE8-A3BB8E337BDA}">
   <dimension ref="A1:T22"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.54296875" customWidth="1"/>
-    <col min="11" max="11" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="24.453125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="23.54296875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -9111,27 +9114,67 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:20">
-      <c r="A22" s="52"/>
-      <c r="B22" s="52"/>
-      <c r="C22" s="52"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="52"/>
-      <c r="G22" s="52"/>
-      <c r="H22" s="52"/>
-      <c r="I22" s="52"/>
-      <c r="J22" s="52"/>
-      <c r="K22" s="52"/>
-      <c r="L22" s="52"/>
-      <c r="M22" s="52"/>
-      <c r="N22" s="52"/>
-      <c r="O22" s="52"/>
-      <c r="P22" s="52"/>
-      <c r="Q22" s="52"/>
-      <c r="R22" s="52"/>
-      <c r="S22" s="52"/>
-      <c r="T22" s="52"/>
+    <row r="22" spans="1:20" ht="15">
+      <c r="A22" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="B22" s="5">
+        <v>1</v>
+      </c>
+      <c r="C22" s="5">
+        <v>1</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M22" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="N22" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="O22" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="P22" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q22" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="R22" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="S22" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="T22" s="5" t="s">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9147,16 +9190,16 @@
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="16.1796875" style="16" customWidth="1"/>
-    <col min="7" max="7" width="17.1796875" customWidth="1"/>
-    <col min="9" max="9" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="28.54296875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="16.140625" style="16" customWidth="1"/>
+    <col min="7" max="7" width="17.140625" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
@@ -9843,22 +9886,22 @@
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.453125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="30.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -9875,25 +9918,25 @@
         <v>160</v>
       </c>
       <c r="E1" s="52" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="F1" s="52" t="s">
         <v>163</v>
       </c>
       <c r="G1" s="52" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H1" s="52" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="I1" s="52" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="J1" s="52" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="K1" s="52" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="L1" s="52" t="s">
         <v>195</v>
@@ -9916,31 +9959,31 @@
         <v>1</v>
       </c>
       <c r="D2" s="34" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="F2" s="34" t="s">
         <v>168</v>
       </c>
       <c r="G2" s="34" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H2" s="34" t="s">
         <v>103</v>
       </c>
       <c r="I2" s="34" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="J2" s="34" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="K2" s="34" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="L2" s="34" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M2" s="34" t="s">
         <v>19</v>
@@ -9962,15 +10005,15 @@
       <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -9987,13 +10030,13 @@
         <v>185</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>117</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>177</v>
@@ -10038,31 +10081,31 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.54296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="18.1796875" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="18.140625" customWidth="1"/>
     <col min="16" max="17" width="23" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="32.453125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="31.453125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="31.42578125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="25" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="28.1796875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="28.140625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="23" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="27.1796875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="19.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:45" s="16" customFormat="1">
@@ -10076,10 +10119,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>380</v>
@@ -10091,61 +10134,61 @@
         <v>402</v>
       </c>
       <c r="I1" s="52" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="J1" s="52" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="K1" s="52" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="L1" s="52" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="M1" s="52" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="N1" s="52" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="O1" s="52" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="P1" s="52" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="X1" s="2" t="s">
         <v>50</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="Z1" s="2" t="s">
         <v>52</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AB1" s="52"/>
       <c r="AC1" s="52"/>
@@ -10177,7 +10220,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="52" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="E2" s="52" t="s">
         <v>239</v>
@@ -10266,7 +10309,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="E3" s="52" t="s">
         <v>239</v>
@@ -10358,7 +10401,7 @@
         <v>19</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="F4" s="52" t="s">
         <v>239</v>
@@ -10455,7 +10498,7 @@
         <v>19</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="F5" s="52" t="s">
         <v>239</v>
@@ -10885,38 +10928,38 @@
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="22" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.1796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="33.54296875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="35.81640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="24" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="23" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.1796875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.140625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="24" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="29.1796875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="29.1796875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="28.1796875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="29.1796875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="29.1796875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="36.81640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="36.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33">
@@ -10930,94 +10973,94 @@
         <v>2</v>
       </c>
       <c r="D1" s="52" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="Q1" s="52" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AB1" s="3" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AE1" s="2" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AF1" s="2" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AG1" s="2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="2" spans="1:33">
@@ -11693,23 +11736,23 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="19.1796875" style="39" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.81640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.1796875" style="39" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.81640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.81640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" style="39" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="39" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="39" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23" style="39" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.1796875" style="39" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.1796875" style="39" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.1796875" style="39" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" style="39" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="23" style="39" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.1796875" style="39" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.1796875" style="39" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="118.453125" style="39" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="17.81640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.81640625" style="39"/>
+    <col min="11" max="11" width="11.140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="118.42578125" style="39" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="17.85546875" style="39" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.85546875" style="39"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -11729,37 +11772,37 @@
         <v>346</v>
       </c>
       <c r="F1" s="41" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H1" s="41" t="s">
         <v>66</v>
       </c>
       <c r="I1" s="41" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="J1" s="41" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="K1" s="41" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="L1" s="41" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="M1" s="41" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="N1" s="41" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="O1" s="41" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="46" customFormat="1" ht="58">
+    <row r="2" spans="1:15" s="46" customFormat="1" ht="57.95">
       <c r="A2" s="57" t="s">
         <v>27</v>
       </c>
@@ -11797,7 +11840,7 @@
         <v>28</v>
       </c>
       <c r="M2" s="64" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="N2" s="57" t="s">
         <v>149</v>
@@ -11806,7 +11849,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="46" customFormat="1" ht="29">
+    <row r="3" spans="1:15" s="46" customFormat="1" ht="29.1">
       <c r="A3" s="57" t="s">
         <v>27</v>
       </c>
@@ -11844,7 +11887,7 @@
         <v>28</v>
       </c>
       <c r="M3" s="64" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="N3" s="57" t="s">
         <v>30</v>
@@ -12015,7 +12058,7 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <sheetData>
     <row r="1" spans="1:38">
       <c r="A1" s="5" t="s">
@@ -12028,103 +12071,103 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G1" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="AA1" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="AB1" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="AC1" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="AD1" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="AE1" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="AF1" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="AG1" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="AH1" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="AI1" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="AJ1" s="5" t="s">
         <v>496</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>497</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>498</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>499</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>499</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>500</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>501</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>502</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>498</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>503</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>504</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>505</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>506</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>507</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>508</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>496</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>509</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>504</v>
-      </c>
-      <c r="Y1" s="5" t="s">
-        <v>510</v>
-      </c>
-      <c r="Z1" s="5" t="s">
-        <v>498</v>
-      </c>
-      <c r="AA1" s="5" t="s">
-        <v>511</v>
-      </c>
-      <c r="AB1" s="5" t="s">
-        <v>500</v>
-      </c>
-      <c r="AC1" s="5" t="s">
-        <v>501</v>
-      </c>
-      <c r="AD1" s="5" t="s">
-        <v>502</v>
-      </c>
-      <c r="AE1" s="5" t="s">
-        <v>512</v>
-      </c>
-      <c r="AF1" s="5" t="s">
-        <v>513</v>
-      </c>
-      <c r="AG1" s="5" t="s">
-        <v>514</v>
-      </c>
-      <c r="AH1" s="5" t="s">
-        <v>515</v>
-      </c>
-      <c r="AI1" s="5" t="s">
-        <v>494</v>
-      </c>
-      <c r="AJ1" s="5" t="s">
-        <v>495</v>
       </c>
       <c r="AK1" s="5" t="s">
         <v>13</v>
@@ -12178,13 +12221,13 @@
         <v>28</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="S2" s="49"/>
       <c r="T2" s="49"/>
@@ -12195,10 +12238,10 @@
         <v>28</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="Y2" s="5" t="s">
         <v>217</v>
@@ -12207,7 +12250,7 @@
         <v>28</v>
       </c>
       <c r="AA2" s="5" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AB2" s="5">
         <v>4</v>
@@ -12254,7 +12297,7 @@
       <selection sqref="A1:L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="5" t="s">
@@ -12267,28 +12310,28 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="L1" s="49"/>
     </row>
@@ -12339,7 +12382,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="5" t="s">
@@ -12352,28 +12395,28 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>117</v>
@@ -12400,10 +12443,10 @@
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>28</v>
@@ -12436,7 +12479,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="27" max="27" width="9.1796875" style="52"/>
+    <col min="27" max="27" width="9.140625" style="52"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
@@ -12450,82 +12493,82 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>66</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="R1" s="5" t="s">
         <v>153</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="T1" s="5" t="s">
         <v>152</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="V1" s="5" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="W1" s="5" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="X1" s="5" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="Y1" s="5" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="Z1" s="5" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="AA1" s="5" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="AB1" s="5" t="s">
         <v>246</v>
       </c>
       <c r="AC1" s="52" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="2" spans="1:29">
@@ -12566,16 +12609,16 @@
         <v>149</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="Q2" s="5" t="s">
         <v>180</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="S2" s="5" t="s">
         <v>28</v>
@@ -12590,17 +12633,17 @@
         <v>180</v>
       </c>
       <c r="W2" s="52" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="X2" s="52" t="s">
         <v>149</v>
       </c>
       <c r="Y2" s="52"/>
       <c r="Z2" s="52" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="AA2" s="52" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="AB2" s="52"/>
       <c r="AC2" s="52"/>
@@ -12658,7 +12701,7 @@
         <v>180</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="S3" s="5" t="s">
         <v>28</v>
@@ -12707,44 +12750,44 @@
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.81640625" style="52" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" style="52" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="52" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="29.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="68.453125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="41.54296875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="23.81640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21.453125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="22.453125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="24.453125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="22.453125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="23.453125" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="25.453125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="20.1796875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="22.453125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="68.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="41.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="12" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="18" bestFit="1" customWidth="1"/>
   </cols>
@@ -12993,7 +13036,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:40" s="46" customFormat="1" ht="15.65" customHeight="1">
+    <row r="3" spans="1:40" s="46" customFormat="1" ht="15.6" customHeight="1">
       <c r="A3" s="66" t="s">
         <v>27</v>
       </c>
@@ -13115,7 +13158,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:40" s="31" customFormat="1" ht="15.65" customHeight="1">
+    <row r="4" spans="1:40" s="31" customFormat="1" ht="15.6" customHeight="1">
       <c r="A4" s="31" t="s">
         <v>36</v>
       </c>
@@ -13869,62 +13912,62 @@
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="26.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="22" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.1796875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.1796875" style="14" customWidth="1"/>
-    <col min="18" max="18" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.1796875" style="15" customWidth="1"/>
-    <col min="21" max="21" width="38.81640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="27.1796875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="25.453125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.140625" style="14" customWidth="1"/>
+    <col min="18" max="18" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.140625" style="15" customWidth="1"/>
+    <col min="21" max="21" width="38.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="22" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="24" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="22" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="24" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="25" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="26.1796875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="22" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="30.453125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="30.42578125" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="23" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="38" max="39" width="23" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="41" max="42" width="23" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="44" max="45" width="28.1796875" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="31.453125" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="19.453125" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="34.81640625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="44" max="45" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="34.85546875" bestFit="1" customWidth="1"/>
     <col min="51" max="51" width="22" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="23" bestFit="1" customWidth="1"/>
     <col min="53" max="53" width="22" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="33.54296875" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="33.5703125" bestFit="1" customWidth="1"/>
     <col min="55" max="55" width="22" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="32.453125" bestFit="1" customWidth="1"/>
-    <col min="57" max="58" width="37.81640625" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="57" max="58" width="37.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:58">
@@ -14821,13 +14864,13 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="3" max="3" width="13.54296875" customWidth="1"/>
-    <col min="4" max="4" width="15.81640625" customWidth="1"/>
-    <col min="5" max="5" width="24.1796875" customWidth="1"/>
-    <col min="6" max="6" width="15.81640625" customWidth="1"/>
-    <col min="7" max="7" width="28.1796875" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" customWidth="1"/>
+    <col min="7" max="7" width="28.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="16" customFormat="1">
@@ -14941,18 +14984,18 @@
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -15032,13 +15075,13 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="1.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="1.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="52" customFormat="1">
@@ -15090,15 +15133,15 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="44.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="44.81640625" style="16" customWidth="1"/>
-    <col min="6" max="6" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="42.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.85546875" style="16" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="42.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -15175,7 +15218,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="22" customHeight="1">
+    <row r="3" spans="1:12" ht="21.95" customHeight="1">
       <c r="A3" s="52" t="s">
         <v>35</v>
       </c>
@@ -15218,7 +15261,7 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="4" t="s">
@@ -15692,25 +15735,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -15927,41 +15951,35 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{527B0702-8AF4-4307-A34D-2633AC2397ED}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBA5B558-DFC3-420B-A09B-072555AB09C7}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{360C765C-5108-4856-B14E-979324B41D25}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{360C765C-5108-4856-B14E-979324B41D25}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBA5B558-DFC3-420B-A09B-072555AB09C7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
-    <ds:schemaRef ds:uri="eb87e36b-823b-4123-a7f7-e23d77fa1380"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{527B0702-8AF4-4307-A34D-2633AC2397ED}"/>
 </file>
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>

--- a/Folio.xlsx
+++ b/Folio.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{5E0152CB-E823-4C12-8A2F-2F073A5D5023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D6A7CDA2-9DF4-4DBC-AD2F-FCFBF8376318}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D48E98E-7406-4AD9-82ED-6D8936879FC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="14" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="13" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Allegations" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2937" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2963" uniqueCount="563">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -573,9 +573,6 @@
   </si>
   <si>
     <t>Family Maintenance No Placement</t>
-  </si>
-  <si>
-    <t>Caseload</t>
   </si>
   <si>
     <t>RELATED_FOLIOS_TAB</t>
@@ -1775,6 +1772,12 @@
   </si>
   <si>
     <t>SOC 157B - Supervised Independent Living Placement (SILP) Inspection: Checklist of Facility Health and Safety Standards</t>
+  </si>
+  <si>
+    <t>testT4275_1</t>
+  </si>
+  <si>
+    <t>testT4149</t>
   </si>
 </sst>
 </file>
@@ -2400,30 +2403,30 @@
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.81640625" customWidth="1"/>
+    <col min="6" max="6" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.453125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17" customWidth="1"/>
-    <col min="10" max="10" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.81640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="22" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" customWidth="1"/>
-    <col min="15" max="15" width="17.85546875" customWidth="1"/>
+    <col min="12" max="12" width="31.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="28.1796875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.453125" customWidth="1"/>
+    <col min="15" max="15" width="17.81640625" customWidth="1"/>
     <col min="16" max="16" width="25" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="28.1796875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="22" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="26.1796875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="31.453125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25">
@@ -3240,19 +3243,19 @@
       <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.1796875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="29" style="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="16" customFormat="1">
@@ -3266,31 +3269,31 @@
         <v>2</v>
       </c>
       <c r="D1" s="40" t="s">
+        <v>192</v>
+      </c>
+      <c r="E1" s="40" t="s">
         <v>193</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="F1" s="40" t="s">
         <v>194</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="G1" s="40" t="s">
         <v>195</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="H1" s="5" t="s">
         <v>196</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>197</v>
       </c>
       <c r="I1" s="40" t="s">
         <v>13</v>
       </c>
       <c r="J1" s="40" t="s">
+        <v>197</v>
+      </c>
+      <c r="K1" s="40" t="s">
         <v>198</v>
       </c>
-      <c r="K1" s="40" t="s">
+      <c r="L1" s="5" t="s">
         <v>199</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>200</v>
       </c>
       <c r="M1" s="52"/>
     </row>
@@ -3305,10 +3308,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="52" t="s">
@@ -3335,10 +3338,10 @@
         <v>19</v>
       </c>
       <c r="E3" s="50" t="s">
+        <v>200</v>
+      </c>
+      <c r="F3" s="50" t="s">
         <v>201</v>
-      </c>
-      <c r="F3" s="50" t="s">
-        <v>202</v>
       </c>
       <c r="G3" s="50" t="s">
         <v>19</v>
@@ -3353,7 +3356,7 @@
         <v>149</v>
       </c>
       <c r="K3" s="50" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L3" s="50" t="s">
         <v>59</v>
@@ -3371,7 +3374,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="50" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E4" s="50" t="s">
         <v>30</v>
@@ -3392,7 +3395,7 @@
         <v>30</v>
       </c>
       <c r="K4" s="50" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="L4" s="50" t="s">
         <v>30</v>
@@ -3410,7 +3413,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="50" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E5" s="50" t="s">
         <v>30</v>
@@ -3431,7 +3434,7 @@
         <v>30</v>
       </c>
       <c r="K5" s="50" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L5" s="50" t="s">
         <v>30</v>
@@ -3449,7 +3452,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="52" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E6" s="40" t="s">
         <v>28</v>
@@ -3491,10 +3494,10 @@
         <v>19</v>
       </c>
       <c r="E7" s="47" t="s">
+        <v>200</v>
+      </c>
+      <c r="F7" s="47" t="s">
         <v>201</v>
-      </c>
-      <c r="F7" s="47" t="s">
-        <v>202</v>
       </c>
       <c r="G7" s="31" t="s">
         <v>19</v>
@@ -3509,7 +3512,7 @@
         <v>149</v>
       </c>
       <c r="K7" s="31" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -3526,19 +3529,19 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -3552,37 +3555,37 @@
         <v>2</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E1" s="40" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="40" t="s">
+        <v>206</v>
+      </c>
+      <c r="G1" s="40" t="s">
         <v>207</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="H1" s="40" t="s">
         <v>208</v>
       </c>
-      <c r="H1" s="40" t="s">
+      <c r="I1" s="40" t="s">
         <v>209</v>
-      </c>
-      <c r="I1" s="40" t="s">
-        <v>210</v>
       </c>
       <c r="J1" s="40" t="s">
         <v>13</v>
       </c>
       <c r="K1" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="L1" s="40" t="s">
         <v>211</v>
       </c>
-      <c r="L1" s="40" t="s">
+      <c r="M1" s="40" t="s">
         <v>212</v>
       </c>
-      <c r="M1" s="40" t="s">
+      <c r="N1" s="52" t="s">
         <v>213</v>
-      </c>
-      <c r="N1" s="52" t="s">
-        <v>214</v>
       </c>
       <c r="O1" s="52"/>
       <c r="P1" s="52"/>
@@ -3598,13 +3601,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="40" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E2" s="40" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F2" s="40" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G2" s="40" t="s">
         <v>19</v>
@@ -3613,16 +3616,16 @@
         <v>59</v>
       </c>
       <c r="I2" s="40" t="s">
+        <v>215</v>
+      </c>
+      <c r="J2" s="40" t="s">
+        <v>179</v>
+      </c>
+      <c r="K2" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="40" t="s">
         <v>216</v>
-      </c>
-      <c r="J2" s="40" t="s">
-        <v>180</v>
-      </c>
-      <c r="K2" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" s="40" t="s">
-        <v>217</v>
       </c>
       <c r="M2" s="52"/>
       <c r="N2" s="52"/>
@@ -3640,13 +3643,13 @@
         <v>2</v>
       </c>
       <c r="D3" s="40" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E3" s="40" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F3" s="43" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G3" s="40" t="s">
         <v>19</v>
@@ -3655,16 +3658,16 @@
         <v>59</v>
       </c>
       <c r="I3" s="40" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J3" s="40" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K3" s="40" t="s">
         <v>19</v>
       </c>
       <c r="L3" s="40" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M3" s="52"/>
       <c r="N3" s="52"/>
@@ -3673,7 +3676,7 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="52" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B4" s="52">
         <v>1</v>
@@ -3682,13 +3685,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="52" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E4" s="52" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F4" s="40" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G4" s="52" t="s">
         <v>19</v>
@@ -3697,16 +3700,16 @@
         <v>59</v>
       </c>
       <c r="I4" s="40" t="s">
+        <v>215</v>
+      </c>
+      <c r="J4" s="40" t="s">
+        <v>179</v>
+      </c>
+      <c r="K4" s="40" t="s">
+        <v>219</v>
+      </c>
+      <c r="L4" s="40" t="s">
         <v>216</v>
-      </c>
-      <c r="J4" s="40" t="s">
-        <v>180</v>
-      </c>
-      <c r="K4" s="40" t="s">
-        <v>220</v>
-      </c>
-      <c r="L4" s="40" t="s">
-        <v>217</v>
       </c>
       <c r="M4" s="40" t="s">
         <v>19</v>
@@ -3729,10 +3732,10 @@
         <v>19</v>
       </c>
       <c r="E5" s="52" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F5" s="52" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G5" s="52" t="s">
         <v>19</v>
@@ -3741,10 +3744,10 @@
         <v>59</v>
       </c>
       <c r="I5" s="40" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J5" s="40" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K5" s="52" t="s">
         <v>28</v>
@@ -3775,16 +3778,16 @@
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="4" max="4" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.81640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.1796875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="18" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="31.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -3798,43 +3801,43 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="L1" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="O1" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="N1" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>231</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -3848,37 +3851,37 @@
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F2" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="J2" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>237</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>238</v>
       </c>
       <c r="M2" s="5" t="s">
         <v>59</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O2" s="52"/>
       <c r="P2" s="52"/>
@@ -3906,19 +3909,19 @@
         <v>28</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>28</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>28</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M3" s="5" t="s">
         <v>59</v>
@@ -3930,7 +3933,7 @@
         <v>101</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -4356,26 +4359,26 @@
       <selection activeCell="Y6" sqref="Y6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.1796875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="37.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30.42578125" style="39" customWidth="1"/>
+    <col min="9" max="9" width="27.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="37.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.453125" style="39" customWidth="1"/>
     <col min="13" max="13" width="25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="8.85546875" style="28"/>
-    <col min="21" max="21" width="13.140625" style="28" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="8.5703125" style="39"/>
+    <col min="14" max="14" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="8.81640625" style="28"/>
+    <col min="21" max="21" width="13.1796875" style="28" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="8.54296875" style="39"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" s="16" customFormat="1">
@@ -4389,43 +4392,43 @@
         <v>2</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E1" s="40" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="41" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G1" s="41" t="s">
         <v>66</v>
       </c>
       <c r="H1" s="41" t="s">
+        <v>241</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="52" t="s">
         <v>243</v>
       </c>
-      <c r="J1" s="52" t="s">
+      <c r="K1" s="41" t="s">
         <v>244</v>
       </c>
-      <c r="K1" s="41" t="s">
+      <c r="L1" s="41" t="s">
         <v>245</v>
       </c>
-      <c r="L1" s="41" t="s">
+      <c r="M1" s="41" t="s">
         <v>246</v>
       </c>
-      <c r="M1" s="41" t="s">
+      <c r="N1" s="41" t="s">
         <v>247</v>
       </c>
-      <c r="N1" s="41" t="s">
+      <c r="O1" s="41" t="s">
         <v>248</v>
       </c>
-      <c r="O1" s="41" t="s">
+      <c r="P1" s="41" t="s">
         <v>249</v>
-      </c>
-      <c r="P1" s="41" t="s">
-        <v>250</v>
       </c>
       <c r="Q1" s="41" t="s">
         <v>13</v>
@@ -4434,43 +4437,43 @@
         <v>15</v>
       </c>
       <c r="S1" s="41" t="s">
+        <v>250</v>
+      </c>
+      <c r="T1" s="41" t="s">
         <v>251</v>
       </c>
-      <c r="T1" s="41" t="s">
+      <c r="U1" s="41" t="s">
         <v>252</v>
       </c>
-      <c r="U1" s="41" t="s">
+      <c r="V1" s="41" t="s">
         <v>253</v>
       </c>
-      <c r="V1" s="41" t="s">
+      <c r="W1" s="41" t="s">
         <v>254</v>
       </c>
-      <c r="W1" s="41" t="s">
+      <c r="X1" s="41" t="s">
         <v>255</v>
-      </c>
-      <c r="X1" s="41" t="s">
-        <v>256</v>
       </c>
       <c r="Y1" s="41" t="s">
         <v>152</v>
       </c>
       <c r="Z1" s="41" t="s">
+        <v>256</v>
+      </c>
+      <c r="AA1" s="41" t="s">
         <v>257</v>
       </c>
-      <c r="AA1" s="41" t="s">
+      <c r="AB1" s="41" t="s">
         <v>258</v>
       </c>
-      <c r="AB1" s="41" t="s">
+      <c r="AC1" s="41" t="s">
         <v>259</v>
       </c>
-      <c r="AC1" s="41" t="s">
+      <c r="AD1" s="41" t="s">
         <v>260</v>
       </c>
-      <c r="AD1" s="41" t="s">
+      <c r="AE1" s="41" t="s">
         <v>261</v>
-      </c>
-      <c r="AE1" s="41" t="s">
-        <v>262</v>
       </c>
       <c r="AF1" s="52"/>
       <c r="AG1" s="52"/>
@@ -4487,22 +4490,22 @@
         <v>1</v>
       </c>
       <c r="D2" s="52" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E2" s="52" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F2" s="52" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G2" s="52" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H2" s="52" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I2" s="52" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J2" s="52" t="s">
         <v>149</v>
@@ -4534,7 +4537,7 @@
     </row>
     <row r="3" spans="1:34">
       <c r="A3" s="52" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B3" s="52">
         <v>1</v>
@@ -4543,27 +4546,27 @@
         <v>1</v>
       </c>
       <c r="D3" s="52" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E3" s="52" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F3" s="52"/>
       <c r="G3" s="52" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H3" s="52"/>
       <c r="I3" s="52"/>
       <c r="J3" s="52"/>
       <c r="K3" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="52" t="s">
+        <v>264</v>
+      </c>
+      <c r="N3" s="52" t="s">
         <v>265</v>
-      </c>
-      <c r="N3" s="52" t="s">
-        <v>266</v>
       </c>
       <c r="O3" s="52"/>
       <c r="P3" s="52"/>
@@ -4600,7 +4603,7 @@
         <v>19</v>
       </c>
       <c r="E4" s="46" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F4" s="46" t="s">
         <v>19</v>
@@ -4612,16 +4615,16 @@
         <v>34</v>
       </c>
       <c r="I4" s="46" t="s">
+        <v>266</v>
+      </c>
+      <c r="J4" s="46" t="s">
+        <v>266</v>
+      </c>
+      <c r="K4" s="46" t="s">
         <v>267</v>
       </c>
-      <c r="J4" s="46" t="s">
-        <v>267</v>
-      </c>
-      <c r="K4" s="46" t="s">
+      <c r="L4" s="29" t="s">
         <v>268</v>
-      </c>
-      <c r="L4" s="29" t="s">
-        <v>269</v>
       </c>
       <c r="M4" s="44"/>
       <c r="N4" s="44"/>
@@ -4637,41 +4640,41 @@
         <v>149</v>
       </c>
       <c r="T4" s="46" t="s">
+        <v>269</v>
+      </c>
+      <c r="U4" s="46" t="s">
         <v>270</v>
       </c>
-      <c r="U4" s="46" t="s">
+      <c r="V4" s="46" t="s">
         <v>271</v>
       </c>
-      <c r="V4" s="46" t="s">
+      <c r="W4" s="46" t="s">
         <v>272</v>
-      </c>
-      <c r="W4" s="46" t="s">
-        <v>273</v>
       </c>
       <c r="X4" s="46"/>
       <c r="Y4" s="46" t="s">
         <v>149</v>
       </c>
       <c r="Z4" s="46" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AA4" s="46" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AB4" s="46" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AC4" s="46" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AD4" s="46" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AE4" s="46" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AF4" s="46" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AG4" s="46" t="s">
         <v>149</v>
@@ -4692,7 +4695,7 @@
         <v>19</v>
       </c>
       <c r="E5" s="46" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F5" s="46" t="s">
         <v>151</v>
@@ -4719,13 +4722,13 @@
         <v>19</v>
       </c>
       <c r="N5" s="45" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O5" s="46" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="P5" s="46" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="Q5" s="46" t="s">
         <v>19</v>
@@ -4734,12 +4737,12 @@
       <c r="S5" s="46"/>
       <c r="T5" s="46"/>
       <c r="U5" s="46" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="V5" s="46"/>
       <c r="W5" s="46"/>
       <c r="X5" s="46" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="Y5" s="46"/>
       <c r="Z5" s="46"/>
@@ -4814,7 +4817,7 @@
         <v>28</v>
       </c>
       <c r="U6" s="52" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="V6" s="52" t="s">
         <v>28</v>
@@ -4856,50 +4859,50 @@
   <dimension ref="A1:AN17"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD17"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="39" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="39" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16" style="39" customWidth="1"/>
+    <col min="2" max="2" width="16.54296875" style="39" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="39" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" style="39" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" style="39" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.140625" style="39" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.85546875" style="39" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.85546875" style="39" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.42578125" style="39" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="39" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.42578125" style="39" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.42578125" style="39" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.140625" style="39" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.85546875" style="39" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.140625" style="39" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.85546875" style="39" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.85546875" style="39" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.1796875" style="39" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.1796875" style="39" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.1796875" style="39" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.81640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.81640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.453125" style="39" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.81640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.453125" style="39" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.453125" style="39" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.1796875" style="39" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.81640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.1796875" style="39" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.81640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.81640625" style="39" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="5" style="39" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="21.5703125" style="39" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.85546875" style="39" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="27.85546875" style="39" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="22.85546875" style="39" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21.54296875" style="39" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.81640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="27.81640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22.81640625" style="39" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="20" style="39" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="17.5703125" style="39" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="18.85546875" style="39" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.5703125" style="39" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="39.85546875" style="39" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="31.85546875" style="39" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="5.85546875" style="39" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="5.140625" style="39" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="6.85546875" style="39" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.140625" style="39" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="16.85546875" style="39" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="19.140625" style="39" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="21.42578125" style="39" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="14.85546875" style="39" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="14.85546875" style="52" customWidth="1"/>
-    <col min="40" max="40" width="110.42578125" style="39" bestFit="1" customWidth="1"/>
-    <col min="41" max="16384" width="8.85546875" style="39"/>
+    <col min="25" max="25" width="17.54296875" style="39" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="18.81640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.54296875" style="39" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="39.81640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="31.81640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="5.81640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="5.1796875" style="39" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="6.81640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.1796875" style="39" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="16.81640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="19.1796875" style="39" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="21.453125" style="39" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="14.81640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="14.81640625" style="52" customWidth="1"/>
+    <col min="40" max="40" width="110.453125" style="39" bestFit="1" customWidth="1"/>
+    <col min="41" max="16384" width="8.81640625" style="39"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40">
@@ -4916,109 +4919,109 @@
         <v>152</v>
       </c>
       <c r="E1" s="40" t="s">
+        <v>276</v>
+      </c>
+      <c r="F1" s="40" t="s">
         <v>277</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="G1" s="40" t="s">
         <v>278</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="H1" s="40" t="s">
         <v>279</v>
       </c>
-      <c r="H1" s="40" t="s">
+      <c r="I1" s="40" t="s">
         <v>280</v>
       </c>
-      <c r="I1" s="40" t="s">
+      <c r="J1" s="40" t="s">
         <v>281</v>
       </c>
-      <c r="J1" s="40" t="s">
+      <c r="K1" s="40" t="s">
         <v>282</v>
       </c>
-      <c r="K1" s="40" t="s">
+      <c r="L1" s="40" t="s">
         <v>283</v>
       </c>
-      <c r="L1" s="40" t="s">
+      <c r="M1" s="40" t="s">
         <v>284</v>
       </c>
-      <c r="M1" s="40" t="s">
+      <c r="N1" s="40" t="s">
         <v>285</v>
-      </c>
-      <c r="N1" s="40" t="s">
-        <v>286</v>
       </c>
       <c r="O1" s="40" t="s">
         <v>153</v>
       </c>
       <c r="P1" s="40" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q1" s="43" t="s">
+        <v>211</v>
+      </c>
+      <c r="R1" s="43" t="s">
         <v>287</v>
       </c>
-      <c r="Q1" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="R1" s="43" t="s">
+      <c r="S1" s="40" t="s">
         <v>288</v>
       </c>
-      <c r="S1" s="40" t="s">
+      <c r="T1" s="40" t="s">
         <v>289</v>
       </c>
-      <c r="T1" s="40" t="s">
+      <c r="U1" s="40" t="s">
         <v>290</v>
       </c>
-      <c r="U1" s="40" t="s">
+      <c r="V1" s="40" t="s">
         <v>291</v>
       </c>
-      <c r="V1" s="40" t="s">
+      <c r="W1" s="40" t="s">
         <v>292</v>
       </c>
-      <c r="W1" s="40" t="s">
+      <c r="X1" s="40" t="s">
         <v>293</v>
       </c>
-      <c r="X1" s="40" t="s">
+      <c r="Y1" s="40" t="s">
         <v>294</v>
       </c>
-      <c r="Y1" s="40" t="s">
+      <c r="Z1" s="40" t="s">
         <v>295</v>
       </c>
-      <c r="Z1" s="40" t="s">
+      <c r="AA1" s="40" t="s">
         <v>296</v>
       </c>
-      <c r="AA1" s="40" t="s">
+      <c r="AB1" s="40" t="s">
         <v>297</v>
       </c>
-      <c r="AB1" s="40" t="s">
+      <c r="AC1" s="40" t="s">
         <v>298</v>
       </c>
-      <c r="AC1" s="40" t="s">
+      <c r="AD1" s="40" t="s">
         <v>299</v>
       </c>
-      <c r="AD1" s="40" t="s">
+      <c r="AE1" s="40" t="s">
         <v>300</v>
       </c>
-      <c r="AE1" s="40" t="s">
+      <c r="AF1" s="40" t="s">
         <v>301</v>
       </c>
-      <c r="AF1" s="40" t="s">
+      <c r="AG1" s="40" t="s">
         <v>302</v>
       </c>
-      <c r="AG1" s="40" t="s">
+      <c r="AH1" s="40" t="s">
         <v>303</v>
       </c>
-      <c r="AH1" s="40" t="s">
+      <c r="AI1" s="47" t="s">
         <v>304</v>
       </c>
-      <c r="AI1" s="47" t="s">
+      <c r="AJ1" s="40" t="s">
         <v>305</v>
       </c>
-      <c r="AJ1" s="40" t="s">
+      <c r="AK1" s="40" t="s">
         <v>306</v>
       </c>
-      <c r="AK1" s="40" t="s">
+      <c r="AL1" s="40" t="s">
         <v>307</v>
       </c>
-      <c r="AL1" s="40" t="s">
+      <c r="AM1" s="40" t="s">
         <v>308</v>
-      </c>
-      <c r="AM1" s="40" t="s">
-        <v>309</v>
       </c>
       <c r="AN1" s="40" t="s">
         <v>96</v>
@@ -5065,19 +5068,19 @@
         <v>19</v>
       </c>
       <c r="N2" s="50" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="O2" s="50" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="P2" s="50" t="s">
         <v>148</v>
       </c>
       <c r="Q2" s="50" t="s">
+        <v>310</v>
+      </c>
+      <c r="R2" s="50" t="s">
         <v>311</v>
-      </c>
-      <c r="R2" s="50" t="s">
-        <v>312</v>
       </c>
       <c r="S2" s="50" t="s">
         <v>19</v>
@@ -5110,10 +5113,10 @@
         <v>30</v>
       </c>
       <c r="AC2" s="50" t="s">
+        <v>312</v>
+      </c>
+      <c r="AD2" s="50" t="s">
         <v>313</v>
-      </c>
-      <c r="AD2" s="50" t="s">
-        <v>314</v>
       </c>
       <c r="AE2" s="50" t="s">
         <v>30</v>
@@ -5143,7 +5146,7 @@
         <v>30</v>
       </c>
       <c r="AN2" s="50" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="3" spans="1:40" s="46" customFormat="1">
@@ -5187,19 +5190,19 @@
         <v>19</v>
       </c>
       <c r="N3" s="50" t="s">
+        <v>315</v>
+      </c>
+      <c r="O3" s="50" t="s">
         <v>316</v>
-      </c>
-      <c r="O3" s="50" t="s">
-        <v>317</v>
       </c>
       <c r="P3" s="50" t="s">
         <v>148</v>
       </c>
       <c r="Q3" s="50" t="s">
+        <v>310</v>
+      </c>
+      <c r="R3" s="50" t="s">
         <v>311</v>
-      </c>
-      <c r="R3" s="50" t="s">
-        <v>312</v>
       </c>
       <c r="S3" s="50" t="s">
         <v>19</v>
@@ -5309,49 +5312,49 @@
         <v>28</v>
       </c>
       <c r="N4" s="50" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="O4" s="50" t="s">
+        <v>317</v>
+      </c>
+      <c r="P4" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q4" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="R4" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="S4" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="T4" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="U4" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="V4" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="W4" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="X4" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y4" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z4" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA4" s="50" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB4" s="50" t="s">
         <v>318</v>
-      </c>
-      <c r="P4" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q4" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="R4" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="S4" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="T4" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="U4" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="V4" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="W4" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="X4" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y4" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z4" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA4" s="50" t="s">
-        <v>149</v>
-      </c>
-      <c r="AB4" s="50" t="s">
-        <v>319</v>
       </c>
       <c r="AC4" s="50" t="s">
         <v>30</v>
@@ -5473,7 +5476,7 @@
         <v>149</v>
       </c>
       <c r="AB5" s="50" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AC5" s="50" t="s">
         <v>30</v>
@@ -5595,7 +5598,7 @@
         <v>149</v>
       </c>
       <c r="AB6" s="50" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AC6" s="50" t="s">
         <v>30</v>
@@ -5717,7 +5720,7 @@
         <v>149</v>
       </c>
       <c r="AB7" s="50" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AC7" s="50" t="s">
         <v>30</v>
@@ -5839,7 +5842,7 @@
         <v>149</v>
       </c>
       <c r="AB8" s="50" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AC8" s="50" t="s">
         <v>30</v>
@@ -5919,20 +5922,20 @@
         <v>19</v>
       </c>
       <c r="N9" s="50" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O9" s="50" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="P9" s="50" t="s">
         <v>148</v>
       </c>
       <c r="Q9" s="50" t="s">
+        <v>310</v>
+      </c>
+      <c r="R9" s="63" t="s">
         <v>311</v>
       </c>
-      <c r="R9" s="63" t="s">
-        <v>312</v>
-      </c>
       <c r="S9" s="50" t="s">
         <v>19</v>
       </c>
@@ -5961,7 +5964,7 @@
         <v>149</v>
       </c>
       <c r="AB9" s="50" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AC9" s="50" t="s">
         <v>30</v>
@@ -5994,7 +5997,7 @@
         <v>149</v>
       </c>
       <c r="AM9" s="50" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AN9" s="50" t="s">
         <v>30</v>
@@ -6002,49 +6005,49 @@
     </row>
     <row r="10" spans="1:40">
       <c r="A10" s="46" t="s">
+        <v>324</v>
+      </c>
+      <c r="B10" s="52">
+        <v>1</v>
+      </c>
+      <c r="C10" s="52">
+        <v>1</v>
+      </c>
+      <c r="D10" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="L10" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="M10" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="N10" s="52" t="s">
         <v>325</v>
       </c>
-      <c r="B10" s="52">
-        <v>1</v>
-      </c>
-      <c r="C10" s="52">
-        <v>1</v>
-      </c>
-      <c r="D10" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="I10" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="J10" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="K10" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="L10" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="M10" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="N10" s="52" t="s">
+      <c r="O10" s="52" t="s">
         <v>326</v>
-      </c>
-      <c r="O10" s="52" t="s">
-        <v>327</v>
       </c>
       <c r="P10" s="52" t="s">
         <v>148</v>
@@ -6053,7 +6056,7 @@
         <v>28</v>
       </c>
       <c r="R10" s="55" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="S10" s="52" t="s">
         <v>19</v>
@@ -6083,7 +6086,7 @@
         <v>151</v>
       </c>
       <c r="AB10" s="55" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AC10" s="52"/>
       <c r="AD10" s="52"/>
@@ -6118,7 +6121,7 @@
     </row>
     <row r="11" spans="1:40">
       <c r="A11" s="46" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B11" s="52">
         <v>1</v>
@@ -6157,10 +6160,10 @@
         <v>19</v>
       </c>
       <c r="N11" s="52" t="s">
+        <v>327</v>
+      </c>
+      <c r="O11" s="52" t="s">
         <v>328</v>
-      </c>
-      <c r="O11" s="52" t="s">
-        <v>329</v>
       </c>
       <c r="P11" s="52" t="s">
         <v>148</v>
@@ -6169,7 +6172,7 @@
         <v>28</v>
       </c>
       <c r="R11" s="55" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="S11" s="52" t="s">
         <v>19</v>
@@ -6215,7 +6218,7 @@
     </row>
     <row r="12" spans="1:40" s="52" customFormat="1">
       <c r="A12" s="46" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B12" s="46">
         <v>1</v>
@@ -6254,10 +6257,10 @@
         <v>19</v>
       </c>
       <c r="N12" s="46" t="s">
+        <v>329</v>
+      </c>
+      <c r="O12" s="46" t="s">
         <v>330</v>
-      </c>
-      <c r="O12" s="46" t="s">
-        <v>331</v>
       </c>
       <c r="P12" s="46" t="s">
         <v>148</v>
@@ -6266,7 +6269,7 @@
         <v>28</v>
       </c>
       <c r="R12" s="46" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="S12" s="46" t="s">
         <v>19</v>
@@ -6337,7 +6340,7 @@
     </row>
     <row r="13" spans="1:40" s="52" customFormat="1">
       <c r="A13" s="46" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B13" s="46">
         <v>1</v>
@@ -6376,10 +6379,10 @@
         <v>19</v>
       </c>
       <c r="N13" s="46" t="s">
+        <v>331</v>
+      </c>
+      <c r="O13" s="46" t="s">
         <v>332</v>
-      </c>
-      <c r="O13" s="46" t="s">
-        <v>333</v>
       </c>
       <c r="P13" s="46" t="s">
         <v>148</v>
@@ -6388,7 +6391,7 @@
         <v>28</v>
       </c>
       <c r="R13" s="46" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="S13" s="46" t="s">
         <v>19</v>
@@ -6459,79 +6462,79 @@
     </row>
     <row r="14" spans="1:40" s="12" customFormat="1">
       <c r="A14" s="12" t="s">
+        <v>334</v>
+      </c>
+      <c r="B14" s="12">
+        <v>1</v>
+      </c>
+      <c r="C14" s="12">
+        <v>1</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L14" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M14" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="N14" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="O14" s="12" t="s">
         <v>335</v>
       </c>
-      <c r="B14" s="12">
-        <v>1</v>
-      </c>
-      <c r="C14" s="12">
-        <v>1</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="I14" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="J14" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="K14" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="L14" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="M14" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="N14" s="12" t="s">
-        <v>328</v>
-      </c>
-      <c r="O14" s="12" t="s">
+      <c r="P14" s="12" t="s">
         <v>336</v>
       </c>
-      <c r="P14" s="12" t="s">
+      <c r="Q14" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="R14" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="S14" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="T14" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="U14" s="13" t="s">
         <v>337</v>
       </c>
-      <c r="Q14" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="R14" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="S14" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="T14" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="U14" s="13" t="s">
+      <c r="V14" s="13" t="s">
+        <v>327</v>
+      </c>
+      <c r="W14" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="X14" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y14" s="13" t="s">
         <v>338</v>
-      </c>
-      <c r="V14" s="13" t="s">
-        <v>328</v>
-      </c>
-      <c r="W14" s="13" t="s">
-        <v>336</v>
-      </c>
-      <c r="X14" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y14" s="13" t="s">
-        <v>339</v>
       </c>
       <c r="Z14" s="13" t="s">
         <v>28</v>
@@ -6545,49 +6548,49 @@
     </row>
     <row r="15" spans="1:40" s="52" customFormat="1" ht="43.5">
       <c r="A15" s="46" t="s">
+        <v>561</v>
+      </c>
+      <c r="B15" s="46">
+        <v>1</v>
+      </c>
+      <c r="C15" s="46">
+        <v>1</v>
+      </c>
+      <c r="D15" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="J15" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="K15" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="L15" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="M15" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="N15" s="26" t="s">
         <v>340</v>
       </c>
-      <c r="B15" s="46">
-        <v>1</v>
-      </c>
-      <c r="C15" s="46">
-        <v>1</v>
-      </c>
-      <c r="D15" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="H15" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="I15" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="J15" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="K15" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="L15" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="M15" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="N15" s="26" t="s">
+      <c r="O15" s="69" t="s">
         <v>341</v>
-      </c>
-      <c r="O15" s="69" t="s">
-        <v>342</v>
       </c>
       <c r="P15" s="46" t="s">
         <v>148</v>
@@ -6596,7 +6599,7 @@
         <v>28</v>
       </c>
       <c r="R15" s="46" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="S15" s="46" t="s">
         <v>19</v>
@@ -6667,7 +6670,7 @@
     </row>
     <row r="16" spans="1:40" s="52" customFormat="1">
       <c r="A16" s="46" t="s">
-        <v>340</v>
+        <v>561</v>
       </c>
       <c r="B16" s="46">
         <v>1</v>
@@ -6706,10 +6709,10 @@
         <v>19</v>
       </c>
       <c r="N16" s="26" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="O16" s="69" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="P16" s="46" t="s">
         <v>148</v>
@@ -6718,7 +6721,7 @@
         <v>28</v>
       </c>
       <c r="R16" s="46" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="S16" s="46" t="s">
         <v>19</v>
@@ -6787,9 +6790,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:40" s="52" customFormat="1" ht="29.1">
+    <row r="17" spans="1:40" s="52" customFormat="1" ht="29">
       <c r="A17" s="46" t="s">
-        <v>340</v>
+        <v>561</v>
       </c>
       <c r="B17" s="46">
         <v>1</v>
@@ -6828,10 +6831,10 @@
         <v>19</v>
       </c>
       <c r="N17" s="26" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="O17" s="69" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="P17" s="46" t="s">
         <v>148</v>
@@ -6840,7 +6843,7 @@
         <v>28</v>
       </c>
       <c r="R17" s="46" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="S17" s="46" t="s">
         <v>19</v>
@@ -6920,10 +6923,13 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD5"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="17.1796875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" s="52" customFormat="1">
       <c r="A1" s="40" t="s">
@@ -6936,7 +6942,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="52" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E1" s="25" t="s">
         <v>153</v>
@@ -6945,12 +6951,12 @@
         <v>152</v>
       </c>
       <c r="G1" s="52" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="46" customFormat="1" ht="12" customHeight="1">
       <c r="A2" s="46" t="s">
-        <v>340</v>
+        <v>561</v>
       </c>
       <c r="B2" s="46">
         <v>1</v>
@@ -6962,7 +6968,7 @@
         <v>19</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F2" s="46" t="s">
         <v>19</v>
@@ -6971,9 +6977,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="46" customFormat="1" ht="15.95">
+    <row r="3" spans="1:7" s="46" customFormat="1" ht="16">
       <c r="A3" s="46" t="s">
-        <v>340</v>
+        <v>561</v>
       </c>
       <c r="B3" s="46">
         <v>1</v>
@@ -6985,7 +6991,7 @@
         <v>19</v>
       </c>
       <c r="E3" s="70" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F3" s="46" t="s">
         <v>19</v>
@@ -6994,9 +7000,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="46" customFormat="1" ht="15.95">
+    <row r="4" spans="1:7" s="46" customFormat="1" ht="16">
       <c r="A4" s="46" t="s">
-        <v>340</v>
+        <v>561</v>
       </c>
       <c r="B4" s="46">
         <v>1</v>
@@ -7008,7 +7014,7 @@
         <v>19</v>
       </c>
       <c r="E4" s="70" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F4" s="46" t="s">
         <v>19</v>
@@ -7017,9 +7023,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="46" customFormat="1" ht="15.95">
+    <row r="5" spans="1:7" s="46" customFormat="1" ht="16">
       <c r="A5" s="46" t="s">
-        <v>340</v>
+        <v>561</v>
       </c>
       <c r="B5" s="46">
         <v>1</v>
@@ -7031,7 +7037,7 @@
         <v>19</v>
       </c>
       <c r="E5" s="70" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F5" s="46" t="s">
         <v>19</v>
@@ -7053,21 +7059,21 @@
       <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="4.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="16" customFormat="1">
@@ -7081,37 +7087,37 @@
         <v>2</v>
       </c>
       <c r="D1" s="52" t="s">
+        <v>350</v>
+      </c>
+      <c r="E1" s="52" t="s">
         <v>351</v>
       </c>
-      <c r="E1" s="52" t="s">
+      <c r="F1" s="52" t="s">
         <v>352</v>
       </c>
-      <c r="F1" s="52" t="s">
+      <c r="G1" s="52" t="s">
         <v>353</v>
       </c>
-      <c r="G1" s="52" t="s">
+      <c r="H1" s="52" t="s">
         <v>354</v>
       </c>
-      <c r="H1" s="52" t="s">
+      <c r="I1" s="52" t="s">
         <v>355</v>
       </c>
-      <c r="I1" s="52" t="s">
+      <c r="J1" s="52" t="s">
         <v>356</v>
       </c>
-      <c r="J1" s="52" t="s">
+      <c r="K1" s="52" t="s">
         <v>357</v>
       </c>
-      <c r="K1" s="52" t="s">
+      <c r="L1" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="65" t="s">
+        <v>212</v>
+      </c>
+      <c r="N1" s="65" t="s">
         <v>359</v>
-      </c>
-      <c r="M1" s="65" t="s">
-        <v>213</v>
-      </c>
-      <c r="N1" s="65" t="s">
-        <v>360</v>
       </c>
       <c r="O1" s="52"/>
       <c r="P1" s="52"/>
@@ -7148,7 +7154,7 @@
         <v>151</v>
       </c>
       <c r="K2" s="26" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="M2" s="26" t="s">
         <v>28</v>
@@ -7203,7 +7209,7 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="52" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B4" s="52">
         <v>1</v>
@@ -7242,7 +7248,7 @@
         <v>19</v>
       </c>
       <c r="N4" s="52" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="O4" s="52"/>
       <c r="P4" s="52"/>
@@ -7276,10 +7282,10 @@
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
   </cols>
@@ -7295,13 +7301,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="29" t="s">
+        <v>362</v>
+      </c>
+      <c r="E1" s="29" t="s">
         <v>363</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="F1" s="52" t="s">
         <v>364</v>
-      </c>
-      <c r="F1" s="52" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -7312,7 +7318,7 @@
         <v>151</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D2" s="29" t="s">
         <v>19</v>
@@ -7326,7 +7332,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="29" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B3" s="29">
         <v>1</v>
@@ -7346,7 +7352,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="29" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B4" s="29">
         <v>2</v>
@@ -7366,7 +7372,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="29" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B5" s="52">
         <v>1</v>
@@ -7386,7 +7392,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="29" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B6" s="29">
         <v>1</v>
@@ -7406,7 +7412,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="29" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B7" s="29">
         <v>2</v>
@@ -7426,7 +7432,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="29" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B8" s="29">
         <v>1</v>
@@ -7446,7 +7452,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="29" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B9" s="29">
         <v>2</v>
@@ -7466,7 +7472,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="29" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B10" s="29">
         <v>1</v>
@@ -7486,7 +7492,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="29" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B11" s="29">
         <v>2</v>
@@ -7517,13 +7523,13 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" customWidth="1"/>
-    <col min="18" max="18" width="15.85546875" customWidth="1"/>
-    <col min="20" max="20" width="21.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.1796875" customWidth="1"/>
+    <col min="5" max="5" width="19.54296875" customWidth="1"/>
+    <col min="18" max="18" width="15.81640625" customWidth="1"/>
+    <col min="20" max="20" width="21.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="12" customFormat="1">
@@ -7537,55 +7543,55 @@
         <v>2</v>
       </c>
       <c r="D1" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>372</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>373</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="12" t="s">
         <v>374</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="H1" s="12" t="s">
         <v>375</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="I1" s="12" t="s">
         <v>376</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="J1" s="12" t="s">
         <v>377</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="K1" s="12" t="s">
         <v>378</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="L1" s="12" t="s">
         <v>379</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="M1" s="12" t="s">
         <v>380</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="N1" s="12" t="s">
         <v>381</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="O1" s="12" t="s">
         <v>382</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="P1" s="12" t="s">
         <v>383</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="Q1" s="12" t="s">
         <v>384</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="R1" s="12" t="s">
         <v>385</v>
-      </c>
-      <c r="R1" s="12" t="s">
-        <v>386</v>
       </c>
       <c r="S1" s="12" t="s">
         <v>15</v>
       </c>
       <c r="T1" s="12" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="2" spans="1:20">
@@ -7605,7 +7611,7 @@
         <v>19</v>
       </c>
       <c r="F2" s="52" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G2" s="52" t="s">
         <v>151</v>
@@ -7641,7 +7647,7 @@
         <v>19</v>
       </c>
       <c r="R2" s="52" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="S2" s="52" t="s">
         <v>19</v>
@@ -7703,7 +7709,7 @@
         <v>19</v>
       </c>
       <c r="R3" s="46" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="S3" s="46" t="s">
         <v>19</v>
@@ -7765,7 +7771,7 @@
         <v>19</v>
       </c>
       <c r="R4" s="46" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="S4" s="46" t="s">
         <v>19</v>
@@ -7782,34 +7788,34 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC115C88-C50A-4C63-8FE8-A3BB8E337BDA}">
-  <dimension ref="A1:T22"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.453125" customWidth="1"/>
+    <col min="2" max="2" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.54296875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.54296875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.54296875" customWidth="1"/>
+    <col min="11" max="11" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.453125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.453125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.54296875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="23.54296875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -7823,55 +7829,55 @@
         <v>2</v>
       </c>
       <c r="D1" s="43" t="s">
+        <v>389</v>
+      </c>
+      <c r="E1" s="43" t="s">
         <v>390</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="F1" s="43" t="s">
         <v>391</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="G1" s="43" t="s">
         <v>392</v>
-      </c>
-      <c r="G1" s="43" t="s">
-        <v>393</v>
       </c>
       <c r="H1" s="43" t="s">
         <v>13</v>
       </c>
       <c r="I1" s="43" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J1" s="43" t="s">
         <v>4</v>
       </c>
       <c r="K1" s="43" t="s">
+        <v>383</v>
+      </c>
+      <c r="L1" s="43" t="s">
         <v>384</v>
       </c>
-      <c r="L1" s="43" t="s">
-        <v>385</v>
-      </c>
       <c r="M1" s="43" t="s">
+        <v>394</v>
+      </c>
+      <c r="N1" s="42" t="s">
         <v>395</v>
       </c>
-      <c r="N1" s="42" t="s">
+      <c r="O1" s="42" t="s">
         <v>396</v>
       </c>
-      <c r="O1" s="42" t="s">
+      <c r="P1" s="42" t="s">
         <v>397</v>
       </c>
-      <c r="P1" s="42" t="s">
+      <c r="Q1" s="42" t="s">
         <v>398</v>
       </c>
-      <c r="Q1" s="42" t="s">
+      <c r="R1" s="42" t="s">
         <v>399</v>
       </c>
-      <c r="R1" s="42" t="s">
+      <c r="S1" s="42" t="s">
         <v>400</v>
       </c>
-      <c r="S1" s="42" t="s">
+      <c r="T1" s="42" t="s">
         <v>401</v>
-      </c>
-      <c r="T1" s="42" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="16" customFormat="1">
@@ -7885,13 +7891,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="46" t="s">
+        <v>402</v>
+      </c>
+      <c r="E2" s="46" t="s">
         <v>403</v>
       </c>
-      <c r="E2" s="46" t="s">
-        <v>404</v>
-      </c>
       <c r="F2" s="46" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G2" s="19" t="s">
         <v>59</v>
@@ -7947,13 +7953,13 @@
         <v>2</v>
       </c>
       <c r="D3" s="46" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E3" s="46" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F3" s="46" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G3" s="19" t="s">
         <v>59</v>
@@ -8012,10 +8018,10 @@
         <v>28</v>
       </c>
       <c r="E4" s="52" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F4" s="52" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G4" s="52" t="s">
         <v>28</v>
@@ -8036,28 +8042,28 @@
         <v>19</v>
       </c>
       <c r="M4" s="52" t="s">
+        <v>405</v>
+      </c>
+      <c r="N4" s="52" t="s">
         <v>406</v>
       </c>
-      <c r="N4" s="52" t="s">
-        <v>407</v>
-      </c>
       <c r="O4" s="52" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="P4" s="52" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="Q4" s="52" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="R4" s="52" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="S4" s="52" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="T4" s="52" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -8178,7 +8184,7 @@
         <v>28</v>
       </c>
       <c r="S6" s="51" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="T6" s="52" t="s">
         <v>28</v>
@@ -8195,13 +8201,13 @@
         <v>2</v>
       </c>
       <c r="D7" s="52" t="s">
+        <v>402</v>
+      </c>
+      <c r="E7" s="52" t="s">
         <v>403</v>
       </c>
-      <c r="E7" s="52" t="s">
-        <v>404</v>
-      </c>
       <c r="F7" s="52" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G7" s="52" t="s">
         <v>59</v>
@@ -8222,7 +8228,7 @@
         <v>19</v>
       </c>
       <c r="M7" s="52" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="N7" s="52" t="s">
         <v>28</v>
@@ -8257,13 +8263,13 @@
         <v>3</v>
       </c>
       <c r="D8" s="52" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E8" s="52" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F8" s="52" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G8" s="52" t="s">
         <v>59</v>
@@ -8284,7 +8290,7 @@
         <v>19</v>
       </c>
       <c r="M8" s="52" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N8" s="52" t="s">
         <v>28</v>
@@ -8310,7 +8316,7 @@
     </row>
     <row r="9" spans="1:20">
       <c r="A9" s="52" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B9" s="52">
         <v>1</v>
@@ -8319,13 +8325,13 @@
         <v>1</v>
       </c>
       <c r="D9" s="52" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E9" s="52" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F9" s="52" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G9" s="52" t="s">
         <v>59</v>
@@ -8346,7 +8352,7 @@
         <v>19</v>
       </c>
       <c r="M9" s="52" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="N9" s="52" t="s">
         <v>28</v>
@@ -8372,7 +8378,7 @@
     </row>
     <row r="10" spans="1:20">
       <c r="A10" s="52" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B10" s="52">
         <v>1</v>
@@ -8381,13 +8387,13 @@
         <v>2</v>
       </c>
       <c r="D10" s="52" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E10" s="52" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F10" s="52" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G10" s="52" t="s">
         <v>59</v>
@@ -8408,7 +8414,7 @@
         <v>19</v>
       </c>
       <c r="M10" s="52" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="N10" s="52" t="s">
         <v>28</v>
@@ -8434,7 +8440,7 @@
     </row>
     <row r="11" spans="1:20" s="56" customFormat="1">
       <c r="A11" s="56" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B11" s="56">
         <v>1</v>
@@ -8443,13 +8449,13 @@
         <v>1</v>
       </c>
       <c r="D11" s="56" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E11" s="56" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F11" s="56" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G11" s="56" t="s">
         <v>28</v>
@@ -8496,7 +8502,7 @@
     </row>
     <row r="12" spans="1:20" s="56" customFormat="1">
       <c r="A12" s="56" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B12" s="56">
         <v>1</v>
@@ -8505,13 +8511,13 @@
         <v>2</v>
       </c>
       <c r="D12" s="56" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E12" s="56" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F12" s="56" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G12" s="56" t="s">
         <v>28</v>
@@ -8558,7 +8564,7 @@
     </row>
     <row r="13" spans="1:20">
       <c r="A13" s="52" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B13" s="52">
         <v>1</v>
@@ -8620,7 +8626,7 @@
     </row>
     <row r="14" spans="1:20">
       <c r="A14" s="52" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B14" s="52">
         <v>1</v>
@@ -8629,13 +8635,13 @@
         <v>1</v>
       </c>
       <c r="D14" s="52" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E14" s="52" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F14" s="52" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G14" s="52" t="s">
         <v>59</v>
@@ -8682,7 +8688,7 @@
     </row>
     <row r="15" spans="1:20">
       <c r="A15" s="52" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B15" s="52">
         <v>1</v>
@@ -8691,13 +8697,13 @@
         <v>2</v>
       </c>
       <c r="D15" s="52" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E15" s="52" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F15" s="52" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G15" s="52" t="s">
         <v>59</v>
@@ -8744,7 +8750,7 @@
     </row>
     <row r="16" spans="1:20">
       <c r="A16" s="52" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B16" s="52">
         <v>1</v>
@@ -8753,13 +8759,13 @@
         <v>3</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E16" s="52" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F16" s="52" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G16" s="52" t="s">
         <v>59</v>
@@ -8806,7 +8812,7 @@
     </row>
     <row r="17" spans="1:20" s="46" customFormat="1">
       <c r="A17" s="46" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B17" s="46">
         <v>1</v>
@@ -8815,13 +8821,13 @@
         <v>1</v>
       </c>
       <c r="D17" s="46" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E17" s="46" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F17" s="46" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G17" s="46" t="s">
         <v>59</v>
@@ -8868,7 +8874,7 @@
     </row>
     <row r="18" spans="1:20" s="46" customFormat="1">
       <c r="A18" s="46" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B18" s="46">
         <v>1</v>
@@ -8877,13 +8883,13 @@
         <v>2</v>
       </c>
       <c r="D18" s="46" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E18" s="46" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F18" s="46" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G18" s="46" t="s">
         <v>59</v>
@@ -8930,7 +8936,7 @@
     </row>
     <row r="19" spans="1:20" s="46" customFormat="1">
       <c r="A19" s="46" t="s">
-        <v>340</v>
+        <v>561</v>
       </c>
       <c r="B19" s="46">
         <v>1</v>
@@ -8939,13 +8945,13 @@
         <v>3</v>
       </c>
       <c r="D19" s="46" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E19" s="46" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F19" s="46" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G19" s="46" t="s">
         <v>59</v>
@@ -8990,86 +8996,86 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:20">
-      <c r="A20" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="B20" s="5">
-        <v>1</v>
-      </c>
-      <c r="C20" s="5">
-        <v>1</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>410</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>404</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>404</v>
-      </c>
-      <c r="G20" s="5" t="s">
+    <row r="20" spans="1:20" s="46" customFormat="1">
+      <c r="A20" s="46" t="s">
+        <v>562</v>
+      </c>
+      <c r="B20" s="46">
+        <v>1</v>
+      </c>
+      <c r="C20" s="46">
+        <v>1</v>
+      </c>
+      <c r="D20" s="46" t="s">
+        <v>415</v>
+      </c>
+      <c r="E20" s="46" t="s">
+        <v>403</v>
+      </c>
+      <c r="F20" s="46" t="s">
+        <v>403</v>
+      </c>
+      <c r="G20" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="H20" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J20" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K20" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L20" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="M20" s="5" t="s">
-        <v>406</v>
-      </c>
-      <c r="N20" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="O20" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="P20" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q20" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="R20" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="S20" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="T20" s="5" t="s">
+      <c r="H20" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="I20" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="J20" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="K20" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="L20" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="M20" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="N20" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="O20" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="P20" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q20" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="R20" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="S20" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="T20" s="46" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B21" s="5">
         <v>1</v>
       </c>
       <c r="C21" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>59</v>
@@ -9090,7 +9096,7 @@
         <v>19</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="N21" s="5" t="s">
         <v>28</v>
@@ -9114,24 +9120,24 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="15">
-      <c r="A22" s="7" t="s">
-        <v>417</v>
+    <row r="22" spans="1:20">
+      <c r="A22" s="5" t="s">
+        <v>334</v>
       </c>
       <c r="B22" s="5">
         <v>1</v>
       </c>
       <c r="C22" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>59</v>
@@ -9152,7 +9158,7 @@
         <v>19</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="N22" s="5" t="s">
         <v>28</v>
@@ -9173,6 +9179,68 @@
         <v>28</v>
       </c>
       <c r="T22" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B23" s="5">
+        <v>1</v>
+      </c>
+      <c r="C23" s="5">
+        <v>1</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M23" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="N23" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="O23" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="P23" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q23" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="R23" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="S23" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="T23" s="5" t="s">
         <v>28</v>
       </c>
     </row>
@@ -9186,20 +9254,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{186A334D-3D40-4E6E-89BC-E0399D12F63C}">
   <dimension ref="A1:W12"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="16.140625" style="16" customWidth="1"/>
-    <col min="7" max="7" width="17.140625" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="16.1796875" style="16" customWidth="1"/>
+    <col min="7" max="7" width="17.1796875" customWidth="1"/>
+    <col min="9" max="9" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.54296875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
@@ -9532,13 +9600,13 @@
         <v>19</v>
       </c>
       <c r="J6" s="57" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="K6" s="31" t="s">
         <v>59</v>
       </c>
       <c r="L6" s="57" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="M6" s="31" t="s">
         <v>61</v>
@@ -9886,22 +9954,22 @@
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.453125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="30.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -9918,31 +9986,31 @@
         <v>160</v>
       </c>
       <c r="E1" s="52" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F1" s="52" t="s">
         <v>163</v>
       </c>
       <c r="G1" s="52" t="s">
+        <v>418</v>
+      </c>
+      <c r="H1" s="52" t="s">
         <v>419</v>
       </c>
-      <c r="H1" s="52" t="s">
+      <c r="I1" s="52" t="s">
         <v>420</v>
       </c>
-      <c r="I1" s="52" t="s">
+      <c r="J1" s="52" t="s">
         <v>421</v>
       </c>
-      <c r="J1" s="52" t="s">
+      <c r="K1" s="52" t="s">
         <v>422</v>
       </c>
-      <c r="K1" s="52" t="s">
-        <v>423</v>
-      </c>
       <c r="L1" s="52" t="s">
+        <v>194</v>
+      </c>
+      <c r="M1" s="52" t="s">
         <v>195</v>
-      </c>
-      <c r="M1" s="52" t="s">
-        <v>196</v>
       </c>
       <c r="N1" s="52" t="s">
         <v>13</v>
@@ -9959,31 +10027,31 @@
         <v>1</v>
       </c>
       <c r="D2" s="34" t="s">
+        <v>423</v>
+      </c>
+      <c r="E2" s="34" t="s">
         <v>424</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>425</v>
       </c>
       <c r="F2" s="34" t="s">
         <v>168</v>
       </c>
       <c r="G2" s="34" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H2" s="34" t="s">
         <v>103</v>
       </c>
       <c r="I2" s="34" t="s">
+        <v>426</v>
+      </c>
+      <c r="J2" s="34" t="s">
         <v>427</v>
       </c>
-      <c r="J2" s="34" t="s">
+      <c r="K2" s="34" t="s">
         <v>428</v>
       </c>
-      <c r="K2" s="34" t="s">
+      <c r="L2" s="34" t="s">
         <v>429</v>
-      </c>
-      <c r="L2" s="34" t="s">
-        <v>430</v>
       </c>
       <c r="M2" s="34" t="s">
         <v>19</v>
@@ -10005,15 +10073,15 @@
       <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -10027,19 +10095,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>117</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -10062,7 +10130,7 @@
         <v>148</v>
       </c>
       <c r="G2" s="52" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H2" s="52" t="s">
         <v>19</v>
@@ -10081,31 +10149,31 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.1796875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="18.140625" customWidth="1"/>
+    <col min="9" max="9" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="18.1796875" customWidth="1"/>
     <col min="16" max="17" width="23" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="32.453125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="31.453125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="25" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="28.1796875" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="23" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="27.1796875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="19.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:45" s="16" customFormat="1">
@@ -10119,76 +10187,76 @@
         <v>2</v>
       </c>
       <c r="D1" s="40" t="s">
+        <v>432</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="I1" s="52" t="s">
         <v>434</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="I1" s="52" t="s">
+      <c r="J1" s="52" t="s">
         <v>435</v>
       </c>
-      <c r="J1" s="52" t="s">
+      <c r="K1" s="52" t="s">
         <v>436</v>
       </c>
-      <c r="K1" s="52" t="s">
+      <c r="L1" s="52" t="s">
         <v>437</v>
       </c>
-      <c r="L1" s="52" t="s">
+      <c r="M1" s="52" t="s">
         <v>438</v>
       </c>
-      <c r="M1" s="52" t="s">
+      <c r="N1" s="52" t="s">
         <v>439</v>
       </c>
-      <c r="N1" s="52" t="s">
+      <c r="O1" s="52" t="s">
         <v>440</v>
       </c>
-      <c r="O1" s="52" t="s">
+      <c r="P1" s="52" t="s">
         <v>441</v>
       </c>
-      <c r="P1" s="52" t="s">
+      <c r="Q1" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>448</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>449</v>
       </c>
       <c r="X1" s="2" t="s">
         <v>50</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="Z1" s="2" t="s">
         <v>52</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AB1" s="52"/>
       <c r="AC1" s="52"/>
@@ -10220,10 +10288,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="52" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E2" s="52" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F2" s="52" t="s">
         <v>59</v>
@@ -10309,10 +10377,10 @@
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E3" s="52" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F3" s="52" t="s">
         <v>59</v>
@@ -10401,10 +10469,10 @@
         <v>19</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F4" s="52" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G4" s="52" t="s">
         <v>28</v>
@@ -10498,10 +10566,10 @@
         <v>19</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F5" s="52" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G5" s="52" t="s">
         <v>28</v>
@@ -10928,38 +10996,38 @@
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.54296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="20.81640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="22" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="33.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="35.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="33.54296875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="35.81640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.1796875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="24" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="23" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.1796875" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="24" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="29.1796875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="29.1796875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="28.1796875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="29.1796875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="29.1796875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="36.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33">
@@ -10973,94 +11041,94 @@
         <v>2</v>
       </c>
       <c r="D1" s="52" t="s">
+        <v>454</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="10" t="s">
         <v>456</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="10" t="s">
         <v>462</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="M1" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="52" t="s">
         <v>467</v>
       </c>
-      <c r="Q1" s="52" t="s">
+      <c r="R1" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="3" t="s">
         <v>472</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Z1" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AC1" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>483</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="2" spans="1:33">
@@ -11074,7 +11142,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="52" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>149</v>
@@ -11175,7 +11243,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="52" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>28</v>
@@ -11736,23 +11804,23 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="19.140625" style="39" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" style="39" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" style="39" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" style="39" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" style="39" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.1796875" style="39" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" style="39" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.81640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.81640625" style="39" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23" style="39" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.140625" style="39" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="39" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.1796875" style="39" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.1796875" style="39" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.1796875" style="39" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="23" style="39" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" style="39" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.140625" style="39" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="118.42578125" style="39" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="17.85546875" style="39" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.85546875" style="39"/>
+    <col min="11" max="11" width="11.1796875" style="39" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.1796875" style="39" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="118.453125" style="39" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="17.81640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.81640625" style="39"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -11766,43 +11834,43 @@
         <v>2</v>
       </c>
       <c r="D1" s="52" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F1" s="41" t="s">
+        <v>484</v>
+      </c>
+      <c r="G1" s="22" t="s">
         <v>485</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>486</v>
       </c>
       <c r="H1" s="41" t="s">
         <v>66</v>
       </c>
       <c r="I1" s="41" t="s">
+        <v>486</v>
+      </c>
+      <c r="J1" s="41" t="s">
         <v>487</v>
       </c>
-      <c r="J1" s="41" t="s">
+      <c r="K1" s="41" t="s">
         <v>488</v>
       </c>
-      <c r="K1" s="41" t="s">
+      <c r="L1" s="41" t="s">
         <v>489</v>
       </c>
-      <c r="L1" s="41" t="s">
+      <c r="M1" s="41" t="s">
         <v>490</v>
       </c>
-      <c r="M1" s="41" t="s">
+      <c r="N1" s="41" t="s">
         <v>491</v>
-      </c>
-      <c r="N1" s="41" t="s">
-        <v>492</v>
       </c>
       <c r="O1" s="41" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="46" customFormat="1" ht="57.95">
+    <row r="2" spans="1:15" s="46" customFormat="1" ht="58">
       <c r="A2" s="57" t="s">
         <v>27</v>
       </c>
@@ -11840,7 +11908,7 @@
         <v>28</v>
       </c>
       <c r="M2" s="64" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="N2" s="57" t="s">
         <v>149</v>
@@ -11849,7 +11917,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="46" customFormat="1" ht="29.1">
+    <row r="3" spans="1:15" s="46" customFormat="1" ht="29">
       <c r="A3" s="57" t="s">
         <v>27</v>
       </c>
@@ -11860,7 +11928,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="50" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E3" s="50" t="s">
         <v>19</v>
@@ -11887,7 +11955,7 @@
         <v>28</v>
       </c>
       <c r="M3" s="64" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="N3" s="57" t="s">
         <v>30</v>
@@ -11907,7 +11975,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E4" s="40" t="s">
         <v>19</v>
@@ -11946,7 +12014,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E5" s="31" t="s">
         <v>19</v>
@@ -12058,7 +12126,7 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:38">
       <c r="A1" s="5" t="s">
@@ -12071,103 +12139,103 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>495</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>496</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G1" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>497</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>498</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>499</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="L1" s="5" t="s">
         <v>500</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="M1" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="AA1" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="AB1" s="5" t="s">
         <v>500</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="AC1" s="5" t="s">
         <v>501</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="AD1" s="5" t="s">
         <v>502</v>
       </c>
-      <c r="N1" s="5" t="s">
-        <v>503</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>499</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>504</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>505</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>506</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>507</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>508</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>509</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>497</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>510</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>505</v>
-      </c>
-      <c r="Y1" s="5" t="s">
-        <v>511</v>
-      </c>
-      <c r="Z1" s="5" t="s">
-        <v>499</v>
-      </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AE1" s="5" t="s">
         <v>512</v>
       </c>
-      <c r="AB1" s="5" t="s">
-        <v>501</v>
-      </c>
-      <c r="AC1" s="5" t="s">
-        <v>502</v>
-      </c>
-      <c r="AD1" s="5" t="s">
-        <v>503</v>
-      </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AF1" s="5" t="s">
         <v>513</v>
       </c>
-      <c r="AF1" s="5" t="s">
+      <c r="AG1" s="5" t="s">
         <v>514</v>
       </c>
-      <c r="AG1" s="5" t="s">
+      <c r="AH1" s="5" t="s">
         <v>515</v>
       </c>
-      <c r="AH1" s="5" t="s">
-        <v>516</v>
-      </c>
       <c r="AI1" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="AJ1" s="5" t="s">
         <v>495</v>
-      </c>
-      <c r="AJ1" s="5" t="s">
-        <v>496</v>
       </c>
       <c r="AK1" s="5" t="s">
         <v>13</v>
@@ -12176,7 +12244,7 @@
     </row>
     <row r="2" spans="1:38">
       <c r="A2" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -12221,36 +12289,36 @@
         <v>28</v>
       </c>
       <c r="P2" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="Q2" s="5" t="s">
         <v>517</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="R2" s="5" t="s">
         <v>518</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>519</v>
       </c>
       <c r="S2" s="49"/>
       <c r="T2" s="49"/>
       <c r="U2" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="V2" s="5" t="s">
         <v>28</v>
       </c>
       <c r="W2" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="X2" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="Y2" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="Z2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA2" s="5" t="s">
         <v>520</v>
-      </c>
-      <c r="X2" s="5" t="s">
-        <v>518</v>
-      </c>
-      <c r="Y2" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="Z2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA2" s="5" t="s">
-        <v>521</v>
       </c>
       <c r="AB2" s="5">
         <v>4</v>
@@ -12265,22 +12333,22 @@
         <v>28</v>
       </c>
       <c r="AF2" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AG2" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AH2" s="5">
         <v>89377</v>
       </c>
       <c r="AI2" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AJ2" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AK2" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AL2" s="5"/>
     </row>
@@ -12297,7 +12365,7 @@
       <selection sqref="A1:L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="5" t="s">
@@ -12310,34 +12378,34 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>522</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>523</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>510</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>505</v>
-      </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>524</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>525</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>526</v>
       </c>
       <c r="L1" s="49"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -12349,7 +12417,7 @@
         <v>149</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>28</v>
@@ -12382,7 +12450,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="5" t="s">
@@ -12395,28 +12463,28 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>527</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>528</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>529</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>530</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>531</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>532</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>533</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>117</v>
@@ -12427,7 +12495,7 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -12436,18 +12504,18 @@
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>534</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>535</v>
-      </c>
       <c r="I2" s="5" t="s">
         <v>28</v>
       </c>
@@ -12461,7 +12529,7 @@
         <v>28</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -12479,7 +12547,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="27" max="27" width="9.140625" style="52"/>
+    <col min="27" max="27" width="9.1796875" style="52"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
@@ -12493,87 +12561,87 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>537</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>538</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>66</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="K1" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="L1" s="5" t="s">
         <v>539</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>540</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>542</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>544</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>545</v>
       </c>
       <c r="R1" s="5" t="s">
         <v>153</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="T1" s="5" t="s">
         <v>152</v>
       </c>
       <c r="U1" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="V1" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="Y1" s="5" t="s">
         <v>550</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
         <v>551</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AA1" s="5" t="s">
         <v>552</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AB1" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="AC1" s="52" t="s">
         <v>553</v>
-      </c>
-      <c r="AB1" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="AC1" s="52" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="2" spans="1:29">
       <c r="A2" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -12582,75 +12650,75 @@
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>28</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I2" s="5"/>
       <c r="J2" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K2" s="5"/>
       <c r="L2" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="M2" s="5"/>
       <c r="N2" s="5" t="s">
         <v>149</v>
       </c>
       <c r="O2" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="P2" s="5" t="s">
         <v>555</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="Q2" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="R2" s="5" t="s">
         <v>556</v>
       </c>
-      <c r="Q2" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="R2" s="5" t="s">
+      <c r="S2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="U2" s="52" t="s">
+        <v>179</v>
+      </c>
+      <c r="V2" s="52" t="s">
+        <v>179</v>
+      </c>
+      <c r="W2" s="52" t="s">
         <v>557</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="T2" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="U2" s="52" t="s">
-        <v>180</v>
-      </c>
-      <c r="V2" s="52" t="s">
-        <v>180</v>
-      </c>
-      <c r="W2" s="52" t="s">
-        <v>558</v>
       </c>
       <c r="X2" s="52" t="s">
         <v>149</v>
       </c>
       <c r="Y2" s="52"/>
       <c r="Z2" s="52" t="s">
+        <v>558</v>
+      </c>
+      <c r="AA2" s="52" t="s">
         <v>559</v>
-      </c>
-      <c r="AA2" s="52" t="s">
-        <v>560</v>
       </c>
       <c r="AB2" s="52"/>
       <c r="AC2" s="52"/>
     </row>
     <row r="3" spans="1:29">
       <c r="A3" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B3" s="5">
         <v>1</v>
@@ -12659,7 +12727,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>28</v>
@@ -12698,16 +12766,16 @@
         <v>28</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="S3" s="5" t="s">
         <v>28</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="U3" s="5" t="s">
         <v>28</v>
@@ -12750,44 +12818,44 @@
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.85546875" style="52" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.81640625" style="52" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="52" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.453125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="68.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="41.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="25.42578125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="68.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="41.54296875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.81640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="24.453125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="25.453125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="14.1796875" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="12" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="18" bestFit="1" customWidth="1"/>
   </cols>
@@ -13036,7 +13104,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:40" s="46" customFormat="1" ht="15.6" customHeight="1">
+    <row r="3" spans="1:40" s="46" customFormat="1" ht="15.65" customHeight="1">
       <c r="A3" s="66" t="s">
         <v>27</v>
       </c>
@@ -13158,7 +13226,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:40" s="31" customFormat="1" ht="15.6" customHeight="1">
+    <row r="4" spans="1:40" s="31" customFormat="1" ht="15.65" customHeight="1">
       <c r="A4" s="31" t="s">
         <v>36</v>
       </c>
@@ -13912,62 +13980,62 @@
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.1796875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="22" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.140625" style="14" customWidth="1"/>
-    <col min="18" max="18" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.140625" style="15" customWidth="1"/>
-    <col min="21" max="21" width="38.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="25.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.1796875" style="14" customWidth="1"/>
+    <col min="18" max="18" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.1796875" style="15" customWidth="1"/>
+    <col min="21" max="21" width="38.81640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="27.1796875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="25.453125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="25.1796875" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="22" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="24" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="22" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="24" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="25" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="26.1796875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="19.81640625" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="22" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="30.453125" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="23" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="17.81640625" bestFit="1" customWidth="1"/>
     <col min="38" max="39" width="23" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="20.81640625" bestFit="1" customWidth="1"/>
     <col min="41" max="42" width="23" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="44" max="45" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="44" max="45" width="28.1796875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="31.453125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="34.81640625" bestFit="1" customWidth="1"/>
     <col min="51" max="51" width="22" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="23" bestFit="1" customWidth="1"/>
     <col min="53" max="53" width="22" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="33.54296875" bestFit="1" customWidth="1"/>
     <col min="55" max="55" width="22" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="57" max="58" width="37.85546875" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="32.453125" bestFit="1" customWidth="1"/>
+    <col min="57" max="58" width="37.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:58">
@@ -14864,13 +14932,13 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="3" max="3" width="13.5703125" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" customWidth="1"/>
-    <col min="5" max="5" width="24.140625" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" customWidth="1"/>
-    <col min="7" max="7" width="28.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" customWidth="1"/>
+    <col min="4" max="4" width="15.81640625" customWidth="1"/>
+    <col min="5" max="5" width="24.1796875" customWidth="1"/>
+    <col min="6" max="6" width="15.81640625" customWidth="1"/>
+    <col min="7" max="7" width="28.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="16" customFormat="1">
@@ -14978,24 +15046,24 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{056B68C9-3C17-4B06-80C0-880DDEDA4E17}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -15056,9 +15124,41 @@
         <v>168</v>
       </c>
       <c r="I2" s="50" t="s">
-        <v>169</v>
+        <v>28</v>
       </c>
       <c r="J2" s="50" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="50">
+        <v>1</v>
+      </c>
+      <c r="C3" s="50">
+        <v>2</v>
+      </c>
+      <c r="D3" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="50" t="s">
+        <v>165</v>
+      </c>
+      <c r="F3" s="50" t="s">
+        <v>166</v>
+      </c>
+      <c r="G3" s="50" t="s">
+        <v>167</v>
+      </c>
+      <c r="H3" s="50" t="s">
+        <v>168</v>
+      </c>
+      <c r="I3" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="50" t="s">
         <v>19</v>
       </c>
     </row>
@@ -15075,13 +15175,13 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="1.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="1.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="52" customFormat="1">
@@ -15095,7 +15195,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
@@ -15133,15 +15233,15 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="44.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="44.85546875" style="16" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="42.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.81640625" style="16" customWidth="1"/>
+    <col min="6" max="6" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="42.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -15155,31 +15255,31 @@
         <v>2</v>
       </c>
       <c r="D1" s="52" t="s">
+        <v>170</v>
+      </c>
+      <c r="E1" s="52" t="s">
         <v>171</v>
       </c>
-      <c r="E1" s="52" t="s">
+      <c r="F1" s="52" t="s">
         <v>172</v>
       </c>
-      <c r="F1" s="52" t="s">
+      <c r="G1" s="52" t="s">
         <v>173</v>
       </c>
-      <c r="G1" s="52" t="s">
+      <c r="H1" s="52" t="s">
         <v>174</v>
       </c>
-      <c r="H1" s="52" t="s">
+      <c r="I1" s="52" t="s">
         <v>175</v>
       </c>
-      <c r="I1" s="52" t="s">
+      <c r="J1" s="52" t="s">
         <v>176</v>
       </c>
-      <c r="J1" s="52" t="s">
+      <c r="K1" s="52" t="s">
         <v>177</v>
       </c>
-      <c r="K1" s="52" t="s">
+      <c r="L1" s="52" t="s">
         <v>178</v>
-      </c>
-      <c r="L1" s="52" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -15193,32 +15293,32 @@
         <v>1</v>
       </c>
       <c r="D2" s="52" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E2" s="52"/>
       <c r="F2" s="52" t="s">
+        <v>179</v>
+      </c>
+      <c r="G2" s="52" t="s">
+        <v>179</v>
+      </c>
+      <c r="H2" s="52" t="s">
         <v>180</v>
-      </c>
-      <c r="G2" s="52" t="s">
-        <v>180</v>
-      </c>
-      <c r="H2" s="52" t="s">
-        <v>181</v>
       </c>
       <c r="I2" s="52" t="s">
         <v>59</v>
       </c>
       <c r="J2" s="52" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K2" s="52" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L2" s="52" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="21.95" customHeight="1">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="22" customHeight="1">
       <c r="A3" s="52" t="s">
         <v>35</v>
       </c>
@@ -15229,21 +15329,21 @@
         <v>1</v>
       </c>
       <c r="D3" s="52" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E3" s="52" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F3" s="52"/>
       <c r="G3" s="52"/>
       <c r="H3" s="52" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I3" s="52" t="s">
         <v>59</v>
       </c>
       <c r="J3" s="52" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K3" s="52"/>
       <c r="L3" s="52"/>
@@ -15261,7 +15361,7 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="4" t="s">
@@ -15274,31 +15374,31 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="K1" s="6" t="s">
-        <v>191</v>
-      </c>
       <c r="L1" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -15312,16 +15412,16 @@
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F2" s="5">
         <v>987654321</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5" t="s">
@@ -15334,7 +15434,7 @@
         <v>59</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -15952,6 +16052,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
@@ -15961,25 +16070,41 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBA5B558-DFC3-420B-A09B-072555AB09C7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBA5B558-DFC3-420B-A09B-072555AB09C7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+    <ds:schemaRef ds:uri="eb87e36b-823b-4123-a7f7-e23d77fa1380"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{360C765C-5108-4856-B14E-979324B41D25}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{527B0702-8AF4-4307-A34D-2633AC2397ED}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{527B0702-8AF4-4307-A34D-2633AC2397ED}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{360C765C-5108-4856-B14E-979324B41D25}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>

--- a/Folio.xlsx
+++ b/Folio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D48E98E-7406-4AD9-82ED-6D8936879FC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33DC6F30-BEFA-4014-B9E5-3C133F749436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="13" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2963" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2974" uniqueCount="563">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -1050,9 +1050,6 @@
   </si>
   <si>
     <t>Placement</t>
-  </si>
-  <si>
-    <t>PlacementPreservationStrategy</t>
   </si>
   <si>
     <t>Placement - Runaway or Child Abducted</t>
@@ -1774,10 +1771,13 @@
     <t>SOC 157B - Supervised Independent Living Placement (SILP) Inspection: Checklist of Facility Health and Safety Standards</t>
   </si>
   <si>
-    <t>testT4275_1</t>
-  </si>
-  <si>
-    <t>testT4149</t>
+    <t>Placement Preservation Strategy</t>
+  </si>
+  <si>
+    <t>testT4258</t>
+  </si>
+  <si>
+    <t>testT4275_2</t>
   </si>
 </sst>
 </file>
@@ -4858,13 +4858,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{065689CF-B8B7-4123-B223-FA611E0B0CC8}">
   <dimension ref="A1:AN17"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="16" style="39" customWidth="1"/>
+    <col min="1" max="1" width="8.81640625" style="39" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.54296875" style="39" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="39" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.1796875" style="39" bestFit="1" customWidth="1"/>
@@ -4900,7 +4900,7 @@
     <col min="36" max="36" width="19.1796875" style="39" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="21.453125" style="39" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="14.81640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="14.81640625" style="52" customWidth="1"/>
+    <col min="39" max="39" width="17.7265625" style="52" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="110.453125" style="39" bestFit="1" customWidth="1"/>
     <col min="41" max="16384" width="8.81640625" style="39"/>
   </cols>
@@ -6163,7 +6163,7 @@
         <v>327</v>
       </c>
       <c r="O11" s="52" t="s">
-        <v>328</v>
+        <v>560</v>
       </c>
       <c r="P11" s="52" t="s">
         <v>148</v>
@@ -6199,21 +6199,44 @@
         <v>28</v>
       </c>
       <c r="AA11" s="52" t="s">
-        <v>151</v>
-      </c>
-      <c r="AB11" s="52" t="s">
-        <v>151</v>
-      </c>
-      <c r="AC11" s="52"/>
-      <c r="AD11" s="52"/>
-      <c r="AE11" s="52"/>
-      <c r="AF11" s="52"/>
-      <c r="AG11" s="52"/>
-      <c r="AH11" s="52"/>
-      <c r="AI11" s="52"/>
-      <c r="AJ11" s="52"/>
-      <c r="AK11" s="52"/>
-      <c r="AL11" s="52"/>
+        <v>19</v>
+      </c>
+      <c r="AB11" s="55" t="s">
+        <v>311</v>
+      </c>
+      <c r="AC11" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD11" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE11" s="50" t="s">
+        <v>149</v>
+      </c>
+      <c r="AF11" s="50" t="s">
+        <v>149</v>
+      </c>
+      <c r="AG11" s="50" t="s">
+        <v>149</v>
+      </c>
+      <c r="AH11" s="50" t="s">
+        <v>149</v>
+      </c>
+      <c r="AI11" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ11" s="50" t="s">
+        <v>149</v>
+      </c>
+      <c r="AK11" s="50" t="s">
+        <v>149</v>
+      </c>
+      <c r="AL11" s="50" t="s">
+        <v>149</v>
+      </c>
+      <c r="AM11" s="50" t="s">
+        <v>149</v>
+      </c>
       <c r="AN11" s="52"/>
     </row>
     <row r="12" spans="1:40" s="52" customFormat="1">
@@ -6257,10 +6280,10 @@
         <v>19</v>
       </c>
       <c r="N12" s="46" t="s">
+        <v>328</v>
+      </c>
+      <c r="O12" s="46" t="s">
         <v>329</v>
-      </c>
-      <c r="O12" s="46" t="s">
-        <v>330</v>
       </c>
       <c r="P12" s="46" t="s">
         <v>148</v>
@@ -6269,7 +6292,7 @@
         <v>28</v>
       </c>
       <c r="R12" s="46" t="s">
-        <v>311</v>
+        <v>332</v>
       </c>
       <c r="S12" s="46" t="s">
         <v>19</v>
@@ -6379,10 +6402,10 @@
         <v>19</v>
       </c>
       <c r="N13" s="46" t="s">
+        <v>330</v>
+      </c>
+      <c r="O13" s="46" t="s">
         <v>331</v>
-      </c>
-      <c r="O13" s="46" t="s">
-        <v>332</v>
       </c>
       <c r="P13" s="46" t="s">
         <v>148</v>
@@ -6391,7 +6414,7 @@
         <v>28</v>
       </c>
       <c r="R13" s="46" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="S13" s="46" t="s">
         <v>19</v>
@@ -6462,7 +6485,7 @@
     </row>
     <row r="14" spans="1:40" s="12" customFormat="1">
       <c r="A14" s="12" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B14" s="12">
         <v>1</v>
@@ -6504,10 +6527,10 @@
         <v>327</v>
       </c>
       <c r="O14" s="12" t="s">
+        <v>334</v>
+      </c>
+      <c r="P14" s="12" t="s">
         <v>335</v>
-      </c>
-      <c r="P14" s="12" t="s">
-        <v>336</v>
       </c>
       <c r="Q14" s="12" t="s">
         <v>28</v>
@@ -6522,19 +6545,19 @@
         <v>28</v>
       </c>
       <c r="U14" s="13" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="V14" s="13" t="s">
         <v>327</v>
       </c>
       <c r="W14" s="13" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="X14" s="12" t="s">
         <v>28</v>
       </c>
       <c r="Y14" s="13" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="Z14" s="13" t="s">
         <v>28</v>
@@ -6548,7 +6571,7 @@
     </row>
     <row r="15" spans="1:40" s="52" customFormat="1" ht="43.5">
       <c r="A15" s="46" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B15" s="46">
         <v>1</v>
@@ -6587,10 +6610,10 @@
         <v>19</v>
       </c>
       <c r="N15" s="26" t="s">
+        <v>339</v>
+      </c>
+      <c r="O15" s="69" t="s">
         <v>340</v>
-      </c>
-      <c r="O15" s="69" t="s">
-        <v>341</v>
       </c>
       <c r="P15" s="46" t="s">
         <v>148</v>
@@ -6670,7 +6693,7 @@
     </row>
     <row r="16" spans="1:40" s="52" customFormat="1">
       <c r="A16" s="46" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B16" s="46">
         <v>1</v>
@@ -6712,7 +6735,7 @@
         <v>327</v>
       </c>
       <c r="O16" s="69" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="P16" s="46" t="s">
         <v>148</v>
@@ -6792,7 +6815,7 @@
     </row>
     <row r="17" spans="1:40" s="52" customFormat="1" ht="29">
       <c r="A17" s="46" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B17" s="46">
         <v>1</v>
@@ -6834,7 +6857,7 @@
         <v>327</v>
       </c>
       <c r="O17" s="69" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="P17" s="46" t="s">
         <v>148</v>
@@ -6923,12 +6946,13 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="17.1796875" customWidth="1"/>
+    <col min="1" max="1" width="25.36328125" customWidth="1"/>
+    <col min="5" max="5" width="116.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="52" customFormat="1">
@@ -6942,7 +6966,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="52" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E1" s="25" t="s">
         <v>153</v>
@@ -6951,12 +6975,12 @@
         <v>152</v>
       </c>
       <c r="G1" s="52" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="46" customFormat="1" ht="12" customHeight="1">
       <c r="A2" s="46" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B2" s="46">
         <v>1</v>
@@ -6968,7 +6992,7 @@
         <v>19</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F2" s="46" t="s">
         <v>19</v>
@@ -6979,7 +7003,7 @@
     </row>
     <row r="3" spans="1:7" s="46" customFormat="1" ht="16">
       <c r="A3" s="46" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B3" s="46">
         <v>1</v>
@@ -6991,7 +7015,7 @@
         <v>19</v>
       </c>
       <c r="E3" s="70" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F3" s="46" t="s">
         <v>19</v>
@@ -7002,7 +7026,7 @@
     </row>
     <row r="4" spans="1:7" s="46" customFormat="1" ht="16">
       <c r="A4" s="46" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B4" s="46">
         <v>1</v>
@@ -7014,7 +7038,7 @@
         <v>19</v>
       </c>
       <c r="E4" s="70" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F4" s="46" t="s">
         <v>19</v>
@@ -7025,7 +7049,7 @@
     </row>
     <row r="5" spans="1:7" s="46" customFormat="1" ht="16">
       <c r="A5" s="46" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B5" s="46">
         <v>1</v>
@@ -7037,7 +7061,7 @@
         <v>19</v>
       </c>
       <c r="E5" s="70" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F5" s="46" t="s">
         <v>19</v>
@@ -7087,37 +7111,37 @@
         <v>2</v>
       </c>
       <c r="D1" s="52" t="s">
+        <v>349</v>
+      </c>
+      <c r="E1" s="52" t="s">
         <v>350</v>
       </c>
-      <c r="E1" s="52" t="s">
+      <c r="F1" s="52" t="s">
         <v>351</v>
       </c>
-      <c r="F1" s="52" t="s">
+      <c r="G1" s="52" t="s">
         <v>352</v>
       </c>
-      <c r="G1" s="52" t="s">
+      <c r="H1" s="52" t="s">
         <v>353</v>
       </c>
-      <c r="H1" s="52" t="s">
+      <c r="I1" s="52" t="s">
         <v>354</v>
       </c>
-      <c r="I1" s="52" t="s">
+      <c r="J1" s="52" t="s">
         <v>355</v>
       </c>
-      <c r="J1" s="52" t="s">
+      <c r="K1" s="52" t="s">
         <v>356</v>
       </c>
-      <c r="K1" s="52" t="s">
+      <c r="L1" s="5" t="s">
         <v>357</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>358</v>
       </c>
       <c r="M1" s="65" t="s">
         <v>212</v>
       </c>
       <c r="N1" s="65" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="O1" s="52"/>
       <c r="P1" s="52"/>
@@ -7154,7 +7178,7 @@
         <v>151</v>
       </c>
       <c r="K2" s="26" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="M2" s="26" t="s">
         <v>28</v>
@@ -7248,7 +7272,7 @@
         <v>19</v>
       </c>
       <c r="N4" s="52" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="O4" s="52"/>
       <c r="P4" s="52"/>
@@ -7301,13 +7325,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="29" t="s">
+        <v>361</v>
+      </c>
+      <c r="E1" s="29" t="s">
         <v>362</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="F1" s="52" t="s">
         <v>363</v>
-      </c>
-      <c r="F1" s="52" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -7318,7 +7342,7 @@
         <v>151</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D2" s="29" t="s">
         <v>19</v>
@@ -7332,7 +7356,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="29" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B3" s="29">
         <v>1</v>
@@ -7352,7 +7376,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="29" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B4" s="29">
         <v>2</v>
@@ -7372,7 +7396,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="29" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B5" s="52">
         <v>1</v>
@@ -7392,7 +7416,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="29" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B6" s="29">
         <v>1</v>
@@ -7412,7 +7436,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="29" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B7" s="29">
         <v>2</v>
@@ -7432,7 +7456,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="29" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B8" s="29">
         <v>1</v>
@@ -7452,7 +7476,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="29" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B9" s="29">
         <v>2</v>
@@ -7472,7 +7496,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="29" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B10" s="29">
         <v>1</v>
@@ -7492,7 +7516,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="29" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B11" s="29">
         <v>2</v>
@@ -7543,55 +7567,55 @@
         <v>2</v>
       </c>
       <c r="D1" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>371</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>372</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="12" t="s">
         <v>373</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="H1" s="12" t="s">
         <v>374</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="I1" s="12" t="s">
         <v>375</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="J1" s="12" t="s">
         <v>376</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="K1" s="12" t="s">
         <v>377</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="L1" s="12" t="s">
         <v>378</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="M1" s="12" t="s">
         <v>379</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="N1" s="12" t="s">
         <v>380</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="O1" s="12" t="s">
         <v>381</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="P1" s="12" t="s">
         <v>382</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="Q1" s="12" t="s">
         <v>383</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="R1" s="12" t="s">
         <v>384</v>
-      </c>
-      <c r="R1" s="12" t="s">
-        <v>385</v>
       </c>
       <c r="S1" s="12" t="s">
         <v>15</v>
       </c>
       <c r="T1" s="12" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="2" spans="1:20">
@@ -7611,7 +7635,7 @@
         <v>19</v>
       </c>
       <c r="F2" s="52" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G2" s="52" t="s">
         <v>151</v>
@@ -7647,7 +7671,7 @@
         <v>19</v>
       </c>
       <c r="R2" s="52" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="S2" s="52" t="s">
         <v>19</v>
@@ -7709,7 +7733,7 @@
         <v>19</v>
       </c>
       <c r="R3" s="46" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="S3" s="46" t="s">
         <v>19</v>
@@ -7771,7 +7795,7 @@
         <v>19</v>
       </c>
       <c r="R4" s="46" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="S4" s="46" t="s">
         <v>19</v>
@@ -7790,13 +7814,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC115C88-C50A-4C63-8FE8-A3BB8E337BDA}">
   <dimension ref="A1:T23"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="12.453125" customWidth="1"/>
+    <col min="1" max="1" width="14.81640625" customWidth="1"/>
     <col min="2" max="2" width="16.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.54296875" bestFit="1" customWidth="1"/>
@@ -7829,55 +7853,55 @@
         <v>2</v>
       </c>
       <c r="D1" s="43" t="s">
+        <v>388</v>
+      </c>
+      <c r="E1" s="43" t="s">
         <v>389</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="F1" s="43" t="s">
         <v>390</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="G1" s="43" t="s">
         <v>391</v>
-      </c>
-      <c r="G1" s="43" t="s">
-        <v>392</v>
       </c>
       <c r="H1" s="43" t="s">
         <v>13</v>
       </c>
       <c r="I1" s="43" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="J1" s="43" t="s">
         <v>4</v>
       </c>
       <c r="K1" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="L1" s="43" t="s">
         <v>383</v>
       </c>
-      <c r="L1" s="43" t="s">
-        <v>384</v>
-      </c>
       <c r="M1" s="43" t="s">
+        <v>393</v>
+      </c>
+      <c r="N1" s="42" t="s">
         <v>394</v>
       </c>
-      <c r="N1" s="42" t="s">
+      <c r="O1" s="42" t="s">
         <v>395</v>
       </c>
-      <c r="O1" s="42" t="s">
+      <c r="P1" s="42" t="s">
         <v>396</v>
       </c>
-      <c r="P1" s="42" t="s">
+      <c r="Q1" s="42" t="s">
         <v>397</v>
       </c>
-      <c r="Q1" s="42" t="s">
+      <c r="R1" s="42" t="s">
         <v>398</v>
       </c>
-      <c r="R1" s="42" t="s">
+      <c r="S1" s="42" t="s">
         <v>399</v>
       </c>
-      <c r="S1" s="42" t="s">
+      <c r="T1" s="42" t="s">
         <v>400</v>
-      </c>
-      <c r="T1" s="42" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="16" customFormat="1">
@@ -7891,13 +7915,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="46" t="s">
+        <v>401</v>
+      </c>
+      <c r="E2" s="46" t="s">
         <v>402</v>
       </c>
-      <c r="E2" s="46" t="s">
-        <v>403</v>
-      </c>
       <c r="F2" s="46" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G2" s="19" t="s">
         <v>59</v>
@@ -7953,13 +7977,13 @@
         <v>2</v>
       </c>
       <c r="D3" s="46" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E3" s="46" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F3" s="46" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G3" s="19" t="s">
         <v>59</v>
@@ -8018,10 +8042,10 @@
         <v>28</v>
       </c>
       <c r="E4" s="52" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F4" s="52" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G4" s="52" t="s">
         <v>28</v>
@@ -8042,28 +8066,28 @@
         <v>19</v>
       </c>
       <c r="M4" s="52" t="s">
+        <v>404</v>
+      </c>
+      <c r="N4" s="52" t="s">
         <v>405</v>
       </c>
-      <c r="N4" s="52" t="s">
-        <v>406</v>
-      </c>
       <c r="O4" s="52" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="P4" s="52" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="Q4" s="52" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="R4" s="52" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="S4" s="52" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="T4" s="52" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -8184,7 +8208,7 @@
         <v>28</v>
       </c>
       <c r="S6" s="51" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="T6" s="52" t="s">
         <v>28</v>
@@ -8201,13 +8225,13 @@
         <v>2</v>
       </c>
       <c r="D7" s="52" t="s">
+        <v>401</v>
+      </c>
+      <c r="E7" s="52" t="s">
         <v>402</v>
       </c>
-      <c r="E7" s="52" t="s">
-        <v>403</v>
-      </c>
       <c r="F7" s="52" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G7" s="52" t="s">
         <v>59</v>
@@ -8228,7 +8252,7 @@
         <v>19</v>
       </c>
       <c r="M7" s="52" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="N7" s="52" t="s">
         <v>28</v>
@@ -8263,13 +8287,13 @@
         <v>3</v>
       </c>
       <c r="D8" s="52" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E8" s="52" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F8" s="52" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G8" s="52" t="s">
         <v>59</v>
@@ -8290,7 +8314,7 @@
         <v>19</v>
       </c>
       <c r="M8" s="52" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="N8" s="52" t="s">
         <v>28</v>
@@ -8325,13 +8349,13 @@
         <v>1</v>
       </c>
       <c r="D9" s="52" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E9" s="52" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F9" s="52" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G9" s="52" t="s">
         <v>59</v>
@@ -8352,7 +8376,7 @@
         <v>19</v>
       </c>
       <c r="M9" s="52" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="N9" s="52" t="s">
         <v>28</v>
@@ -8387,13 +8411,13 @@
         <v>2</v>
       </c>
       <c r="D10" s="52" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E10" s="52" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F10" s="52" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G10" s="52" t="s">
         <v>59</v>
@@ -8414,7 +8438,7 @@
         <v>19</v>
       </c>
       <c r="M10" s="52" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="N10" s="52" t="s">
         <v>28</v>
@@ -8440,7 +8464,7 @@
     </row>
     <row r="11" spans="1:20" s="56" customFormat="1">
       <c r="A11" s="56" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B11" s="56">
         <v>1</v>
@@ -8449,13 +8473,13 @@
         <v>1</v>
       </c>
       <c r="D11" s="56" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E11" s="56" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F11" s="56" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G11" s="56" t="s">
         <v>28</v>
@@ -8502,7 +8526,7 @@
     </row>
     <row r="12" spans="1:20" s="56" customFormat="1">
       <c r="A12" s="56" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B12" s="56">
         <v>1</v>
@@ -8511,13 +8535,13 @@
         <v>2</v>
       </c>
       <c r="D12" s="56" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E12" s="56" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F12" s="56" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G12" s="56" t="s">
         <v>28</v>
@@ -8564,7 +8588,7 @@
     </row>
     <row r="13" spans="1:20">
       <c r="A13" s="52" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B13" s="52">
         <v>1</v>
@@ -8635,13 +8659,13 @@
         <v>1</v>
       </c>
       <c r="D14" s="52" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E14" s="52" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F14" s="52" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G14" s="52" t="s">
         <v>59</v>
@@ -8697,13 +8721,13 @@
         <v>2</v>
       </c>
       <c r="D15" s="52" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E15" s="52" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F15" s="52" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G15" s="52" t="s">
         <v>59</v>
@@ -8759,13 +8783,13 @@
         <v>3</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E16" s="52" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F16" s="52" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G16" s="52" t="s">
         <v>59</v>
@@ -8812,7 +8836,7 @@
     </row>
     <row r="17" spans="1:20" s="46" customFormat="1">
       <c r="A17" s="46" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B17" s="46">
         <v>1</v>
@@ -8821,13 +8845,13 @@
         <v>1</v>
       </c>
       <c r="D17" s="46" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E17" s="46" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F17" s="46" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G17" s="46" t="s">
         <v>59</v>
@@ -8874,7 +8898,7 @@
     </row>
     <row r="18" spans="1:20" s="46" customFormat="1">
       <c r="A18" s="46" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B18" s="46">
         <v>1</v>
@@ -8883,13 +8907,13 @@
         <v>2</v>
       </c>
       <c r="D18" s="46" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E18" s="46" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F18" s="46" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G18" s="46" t="s">
         <v>59</v>
@@ -8936,7 +8960,7 @@
     </row>
     <row r="19" spans="1:20" s="46" customFormat="1">
       <c r="A19" s="46" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B19" s="46">
         <v>1</v>
@@ -8945,13 +8969,13 @@
         <v>3</v>
       </c>
       <c r="D19" s="46" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E19" s="46" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F19" s="46" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G19" s="46" t="s">
         <v>59</v>
@@ -8996,86 +9020,86 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:20" s="46" customFormat="1">
-      <c r="A20" s="46" t="s">
-        <v>562</v>
-      </c>
-      <c r="B20" s="46">
-        <v>1</v>
-      </c>
-      <c r="C20" s="46">
-        <v>1</v>
-      </c>
-      <c r="D20" s="46" t="s">
-        <v>415</v>
-      </c>
-      <c r="E20" s="46" t="s">
-        <v>403</v>
-      </c>
-      <c r="F20" s="46" t="s">
-        <v>403</v>
-      </c>
-      <c r="G20" s="46" t="s">
+    <row r="20" spans="1:20">
+      <c r="A20" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="B20" s="5">
+        <v>1</v>
+      </c>
+      <c r="C20" s="5">
+        <v>1</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="G20" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="H20" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="I20" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="J20" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="K20" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="L20" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="M20" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="N20" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="O20" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="P20" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q20" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="R20" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="S20" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="T20" s="46" t="s">
+      <c r="H20" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M20" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="N20" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="O20" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="P20" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q20" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="R20" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="S20" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="T20" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B21" s="5">
         <v>1</v>
       </c>
       <c r="C21" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>59</v>
@@ -9096,7 +9120,7 @@
         <v>19</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="N21" s="5" t="s">
         <v>28</v>
@@ -9121,23 +9145,23 @@
       </c>
     </row>
     <row r="22" spans="1:20">
-      <c r="A22" s="5" t="s">
-        <v>334</v>
+      <c r="A22" s="7" t="s">
+        <v>415</v>
       </c>
       <c r="B22" s="5">
         <v>1</v>
       </c>
       <c r="C22" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>59</v>
@@ -9158,7 +9182,7 @@
         <v>19</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="N22" s="5" t="s">
         <v>28</v>
@@ -9182,65 +9206,65 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:20">
-      <c r="A23" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="B23" s="5">
-        <v>1</v>
-      </c>
-      <c r="C23" s="5">
-        <v>1</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>409</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J23" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K23" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L23" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="M23" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="N23" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="O23" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="P23" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q23" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="R23" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="S23" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="T23" s="5" t="s">
+    <row r="23" spans="1:20" s="31" customFormat="1">
+      <c r="A23" s="31" t="s">
+        <v>561</v>
+      </c>
+      <c r="B23" s="31">
+        <v>1</v>
+      </c>
+      <c r="C23" s="31">
+        <v>1</v>
+      </c>
+      <c r="D23" s="31" t="s">
+        <v>408</v>
+      </c>
+      <c r="E23" s="31" t="s">
+        <v>402</v>
+      </c>
+      <c r="F23" s="31" t="s">
+        <v>402</v>
+      </c>
+      <c r="G23" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="H23" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="I23" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="J23" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="K23" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="L23" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="M23" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="N23" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="O23" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="P23" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q23" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="R23" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="S23" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="T23" s="31" t="s">
         <v>28</v>
       </c>
     </row>
@@ -9986,25 +10010,25 @@
         <v>160</v>
       </c>
       <c r="E1" s="52" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F1" s="52" t="s">
         <v>163</v>
       </c>
       <c r="G1" s="52" t="s">
+        <v>417</v>
+      </c>
+      <c r="H1" s="52" t="s">
         <v>418</v>
       </c>
-      <c r="H1" s="52" t="s">
+      <c r="I1" s="52" t="s">
         <v>419</v>
       </c>
-      <c r="I1" s="52" t="s">
+      <c r="J1" s="52" t="s">
         <v>420</v>
       </c>
-      <c r="J1" s="52" t="s">
+      <c r="K1" s="52" t="s">
         <v>421</v>
-      </c>
-      <c r="K1" s="52" t="s">
-        <v>422</v>
       </c>
       <c r="L1" s="52" t="s">
         <v>194</v>
@@ -10027,31 +10051,31 @@
         <v>1</v>
       </c>
       <c r="D2" s="34" t="s">
+        <v>422</v>
+      </c>
+      <c r="E2" s="34" t="s">
         <v>423</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>424</v>
       </c>
       <c r="F2" s="34" t="s">
         <v>168</v>
       </c>
       <c r="G2" s="34" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H2" s="34" t="s">
         <v>103</v>
       </c>
       <c r="I2" s="34" t="s">
+        <v>425</v>
+      </c>
+      <c r="J2" s="34" t="s">
         <v>426</v>
       </c>
-      <c r="J2" s="34" t="s">
+      <c r="K2" s="34" t="s">
         <v>427</v>
       </c>
-      <c r="K2" s="34" t="s">
+      <c r="L2" s="34" t="s">
         <v>428</v>
-      </c>
-      <c r="L2" s="34" t="s">
-        <v>429</v>
       </c>
       <c r="M2" s="34" t="s">
         <v>19</v>
@@ -10098,13 +10122,13 @@
         <v>184</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>117</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>176</v>
@@ -10187,76 +10211,76 @@
         <v>2</v>
       </c>
       <c r="D1" s="40" t="s">
+        <v>431</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>433</v>
-      </c>
       <c r="F1" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>208</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I1" s="52" t="s">
+        <v>433</v>
+      </c>
+      <c r="J1" s="52" t="s">
         <v>434</v>
       </c>
-      <c r="J1" s="52" t="s">
+      <c r="K1" s="52" t="s">
         <v>435</v>
       </c>
-      <c r="K1" s="52" t="s">
+      <c r="L1" s="52" t="s">
         <v>436</v>
       </c>
-      <c r="L1" s="52" t="s">
+      <c r="M1" s="52" t="s">
         <v>437</v>
       </c>
-      <c r="M1" s="52" t="s">
+      <c r="N1" s="52" t="s">
         <v>438</v>
       </c>
-      <c r="N1" s="52" t="s">
+      <c r="O1" s="52" t="s">
         <v>439</v>
       </c>
-      <c r="O1" s="52" t="s">
+      <c r="P1" s="52" t="s">
         <v>440</v>
       </c>
-      <c r="P1" s="52" t="s">
+      <c r="Q1" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>447</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>448</v>
       </c>
       <c r="X1" s="2" t="s">
         <v>50</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="Z1" s="2" t="s">
         <v>52</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AB1" s="52"/>
       <c r="AC1" s="52"/>
@@ -10288,7 +10312,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="52" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E2" s="52" t="s">
         <v>238</v>
@@ -10377,7 +10401,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E3" s="52" t="s">
         <v>238</v>
@@ -10469,7 +10493,7 @@
         <v>19</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F4" s="52" t="s">
         <v>238</v>
@@ -10566,7 +10590,7 @@
         <v>19</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F5" s="52" t="s">
         <v>238</v>
@@ -11041,94 +11065,94 @@
         <v>2</v>
       </c>
       <c r="D1" s="52" t="s">
+        <v>453</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="10" t="s">
         <v>455</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="10" t="s">
         <v>461</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="M1" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="52" t="s">
         <v>466</v>
       </c>
-      <c r="Q1" s="52" t="s">
+      <c r="R1" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="3" t="s">
         <v>474</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Z1" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AC1" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>482</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="2" spans="1:33">
@@ -11834,37 +11858,37 @@
         <v>2</v>
       </c>
       <c r="D1" s="52" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F1" s="41" t="s">
+        <v>483</v>
+      </c>
+      <c r="G1" s="22" t="s">
         <v>484</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>485</v>
       </c>
       <c r="H1" s="41" t="s">
         <v>66</v>
       </c>
       <c r="I1" s="41" t="s">
+        <v>485</v>
+      </c>
+      <c r="J1" s="41" t="s">
         <v>486</v>
       </c>
-      <c r="J1" s="41" t="s">
+      <c r="K1" s="41" t="s">
         <v>487</v>
       </c>
-      <c r="K1" s="41" t="s">
+      <c r="L1" s="41" t="s">
         <v>488</v>
       </c>
-      <c r="L1" s="41" t="s">
+      <c r="M1" s="41" t="s">
         <v>489</v>
       </c>
-      <c r="M1" s="41" t="s">
+      <c r="N1" s="41" t="s">
         <v>490</v>
-      </c>
-      <c r="N1" s="41" t="s">
-        <v>491</v>
       </c>
       <c r="O1" s="41" t="s">
         <v>96</v>
@@ -11908,7 +11932,7 @@
         <v>28</v>
       </c>
       <c r="M2" s="64" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="N2" s="57" t="s">
         <v>149</v>
@@ -11955,7 +11979,7 @@
         <v>28</v>
       </c>
       <c r="M3" s="64" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="N3" s="57" t="s">
         <v>30</v>
@@ -12139,103 +12163,103 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>494</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>495</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G1" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>496</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>497</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>498</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="L1" s="5" t="s">
         <v>499</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="M1" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="AA1" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="AB1" s="5" t="s">
         <v>499</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="AC1" s="5" t="s">
         <v>500</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="AD1" s="5" t="s">
         <v>501</v>
       </c>
-      <c r="N1" s="5" t="s">
-        <v>502</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>498</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>503</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>504</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>505</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>506</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>507</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>508</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>496</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>509</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>504</v>
-      </c>
-      <c r="Y1" s="5" t="s">
-        <v>510</v>
-      </c>
-      <c r="Z1" s="5" t="s">
-        <v>498</v>
-      </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AE1" s="5" t="s">
         <v>511</v>
       </c>
-      <c r="AB1" s="5" t="s">
-        <v>500</v>
-      </c>
-      <c r="AC1" s="5" t="s">
-        <v>501</v>
-      </c>
-      <c r="AD1" s="5" t="s">
-        <v>502</v>
-      </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AF1" s="5" t="s">
         <v>512</v>
       </c>
-      <c r="AF1" s="5" t="s">
+      <c r="AG1" s="5" t="s">
         <v>513</v>
       </c>
-      <c r="AG1" s="5" t="s">
+      <c r="AH1" s="5" t="s">
         <v>514</v>
       </c>
-      <c r="AH1" s="5" t="s">
-        <v>515</v>
-      </c>
       <c r="AI1" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="AJ1" s="5" t="s">
         <v>494</v>
-      </c>
-      <c r="AJ1" s="5" t="s">
-        <v>495</v>
       </c>
       <c r="AK1" s="5" t="s">
         <v>13</v>
@@ -12244,7 +12268,7 @@
     </row>
     <row r="2" spans="1:38">
       <c r="A2" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -12289,13 +12313,13 @@
         <v>28</v>
       </c>
       <c r="P2" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="Q2" s="5" t="s">
         <v>516</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="R2" s="5" t="s">
         <v>517</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>518</v>
       </c>
       <c r="S2" s="49"/>
       <c r="T2" s="49"/>
@@ -12306,10 +12330,10 @@
         <v>28</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="Y2" s="5" t="s">
         <v>216</v>
@@ -12318,7 +12342,7 @@
         <v>28</v>
       </c>
       <c r="AA2" s="5" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AB2" s="5">
         <v>4</v>
@@ -12378,34 +12402,34 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>522</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>509</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>504</v>
-      </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>523</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>524</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>525</v>
       </c>
       <c r="L1" s="49"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -12463,28 +12487,28 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>526</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>528</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>529</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>530</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>531</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>532</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>117</v>
@@ -12495,7 +12519,7 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -12511,10 +12535,10 @@
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>533</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>534</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>28</v>
@@ -12561,87 +12585,87 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>535</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>536</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>537</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>66</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="K1" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="L1" s="5" t="s">
         <v>538</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>539</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>540</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>542</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>543</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>544</v>
       </c>
       <c r="R1" s="5" t="s">
         <v>153</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="T1" s="5" t="s">
         <v>152</v>
       </c>
       <c r="U1" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="V1" s="5" t="s">
         <v>546</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="Y1" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
         <v>550</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AA1" s="5" t="s">
         <v>551</v>
-      </c>
-      <c r="AA1" s="5" t="s">
-        <v>552</v>
       </c>
       <c r="AB1" s="5" t="s">
         <v>245</v>
       </c>
       <c r="AC1" s="52" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="2" spans="1:29">
       <c r="A2" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -12677,16 +12701,16 @@
         <v>149</v>
       </c>
       <c r="O2" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="P2" s="5" t="s">
         <v>554</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>555</v>
       </c>
       <c r="Q2" s="5" t="s">
         <v>179</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="S2" s="5" t="s">
         <v>28</v>
@@ -12701,24 +12725,24 @@
         <v>179</v>
       </c>
       <c r="W2" s="52" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="X2" s="52" t="s">
         <v>149</v>
       </c>
       <c r="Y2" s="52"/>
       <c r="Z2" s="52" t="s">
+        <v>557</v>
+      </c>
+      <c r="AA2" s="52" t="s">
         <v>558</v>
-      </c>
-      <c r="AA2" s="52" t="s">
-        <v>559</v>
       </c>
       <c r="AB2" s="52"/>
       <c r="AC2" s="52"/>
     </row>
     <row r="3" spans="1:29">
       <c r="A3" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B3" s="5">
         <v>1</v>
@@ -12769,7 +12793,7 @@
         <v>179</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="S3" s="5" t="s">
         <v>28</v>
@@ -15835,6 +15859,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -16051,26 +16094,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{360C765C-5108-4856-B14E-979324B41D25}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{527B0702-8AF4-4307-A34D-2633AC2397ED}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBA5B558-DFC3-420B-A09B-072555AB09C7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -16089,24 +16131,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{527B0702-8AF4-4307-A34D-2633AC2397ED}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{360C765C-5108-4856-B14E-979324B41D25}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{ea60d57e-af5b-4752-ac57-3e4f28ca11dc}" enabled="1" method="Standard" siteId="{36da45f1-dd2c-4d1f-af13-5abe46b99921}" contentBits="0" removed="0"/>

--- a/Folio.xlsx
+++ b/Folio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EA93222-7D7E-4A0D-A910-EBEBE0E8CBE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC09C4D7-A9EA-4275-AD13-24348DE42C92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-180" yWindow="1160" windowWidth="19200" windowHeight="5540" firstSheet="9" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Allegations" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3222" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2992" uniqueCount="564">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -359,6 +359,9 @@
     <t>TOAST_MSG_VERIFY</t>
   </si>
   <si>
+    <t>DOCUMENTATION_STATUS</t>
+  </si>
+  <si>
     <t>Consult with Attorney</t>
   </si>
   <si>
@@ -383,6 +386,9 @@
     <t>randomText</t>
   </si>
   <si>
+    <t>Final</t>
+  </si>
+  <si>
     <t>Victim1,Victim2,folioPersonName2</t>
   </si>
   <si>
@@ -419,9 +425,6 @@
     <t>CONTINUED_ICWA_INQUIRY</t>
   </si>
   <si>
-    <t>DOCUMENTATION_STATUS</t>
-  </si>
-  <si>
     <t>FOL_TRIBAL_CONTACTID_VERIFY</t>
   </si>
   <si>
@@ -512,9 +515,6 @@
     <t>Continue to Inquire</t>
   </si>
   <si>
-    <t>Final</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
@@ -563,6 +563,9 @@
     <t>ASSIGNMENT_DESK</t>
   </si>
   <si>
+    <t>PRIMARY_WORKER</t>
+  </si>
+  <si>
     <t>Child Welfare Court</t>
   </si>
   <si>
@@ -575,6 +578,9 @@
     <t>Family Maintenance No Placement</t>
   </si>
   <si>
+    <t>CMWorkerContraCosta</t>
+  </si>
+  <si>
     <t>RELATED_FOLIOS_TAB</t>
   </si>
   <si>
@@ -734,9 +740,6 @@
     <t>testT4258</t>
   </si>
   <si>
-    <t>CMWorkerContraCosta</t>
-  </si>
-  <si>
     <t>Placement Worker</t>
   </si>
   <si>
@@ -1070,7 +1073,7 @@
     <t>Missing Youth Photo</t>
   </si>
   <si>
-    <t>testimage.png</t>
+    <t>testimage.jpeg</t>
   </si>
   <si>
     <t>Profile Photo</t>
@@ -1344,9 +1347,6 @@
   </si>
   <si>
     <t>STATE</t>
-  </si>
-  <si>
-    <t>PRIMARY_WORKER</t>
   </si>
   <si>
     <t>Child Welfare Voluntary</t>
@@ -1781,45 +1781,6 @@
   </si>
   <si>
     <t>SOC 157B - Supervised Independent Living Placement (SILP) Inspection: Checklist of Facility Health and Safety Standards</t>
-  </si>
-  <si>
-    <t>NEW_BUTTON</t>
-  </si>
-  <si>
-    <t>TRIBAL_INFO_TAB</t>
-  </si>
-  <si>
-    <t>TRIBAL_NAME</t>
-  </si>
-  <si>
-    <t>CHILD_MEMBERSHIP_STATUS</t>
-  </si>
-  <si>
-    <t>TRIBE_LOCATION</t>
-  </si>
-  <si>
-    <t>ENROLLMENT_START_DATE</t>
-  </si>
-  <si>
-    <t>SAVE_AND_PROCEED</t>
-  </si>
-  <si>
-    <t>POTENTIAL_TRIBAL_AFFILIATION</t>
-  </si>
-  <si>
-    <t>New Tribe</t>
-  </si>
-  <si>
-    <t>Enrolled</t>
-  </si>
-  <si>
-    <t>America</t>
-  </si>
-  <si>
-    <t>Reason To Know</t>
-  </si>
-  <si>
-    <t>testT4149</t>
   </si>
 </sst>
 </file>
@@ -2042,7 +2003,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2125,12 +2086,7 @@
     <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink 2" xfId="1" xr:uid="{0244CCC0-C70B-4F46-AB95-4E0A98C0C68C}"/>
@@ -2449,7 +2405,7 @@
   <dimension ref="A1:Y13"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3304,8 +3260,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC3F944F-1B63-4F82-AF7C-B1A12F6C23D1}">
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3334,31 +3290,31 @@
         <v>2</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F1" s="40" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G1" s="40" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="I1" s="40" t="s">
         <v>13</v>
       </c>
       <c r="J1" s="40" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K1" s="40" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="M1" s="51"/>
     </row>
@@ -3373,9 +3329,9 @@
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="E2" s="65" t="s">
+        <v>181</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>456</v>
       </c>
       <c r="F2" s="5"/>
@@ -3389,43 +3345,44 @@
       <c r="L2" s="51"/>
       <c r="M2" s="51"/>
     </row>
-    <row r="3" spans="1:13" s="46" customFormat="1">
-      <c r="A3" s="65" t="s">
+    <row r="3" spans="1:13" s="16" customFormat="1">
+      <c r="A3" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="65">
-        <v>1</v>
-      </c>
-      <c r="C3" s="65">
-        <v>1</v>
-      </c>
-      <c r="D3" s="65" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="65" t="s">
+      <c r="B3" s="49">
+        <v>1</v>
+      </c>
+      <c r="C3" s="49">
+        <v>1</v>
+      </c>
+      <c r="D3" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="F3" s="65" t="s">
-        <v>201</v>
-      </c>
-      <c r="G3" s="65" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="77" t="s">
+      <c r="F3" s="49" t="s">
+        <v>203</v>
+      </c>
+      <c r="G3" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="I3" s="65" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="65" t="s">
-        <v>149</v>
-      </c>
-      <c r="K3" s="65" t="s">
-        <v>202</v>
-      </c>
-      <c r="L3" s="65" t="s">
+      <c r="I3" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="49" t="s">
+        <v>149</v>
+      </c>
+      <c r="K3" s="49" t="s">
+        <v>204</v>
+      </c>
+      <c r="L3" s="49" t="s">
         <v>59</v>
       </c>
+      <c r="M3" s="46"/>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="49" t="s">
@@ -3438,7 +3395,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="49" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E4" s="49" t="s">
         <v>30</v>
@@ -3459,7 +3416,7 @@
         <v>30</v>
       </c>
       <c r="K4" s="49" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="L4" s="49" t="s">
         <v>30</v>
@@ -3477,7 +3434,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="49" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E5" s="49" t="s">
         <v>30</v>
@@ -3498,7 +3455,7 @@
         <v>30</v>
       </c>
       <c r="K5" s="49" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="L5" s="49" t="s">
         <v>30</v>
@@ -3516,7 +3473,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="51" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E6" s="40" t="s">
         <v>28</v>
@@ -3557,11 +3514,11 @@
       <c r="D7" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="65" t="s">
+      <c r="E7" s="5" t="s">
         <v>456</v>
       </c>
       <c r="F7" s="71" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="G7" s="70" t="s">
         <v>19</v>
@@ -3576,7 +3533,7 @@
         <v>149</v>
       </c>
       <c r="K7" s="70" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="L7" s="70"/>
       <c r="M7" s="70"/>
@@ -3592,7 +3549,7 @@
   <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView zoomScale="95" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:P6"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3621,37 +3578,37 @@
         <v>2</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E1" s="40" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="40" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G1" s="40" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H1" s="40" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="I1" s="40" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="J1" s="40" t="s">
         <v>13</v>
       </c>
       <c r="K1" s="40" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="L1" s="40" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="M1" s="40" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="N1" s="51" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="O1" s="51"/>
       <c r="P1" s="51"/>
@@ -3667,13 +3624,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="40" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E2" s="40" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F2" s="40" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G2" s="40" t="s">
         <v>19</v>
@@ -3682,16 +3639,16 @@
         <v>59</v>
       </c>
       <c r="I2" s="40" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="J2" s="40" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K2" s="40" t="s">
         <v>19</v>
       </c>
       <c r="L2" s="40" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="M2" s="51"/>
       <c r="N2" s="51"/>
@@ -3709,13 +3666,13 @@
         <v>2</v>
       </c>
       <c r="D3" s="40" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E3" s="40" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F3" s="43" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="G3" s="40" t="s">
         <v>19</v>
@@ -3724,16 +3681,16 @@
         <v>59</v>
       </c>
       <c r="I3" s="40" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="J3" s="40" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K3" s="40" t="s">
         <v>19</v>
       </c>
       <c r="L3" s="40" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="M3" s="51"/>
       <c r="N3" s="51"/>
@@ -3742,7 +3699,7 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="51" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B4" s="51">
         <v>1</v>
@@ -3751,13 +3708,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="51" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E4" s="51" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F4" s="40" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G4" s="51" t="s">
         <v>19</v>
@@ -3766,16 +3723,16 @@
         <v>59</v>
       </c>
       <c r="I4" s="40" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="J4" s="40" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K4" s="40" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="L4" s="40" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="M4" s="40" t="s">
         <v>19</v>
@@ -3786,7 +3743,7 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="51" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B5" s="51">
         <v>1</v>
@@ -3798,10 +3755,10 @@
         <v>19</v>
       </c>
       <c r="E5" s="51" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F5" s="51" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G5" s="51" t="s">
         <v>19</v>
@@ -3810,10 +3767,10 @@
         <v>59</v>
       </c>
       <c r="I5" s="40" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="J5" s="40" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K5" s="51" t="s">
         <v>28</v>
@@ -3832,7 +3789,7 @@
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="70" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B6" s="70">
         <v>1</v>
@@ -3844,10 +3801,10 @@
         <v>19</v>
       </c>
       <c r="E6" s="70" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F6" s="70" t="s">
-        <v>222</v>
+        <v>170</v>
       </c>
       <c r="G6" s="70" t="s">
         <v>19</v>
@@ -3856,10 +3813,10 @@
         <v>59</v>
       </c>
       <c r="I6" s="71" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="J6" s="71" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K6" s="70" t="s">
         <v>28</v>
@@ -3913,43 +3870,43 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -3963,37 +3920,37 @@
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M2" s="5" t="s">
         <v>59</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="O2" s="51"/>
       <c r="P2" s="51"/>
@@ -4021,19 +3978,19 @@
         <v>28</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>28</v>
       </c>
       <c r="J3" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="5" t="s">
         <v>241</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>240</v>
       </c>
       <c r="M3" s="5" t="s">
         <v>59</v>
@@ -4042,10 +3999,10 @@
         <v>19</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -4504,43 +4461,43 @@
         <v>2</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E1" s="40" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="41" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G1" s="41" t="s">
         <v>66</v>
       </c>
       <c r="H1" s="41" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="J1" s="51" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="K1" s="41" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L1" s="41" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M1" s="41" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N1" s="41" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O1" s="41" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="P1" s="41" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q1" s="41" t="s">
         <v>13</v>
@@ -4549,43 +4506,43 @@
         <v>15</v>
       </c>
       <c r="S1" s="41" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="T1" s="41" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="U1" s="41" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="V1" s="41" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="W1" s="41" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="X1" s="41" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Y1" s="41" t="s">
         <v>152</v>
       </c>
       <c r="Z1" s="41" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AA1" s="41" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AB1" s="41" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AC1" s="41" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AD1" s="41" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AE1" s="41" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AF1" s="51"/>
       <c r="AG1" s="51"/>
@@ -4602,22 +4559,22 @@
         <v>1</v>
       </c>
       <c r="D2" s="51" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E2" s="51" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F2" s="51" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G2" s="51" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H2" s="51" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="I2" s="51" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="J2" s="51" t="s">
         <v>149</v>
@@ -4649,7 +4606,7 @@
     </row>
     <row r="3" spans="1:34">
       <c r="A3" s="51" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B3" s="51">
         <v>1</v>
@@ -4658,27 +4615,27 @@
         <v>1</v>
       </c>
       <c r="D3" s="51" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E3" s="51" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F3" s="51"/>
       <c r="G3" s="51" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H3" s="51"/>
       <c r="I3" s="51"/>
       <c r="J3" s="51"/>
       <c r="K3" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="51" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N3" s="51" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="O3" s="51"/>
       <c r="P3" s="51"/>
@@ -4715,7 +4672,7 @@
         <v>19</v>
       </c>
       <c r="E4" s="46" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F4" s="46" t="s">
         <v>19</v>
@@ -4727,16 +4684,16 @@
         <v>34</v>
       </c>
       <c r="I4" s="46" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="J4" s="46" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K4" s="46" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L4" s="29" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M4" s="44"/>
       <c r="N4" s="44"/>
@@ -4752,41 +4709,41 @@
         <v>149</v>
       </c>
       <c r="T4" s="46" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="U4" s="46" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="V4" s="46" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="W4" s="46" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="X4" s="46"/>
       <c r="Y4" s="46" t="s">
         <v>149</v>
       </c>
       <c r="Z4" s="46" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AA4" s="46" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AB4" s="46" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AC4" s="46" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AD4" s="46" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AE4" s="46" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AF4" s="46" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AG4" s="46" t="s">
         <v>149</v>
@@ -4807,7 +4764,7 @@
         <v>19</v>
       </c>
       <c r="E5" s="46" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F5" s="46" t="s">
         <v>151</v>
@@ -4834,13 +4791,13 @@
         <v>19</v>
       </c>
       <c r="N5" s="45" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="O5" s="46" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="P5" s="46" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q5" s="46" t="s">
         <v>19</v>
@@ -4849,12 +4806,12 @@
       <c r="S5" s="46"/>
       <c r="T5" s="46"/>
       <c r="U5" s="46" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="V5" s="46"/>
       <c r="W5" s="46"/>
       <c r="X5" s="46" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Y5" s="46"/>
       <c r="Z5" s="46"/>
@@ -4929,7 +4886,7 @@
         <v>28</v>
       </c>
       <c r="U6" s="51" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="V6" s="51" t="s">
         <v>28</v>
@@ -4970,8 +4927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{065689CF-B8B7-4123-B223-FA611E0B0CC8}">
   <dimension ref="A1:AN17"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -5031,109 +4988,109 @@
         <v>152</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F1" s="40" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G1" s="40" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H1" s="40" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="I1" s="40" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="J1" s="40" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K1" s="40" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L1" s="40" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M1" s="40" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N1" s="40" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="O1" s="40" t="s">
         <v>153</v>
       </c>
       <c r="P1" s="40" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q1" s="43" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="R1" s="43" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S1" s="40" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="T1" s="40" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="U1" s="40" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="V1" s="40" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="W1" s="40" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="X1" s="40" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Y1" s="40" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Z1" s="40" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AA1" s="40" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AB1" s="40" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AC1" s="40" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AD1" s="40" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AE1" s="40" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AF1" s="40" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AG1" s="40" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AH1" s="40" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AI1" s="71" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AJ1" s="40" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AK1" s="40" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AL1" s="40" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AM1" s="40" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AN1" s="40" t="s">
         <v>96</v>
@@ -5180,19 +5137,19 @@
         <v>19</v>
       </c>
       <c r="N2" s="49" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="O2" s="49" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="P2" s="49" t="s">
-        <v>148</v>
+        <v>106</v>
       </c>
       <c r="Q2" s="49" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="R2" s="49" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="S2" s="49" t="s">
         <v>19</v>
@@ -5225,10 +5182,10 @@
         <v>30</v>
       </c>
       <c r="AC2" s="49" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AD2" s="49" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AE2" s="49" t="s">
         <v>30</v>
@@ -5258,7 +5215,7 @@
         <v>30</v>
       </c>
       <c r="AN2" s="49" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="3" spans="1:40" s="46" customFormat="1">
@@ -5302,19 +5259,19 @@
         <v>19</v>
       </c>
       <c r="N3" s="49" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="O3" s="49" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="P3" s="49" t="s">
-        <v>148</v>
+        <v>106</v>
       </c>
       <c r="Q3" s="49" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="R3" s="49" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="S3" s="49" t="s">
         <v>19</v>
@@ -5424,10 +5381,10 @@
         <v>28</v>
       </c>
       <c r="N4" s="49" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="O4" s="49" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="P4" s="49" t="s">
         <v>28</v>
@@ -5466,7 +5423,7 @@
         <v>149</v>
       </c>
       <c r="AB4" s="49" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AC4" s="49" t="s">
         <v>30</v>
@@ -5588,7 +5545,7 @@
         <v>149</v>
       </c>
       <c r="AB5" s="49" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AC5" s="49" t="s">
         <v>30</v>
@@ -5710,7 +5667,7 @@
         <v>149</v>
       </c>
       <c r="AB6" s="49" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AC6" s="49" t="s">
         <v>30</v>
@@ -5832,7 +5789,7 @@
         <v>149</v>
       </c>
       <c r="AB7" s="49" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AC7" s="49" t="s">
         <v>30</v>
@@ -5954,7 +5911,7 @@
         <v>149</v>
       </c>
       <c r="AB8" s="49" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AC8" s="49" t="s">
         <v>30</v>
@@ -6034,19 +5991,19 @@
         <v>19</v>
       </c>
       <c r="N9" s="49" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="O9" s="49" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="P9" s="49" t="s">
-        <v>148</v>
+        <v>106</v>
       </c>
       <c r="Q9" s="49" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="R9" s="62" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="S9" s="49" t="s">
         <v>19</v>
@@ -6076,7 +6033,7 @@
         <v>149</v>
       </c>
       <c r="AB9" s="49" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AC9" s="49" t="s">
         <v>30</v>
@@ -6109,7 +6066,7 @@
         <v>149</v>
       </c>
       <c r="AM9" s="49" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AN9" s="49" t="s">
         <v>30</v>
@@ -6117,7 +6074,7 @@
     </row>
     <row r="10" spans="1:40">
       <c r="A10" s="46" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B10" s="51">
         <v>1</v>
@@ -6156,19 +6113,19 @@
         <v>19</v>
       </c>
       <c r="N10" s="51" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O10" s="51" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="P10" s="51" t="s">
-        <v>148</v>
+        <v>106</v>
       </c>
       <c r="Q10" s="51" t="s">
-        <v>28</v>
+        <v>314</v>
       </c>
       <c r="R10" s="54" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="S10" s="51" t="s">
         <v>19</v>
@@ -6198,7 +6155,7 @@
         <v>151</v>
       </c>
       <c r="AB10" s="54" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AC10" s="51"/>
       <c r="AD10" s="51"/>
@@ -6233,7 +6190,7 @@
     </row>
     <row r="11" spans="1:40">
       <c r="A11" s="46" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B11" s="51">
         <v>1</v>
@@ -6272,19 +6229,19 @@
         <v>19</v>
       </c>
       <c r="N11" s="51" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="O11" s="51" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="P11" s="51" t="s">
-        <v>148</v>
+        <v>106</v>
       </c>
       <c r="Q11" s="51" t="s">
-        <v>28</v>
+        <v>314</v>
       </c>
       <c r="R11" s="54" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="S11" s="51" t="s">
         <v>19</v>
@@ -6314,7 +6271,7 @@
         <v>19</v>
       </c>
       <c r="AB11" s="54" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AC11" s="49" t="s">
         <v>28</v>
@@ -6353,7 +6310,7 @@
     </row>
     <row r="12" spans="1:40" s="51" customFormat="1">
       <c r="A12" s="46" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B12" s="46">
         <v>1</v>
@@ -6392,19 +6349,19 @@
         <v>19</v>
       </c>
       <c r="N12" s="46" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="O12" s="46" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="P12" s="46" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q12" s="46" t="s">
-        <v>28</v>
+        <v>106</v>
+      </c>
+      <c r="Q12" s="51" t="s">
+        <v>314</v>
       </c>
       <c r="R12" s="46" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="S12" s="46" t="s">
         <v>19</v>
@@ -6475,7 +6432,7 @@
     </row>
     <row r="13" spans="1:40" s="51" customFormat="1">
       <c r="A13" s="46" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B13" s="46">
         <v>1</v>
@@ -6514,19 +6471,19 @@
         <v>19</v>
       </c>
       <c r="N13" s="46" t="s">
+        <v>336</v>
+      </c>
+      <c r="O13" s="46" t="s">
+        <v>337</v>
+      </c>
+      <c r="P13" s="46" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q13" s="51" t="s">
+        <v>314</v>
+      </c>
+      <c r="R13" s="46" t="s">
         <v>335</v>
-      </c>
-      <c r="O13" s="46" t="s">
-        <v>336</v>
-      </c>
-      <c r="P13" s="46" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q13" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="R13" s="46" t="s">
-        <v>334</v>
       </c>
       <c r="S13" s="46" t="s">
         <v>19</v>
@@ -6597,7 +6554,7 @@
     </row>
     <row r="14" spans="1:40" s="12" customFormat="1">
       <c r="A14" s="12" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B14" s="12">
         <v>1</v>
@@ -6636,40 +6593,40 @@
         <v>19</v>
       </c>
       <c r="N14" s="12" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="O14" s="12" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="P14" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q14" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="R14" s="13" t="s">
+        <v>315</v>
+      </c>
+      <c r="S14" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="T14" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="U14" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="V14" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="W14" s="13" t="s">
         <v>339</v>
       </c>
-      <c r="Q14" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="R14" s="13" t="s">
-        <v>314</v>
-      </c>
-      <c r="S14" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="T14" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="U14" s="13" t="s">
-        <v>340</v>
-      </c>
-      <c r="V14" s="13" t="s">
-        <v>330</v>
-      </c>
-      <c r="W14" s="13" t="s">
-        <v>338</v>
-      </c>
       <c r="X14" s="12" t="s">
         <v>28</v>
       </c>
       <c r="Y14" s="13" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Z14" s="13" t="s">
         <v>28</v>
@@ -6683,7 +6640,7 @@
     </row>
     <row r="15" spans="1:40" s="51" customFormat="1" ht="43.5">
       <c r="A15" s="46" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B15" s="46">
         <v>1</v>
@@ -6722,19 +6679,19 @@
         <v>19</v>
       </c>
       <c r="N15" s="26" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="O15" s="68" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="P15" s="46" t="s">
-        <v>148</v>
+        <v>106</v>
       </c>
       <c r="Q15" s="46" t="s">
         <v>28</v>
       </c>
       <c r="R15" s="46" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="S15" s="46" t="s">
         <v>19</v>
@@ -6805,7 +6762,7 @@
     </row>
     <row r="16" spans="1:40" s="51" customFormat="1">
       <c r="A16" s="46" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B16" s="46">
         <v>1</v>
@@ -6844,19 +6801,19 @@
         <v>19</v>
       </c>
       <c r="N16" s="26" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="O16" s="68" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="P16" s="46" t="s">
-        <v>148</v>
+        <v>106</v>
       </c>
       <c r="Q16" s="46" t="s">
         <v>28</v>
       </c>
       <c r="R16" s="46" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="S16" s="46" t="s">
         <v>19</v>
@@ -6927,7 +6884,7 @@
     </row>
     <row r="17" spans="1:40" s="51" customFormat="1" ht="29">
       <c r="A17" s="46" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B17" s="46">
         <v>1</v>
@@ -6966,19 +6923,19 @@
         <v>19</v>
       </c>
       <c r="N17" s="26" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="O17" s="68" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="P17" s="46" t="s">
-        <v>148</v>
+        <v>106</v>
       </c>
       <c r="Q17" s="46" t="s">
         <v>28</v>
       </c>
       <c r="R17" s="46" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="S17" s="46" t="s">
         <v>19</v>
@@ -7078,7 +7035,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="51" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E1" s="25" t="s">
         <v>153</v>
@@ -7087,12 +7044,12 @@
         <v>152</v>
       </c>
       <c r="G1" s="51" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="46" customFormat="1" ht="12" customHeight="1">
       <c r="A2" s="46" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B2" s="46">
         <v>1</v>
@@ -7104,7 +7061,7 @@
         <v>19</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F2" s="46" t="s">
         <v>19</v>
@@ -7115,7 +7072,7 @@
     </row>
     <row r="3" spans="1:7" s="46" customFormat="1" ht="16">
       <c r="A3" s="46" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B3" s="46">
         <v>1</v>
@@ -7127,7 +7084,7 @@
         <v>19</v>
       </c>
       <c r="E3" s="69" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F3" s="46" t="s">
         <v>19</v>
@@ -7138,7 +7095,7 @@
     </row>
     <row r="4" spans="1:7" s="46" customFormat="1" ht="16">
       <c r="A4" s="46" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B4" s="46">
         <v>1</v>
@@ -7150,7 +7107,7 @@
         <v>19</v>
       </c>
       <c r="E4" s="69" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F4" s="46" t="s">
         <v>19</v>
@@ -7161,7 +7118,7 @@
     </row>
     <row r="5" spans="1:7" s="46" customFormat="1" ht="16">
       <c r="A5" s="46" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B5" s="46">
         <v>1</v>
@@ -7173,7 +7130,7 @@
         <v>19</v>
       </c>
       <c r="E5" s="69" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F5" s="46" t="s">
         <v>19</v>
@@ -7223,37 +7180,37 @@
         <v>2</v>
       </c>
       <c r="D1" s="51" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E1" s="51" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F1" s="51" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="G1" s="51" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H1" s="51" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="I1" s="51" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="J1" s="51" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="K1" s="51" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M1" s="64" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="N1" s="64" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="O1" s="51"/>
       <c r="P1" s="51"/>
@@ -7290,7 +7247,7 @@
         <v>151</v>
       </c>
       <c r="K2" s="26" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M2" s="26" t="s">
         <v>28</v>
@@ -7301,7 +7258,7 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="51" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B3" s="51">
         <v>1</v>
@@ -7345,7 +7302,7 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="51" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B4" s="51">
         <v>1</v>
@@ -7384,7 +7341,7 @@
         <v>19</v>
       </c>
       <c r="N4" s="51" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="O4" s="51"/>
       <c r="P4" s="51"/>
@@ -7437,13 +7394,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E1" s="29" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F1" s="51" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -7454,7 +7411,7 @@
         <v>151</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D2" s="29" t="s">
         <v>19</v>
@@ -7468,7 +7425,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="29" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B3" s="29">
         <v>1</v>
@@ -7488,7 +7445,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="29" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B4" s="29">
         <v>2</v>
@@ -7508,7 +7465,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="29" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B5" s="51">
         <v>1</v>
@@ -7528,7 +7485,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="29" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B6" s="29">
         <v>1</v>
@@ -7548,7 +7505,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="29" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B7" s="29">
         <v>2</v>
@@ -7568,7 +7525,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="29" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B8" s="29">
         <v>1</v>
@@ -7588,7 +7545,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="29" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B9" s="29">
         <v>2</v>
@@ -7608,7 +7565,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="29" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B10" s="29">
         <v>1</v>
@@ -7628,7 +7585,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="29" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B11" s="29">
         <v>2</v>
@@ -7679,55 +7636,55 @@
         <v>2</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K1" s="12" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M1" s="12" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="O1" s="12" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="P1" s="12" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q1" s="12" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="R1" s="12" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="S1" s="12" t="s">
         <v>15</v>
       </c>
       <c r="T1" s="12" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="2" spans="1:20">
@@ -7747,7 +7704,7 @@
         <v>19</v>
       </c>
       <c r="F2" s="51" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="G2" s="51" t="s">
         <v>151</v>
@@ -7783,7 +7740,7 @@
         <v>19</v>
       </c>
       <c r="R2" s="51" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="S2" s="51" t="s">
         <v>19</v>
@@ -7845,7 +7802,7 @@
         <v>19</v>
       </c>
       <c r="R3" s="46" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="S3" s="46" t="s">
         <v>19</v>
@@ -7907,7 +7864,7 @@
         <v>19</v>
       </c>
       <c r="R4" s="46" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="S4" s="46" t="s">
         <v>19</v>
@@ -7924,10 +7881,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC115C88-C50A-4C63-8FE8-A3BB8E337BDA}">
-  <dimension ref="A1:AB25"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
-    <sheetView topLeftCell="T16" workbookViewId="0">
-      <selection activeCell="U25" sqref="U25"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -7952,17 +7909,9 @@
     <col min="18" max="18" width="16.54296875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="23.54296875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.7265625" customWidth="1"/>
-    <col min="22" max="22" width="19.81640625" customWidth="1"/>
-    <col min="23" max="23" width="13" customWidth="1"/>
-    <col min="24" max="24" width="25.26953125" customWidth="1"/>
-    <col min="25" max="25" width="17.1796875" customWidth="1"/>
-    <col min="26" max="26" width="24.6328125" customWidth="1"/>
-    <col min="27" max="27" width="19.26953125" customWidth="1"/>
-    <col min="28" max="28" width="29.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:20">
       <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
@@ -7973,82 +7922,58 @@
         <v>2</v>
       </c>
       <c r="D1" s="43" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E1" s="43" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="F1" s="43" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="G1" s="43" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H1" s="43" t="s">
         <v>13</v>
       </c>
       <c r="I1" s="43" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="J1" s="43" t="s">
         <v>4</v>
       </c>
       <c r="K1" s="43" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="L1" s="43" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="M1" s="43" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="N1" s="42" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="O1" s="42" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="P1" s="42" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q1" s="42" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="R1" s="42" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="S1" s="42" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="T1" s="42" t="s">
-        <v>404</v>
-      </c>
-      <c r="U1" s="74" t="s">
-        <v>564</v>
-      </c>
-      <c r="V1" s="73" t="s">
-        <v>565</v>
-      </c>
-      <c r="W1" s="73" t="s">
-        <v>566</v>
-      </c>
-      <c r="X1" s="73" t="s">
-        <v>567</v>
-      </c>
-      <c r="Y1" s="73" t="s">
-        <v>568</v>
-      </c>
-      <c r="Z1" s="73" t="s">
-        <v>569</v>
-      </c>
-      <c r="AA1" s="73" t="s">
-        <v>570</v>
-      </c>
-      <c r="AB1" s="73" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" s="16" customFormat="1">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" s="16" customFormat="1">
       <c r="A2" s="46" t="s">
         <v>27</v>
       </c>
@@ -8059,13 +7984,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="46" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E2" s="46" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F2" s="46" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="G2" s="19" t="s">
         <v>59</v>
@@ -8109,32 +8034,8 @@
       <c r="T2" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="U2" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="V2" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="W2" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y2" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z2" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA2" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB2" s="73" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" s="16" customFormat="1">
+    </row>
+    <row r="3" spans="1:20" s="16" customFormat="1">
       <c r="A3" s="46" t="s">
         <v>27</v>
       </c>
@@ -8145,13 +8046,13 @@
         <v>2</v>
       </c>
       <c r="D3" s="46" t="s">
+        <v>408</v>
+      </c>
+      <c r="E3" s="46" t="s">
         <v>407</v>
       </c>
-      <c r="E3" s="46" t="s">
-        <v>406</v>
-      </c>
       <c r="F3" s="46" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="G3" s="19" t="s">
         <v>59</v>
@@ -8195,32 +8096,8 @@
       <c r="T3" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="U3" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="V3" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="W3" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="X3" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y3" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z3" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA3" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB3" s="73" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28">
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="51" t="s">
         <v>35</v>
       </c>
@@ -8234,10 +8111,10 @@
         <v>28</v>
       </c>
       <c r="E4" s="51" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F4" s="51" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="G4" s="51" t="s">
         <v>28</v>
@@ -8258,57 +8135,33 @@
         <v>19</v>
       </c>
       <c r="M4" s="51" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="N4" s="51" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="O4" s="51" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="P4" s="51" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Q4" s="51" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="R4" s="51" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="S4" s="51" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="T4" s="51" t="s">
-        <v>409</v>
-      </c>
-      <c r="U4" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="V4" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="W4" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="X4" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y4" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z4" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA4" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB4" s="73" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="51" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B5" s="51">
         <v>1</v>
@@ -8367,32 +8220,8 @@
       <c r="T5" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="U5" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="V5" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="W5" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="X5" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y5" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z5" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA5" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB5" s="73" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28">
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="51" t="s">
         <v>38</v>
       </c>
@@ -8448,37 +8277,13 @@
         <v>28</v>
       </c>
       <c r="S6" s="50" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="T6" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="U6" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="V6" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="W6" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="X6" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y6" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z6" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA6" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB6" s="73" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" s="39" customFormat="1">
+    </row>
+    <row r="7" spans="1:20" s="39" customFormat="1">
       <c r="A7" s="51" t="s">
         <v>38</v>
       </c>
@@ -8489,13 +8294,13 @@
         <v>2</v>
       </c>
       <c r="D7" s="51" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E7" s="51" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F7" s="51" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="G7" s="51" t="s">
         <v>59</v>
@@ -8516,7 +8321,7 @@
         <v>19</v>
       </c>
       <c r="M7" s="51" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="N7" s="51" t="s">
         <v>28</v>
@@ -8539,32 +8344,8 @@
       <c r="T7" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="U7" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="V7" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="W7" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="X7" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y7" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z7" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA7" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB7" s="73" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" s="39" customFormat="1">
+    </row>
+    <row r="8" spans="1:20" s="39" customFormat="1">
       <c r="A8" s="51" t="s">
         <v>38</v>
       </c>
@@ -8575,13 +8356,13 @@
         <v>3</v>
       </c>
       <c r="D8" s="51" t="s">
+        <v>408</v>
+      </c>
+      <c r="E8" s="51" t="s">
         <v>407</v>
       </c>
-      <c r="E8" s="51" t="s">
-        <v>406</v>
-      </c>
       <c r="F8" s="51" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="G8" s="51" t="s">
         <v>59</v>
@@ -8602,7 +8383,7 @@
         <v>19</v>
       </c>
       <c r="M8" s="51" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="N8" s="51" t="s">
         <v>28</v>
@@ -8625,34 +8406,10 @@
       <c r="T8" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="U8" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="V8" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="W8" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="X8" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y8" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z8" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA8" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB8" s="73" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28">
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="51" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B9" s="51">
         <v>1</v>
@@ -8661,13 +8418,13 @@
         <v>1</v>
       </c>
       <c r="D9" s="51" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E9" s="51" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F9" s="51" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="G9" s="51" t="s">
         <v>59</v>
@@ -8688,7 +8445,7 @@
         <v>19</v>
       </c>
       <c r="M9" s="51" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="N9" s="51" t="s">
         <v>28</v>
@@ -8711,34 +8468,10 @@
       <c r="T9" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="U9" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="V9" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="W9" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="X9" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y9" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z9" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA9" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB9" s="73" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28">
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="51" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B10" s="51">
         <v>1</v>
@@ -8747,13 +8480,13 @@
         <v>2</v>
       </c>
       <c r="D10" s="51" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E10" s="51" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F10" s="51" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="G10" s="51" t="s">
         <v>59</v>
@@ -8774,7 +8507,7 @@
         <v>19</v>
       </c>
       <c r="M10" s="51" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="N10" s="51" t="s">
         <v>28</v>
@@ -8797,34 +8530,10 @@
       <c r="T10" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="U10" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="V10" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="W10" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="X10" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y10" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z10" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA10" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB10" s="73" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" s="55" customFormat="1">
+    </row>
+    <row r="11" spans="1:20" s="55" customFormat="1">
       <c r="A11" s="55" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B11" s="55">
         <v>1</v>
@@ -8833,13 +8542,13 @@
         <v>1</v>
       </c>
       <c r="D11" s="55" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E11" s="55" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F11" s="55" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="G11" s="55" t="s">
         <v>28</v>
@@ -8883,34 +8592,10 @@
       <c r="T11" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="U11" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="V11" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="W11" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="X11" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y11" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z11" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA11" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB11" s="73" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" s="55" customFormat="1">
+    </row>
+    <row r="12" spans="1:20" s="55" customFormat="1">
       <c r="A12" s="55" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B12" s="55">
         <v>1</v>
@@ -8919,13 +8604,13 @@
         <v>2</v>
       </c>
       <c r="D12" s="55" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E12" s="55" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F12" s="55" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="G12" s="55" t="s">
         <v>28</v>
@@ -8969,34 +8654,10 @@
       <c r="T12" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="U12" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="V12" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="W12" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="X12" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y12" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z12" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA12" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB12" s="73" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28">
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="51" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B13" s="51">
         <v>1</v>
@@ -9055,34 +8716,10 @@
       <c r="T13" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="U13" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="V13" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="W13" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="X13" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y13" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z13" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA13" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB13" s="73" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28">
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="51" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B14" s="51">
         <v>1</v>
@@ -9091,13 +8728,13 @@
         <v>1</v>
       </c>
       <c r="D14" s="51" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E14" s="51" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F14" s="51" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="G14" s="51" t="s">
         <v>59</v>
@@ -9141,34 +8778,10 @@
       <c r="T14" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="U14" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="V14" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="W14" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="X14" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y14" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z14" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA14" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB14" s="73" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28">
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="51" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B15" s="51">
         <v>1</v>
@@ -9177,13 +8790,13 @@
         <v>2</v>
       </c>
       <c r="D15" s="51" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E15" s="51" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F15" s="51" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="G15" s="51" t="s">
         <v>59</v>
@@ -9227,34 +8840,10 @@
       <c r="T15" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="U15" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="V15" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="W15" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="X15" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y15" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z15" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA15" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB15" s="73" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28">
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="51" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B16" s="51">
         <v>1</v>
@@ -9263,13 +8852,13 @@
         <v>3</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E16" s="51" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F16" s="51" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="G16" s="51" t="s">
         <v>59</v>
@@ -9313,34 +8902,10 @@
       <c r="T16" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="U16" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="V16" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="W16" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="X16" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y16" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z16" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA16" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB16" s="73" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:28" s="46" customFormat="1">
+    </row>
+    <row r="17" spans="1:20" s="46" customFormat="1">
       <c r="A17" s="46" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B17" s="46">
         <v>1</v>
@@ -9349,13 +8914,13 @@
         <v>1</v>
       </c>
       <c r="D17" s="46" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E17" s="46" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F17" s="46" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="G17" s="46" t="s">
         <v>59</v>
@@ -9399,34 +8964,10 @@
       <c r="T17" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="U17" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="V17" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="W17" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="X17" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y17" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z17" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA17" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB17" s="73" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:28" s="46" customFormat="1">
+    </row>
+    <row r="18" spans="1:20" s="46" customFormat="1">
       <c r="A18" s="46" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B18" s="46">
         <v>1</v>
@@ -9435,13 +8976,13 @@
         <v>2</v>
       </c>
       <c r="D18" s="46" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E18" s="46" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F18" s="46" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="G18" s="46" t="s">
         <v>59</v>
@@ -9485,34 +9026,10 @@
       <c r="T18" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="U18" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="V18" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="W18" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="X18" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y18" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z18" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA18" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB18" s="73" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:28" s="46" customFormat="1">
+    </row>
+    <row r="19" spans="1:20" s="46" customFormat="1">
       <c r="A19" s="46" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B19" s="46">
         <v>1</v>
@@ -9521,13 +9038,13 @@
         <v>3</v>
       </c>
       <c r="D19" s="46" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E19" s="46" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F19" s="46" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="G19" s="46" t="s">
         <v>59</v>
@@ -9571,34 +9088,10 @@
       <c r="T19" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="U19" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="V19" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="W19" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="X19" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y19" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z19" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA19" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB19" s="73" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:28">
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="5" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B20" s="5">
         <v>1</v>
@@ -9607,13 +9100,13 @@
         <v>1</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>59</v>
@@ -9634,7 +9127,7 @@
         <v>19</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="N20" s="5" t="s">
         <v>28</v>
@@ -9657,34 +9150,10 @@
       <c r="T20" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="U20" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="V20" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="W20" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="X20" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y20" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z20" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA20" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB20" s="73" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:28">
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="5" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B21" s="5">
         <v>1</v>
@@ -9693,13 +9162,13 @@
         <v>2</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>59</v>
@@ -9720,7 +9189,7 @@
         <v>19</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="N21" s="5" t="s">
         <v>28</v>
@@ -9743,34 +9212,10 @@
       <c r="T21" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="U21" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="V21" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="W21" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="X21" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y21" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z21" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA21" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB21" s="73" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:28">
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B22" s="5">
         <v>1</v>
@@ -9779,13 +9224,13 @@
         <v>1</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>59</v>
@@ -9806,7 +9251,7 @@
         <v>19</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="N22" s="5" t="s">
         <v>28</v>
@@ -9829,34 +9274,10 @@
       <c r="T22" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="U22" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="V22" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="W22" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="X22" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y22" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z22" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA22" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB22" s="73" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:28" s="31" customFormat="1">
+    </row>
+    <row r="23" spans="1:20" s="31" customFormat="1">
       <c r="A23" s="70" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B23" s="70">
         <v>1</v>
@@ -9865,13 +9286,13 @@
         <v>1</v>
       </c>
       <c r="D23" s="70" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E23" s="70" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F23" s="70" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="G23" s="70" t="s">
         <v>28</v>
@@ -9913,202 +9334,6 @@
         <v>28</v>
       </c>
       <c r="T23" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="U23" s="72" t="s">
-        <v>28</v>
-      </c>
-      <c r="V23" s="75" t="s">
-        <v>28</v>
-      </c>
-      <c r="W23" s="75" t="s">
-        <v>28</v>
-      </c>
-      <c r="X23" s="75" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y23" s="75" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z23" s="75" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA23" s="72" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB23" s="72" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:28">
-      <c r="A24" s="75" t="s">
-        <v>221</v>
-      </c>
-      <c r="B24" s="75">
-        <v>1</v>
-      </c>
-      <c r="C24" s="75">
-        <v>2</v>
-      </c>
-      <c r="D24" s="75" t="s">
-        <v>28</v>
-      </c>
-      <c r="E24" s="75" t="s">
-        <v>28</v>
-      </c>
-      <c r="F24" s="75" t="s">
-        <v>28</v>
-      </c>
-      <c r="G24" s="75" t="s">
-        <v>28</v>
-      </c>
-      <c r="H24" s="75" t="s">
-        <v>28</v>
-      </c>
-      <c r="I24" s="75" t="s">
-        <v>28</v>
-      </c>
-      <c r="J24" s="75" t="s">
-        <v>28</v>
-      </c>
-      <c r="K24" s="75" t="s">
-        <v>28</v>
-      </c>
-      <c r="L24" s="75" t="s">
-        <v>28</v>
-      </c>
-      <c r="M24" s="75" t="s">
-        <v>28</v>
-      </c>
-      <c r="N24" s="75" t="s">
-        <v>28</v>
-      </c>
-      <c r="O24" s="75" t="s">
-        <v>28</v>
-      </c>
-      <c r="P24" s="75" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q24" s="75" t="s">
-        <v>28</v>
-      </c>
-      <c r="R24" s="75" t="s">
-        <v>28</v>
-      </c>
-      <c r="S24" s="75" t="s">
-        <v>28</v>
-      </c>
-      <c r="T24" s="75" t="s">
-        <v>28</v>
-      </c>
-      <c r="U24" s="75" t="s">
-        <v>19</v>
-      </c>
-      <c r="V24" s="75" t="s">
-        <v>19</v>
-      </c>
-      <c r="W24" s="75" t="s">
-        <v>572</v>
-      </c>
-      <c r="X24" s="75" t="s">
-        <v>573</v>
-      </c>
-      <c r="Y24" s="75" t="s">
-        <v>574</v>
-      </c>
-      <c r="Z24" s="75" t="s">
-        <v>429</v>
-      </c>
-      <c r="AA24" s="75" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB24" s="75" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="25" spans="1:28">
-      <c r="A25" s="76" t="s">
-        <v>576</v>
-      </c>
-      <c r="B25" s="76">
-        <v>1</v>
-      </c>
-      <c r="C25" s="76">
-        <v>1</v>
-      </c>
-      <c r="D25" s="76" t="s">
-        <v>412</v>
-      </c>
-      <c r="E25" s="76" t="s">
-        <v>406</v>
-      </c>
-      <c r="F25" s="76" t="s">
-        <v>406</v>
-      </c>
-      <c r="G25" s="76" t="s">
-        <v>28</v>
-      </c>
-      <c r="H25" s="76" t="s">
-        <v>19</v>
-      </c>
-      <c r="I25" s="76" t="s">
-        <v>19</v>
-      </c>
-      <c r="J25" s="76" t="s">
-        <v>19</v>
-      </c>
-      <c r="K25" s="76" t="s">
-        <v>19</v>
-      </c>
-      <c r="L25" s="76" t="s">
-        <v>19</v>
-      </c>
-      <c r="M25" s="76" t="s">
-        <v>28</v>
-      </c>
-      <c r="N25" s="76" t="s">
-        <v>28</v>
-      </c>
-      <c r="O25" s="76" t="s">
-        <v>28</v>
-      </c>
-      <c r="P25" s="76" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q25" s="76" t="s">
-        <v>28</v>
-      </c>
-      <c r="R25" s="76" t="s">
-        <v>28</v>
-      </c>
-      <c r="S25" s="76" t="s">
-        <v>28</v>
-      </c>
-      <c r="T25" s="76" t="s">
-        <v>28</v>
-      </c>
-      <c r="U25" s="76" t="s">
-        <v>28</v>
-      </c>
-      <c r="V25" s="76" t="s">
-        <v>28</v>
-      </c>
-      <c r="W25" s="76" t="s">
-        <v>28</v>
-      </c>
-      <c r="X25" s="76" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y25" s="76" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z25" s="76" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA25" s="76" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB25" s="76" t="s">
         <v>28</v>
       </c>
     </row>
@@ -10868,31 +10093,31 @@
         <v>160</v>
       </c>
       <c r="E1" s="51" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="F1" s="51" t="s">
         <v>163</v>
       </c>
       <c r="G1" s="51" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H1" s="51" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="I1" s="51" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="J1" s="51" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="K1" s="51" t="s">
-        <v>426</v>
+        <v>165</v>
       </c>
       <c r="L1" s="51" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M1" s="51" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="N1" s="51" t="s">
         <v>13</v>
@@ -10900,7 +10125,7 @@
     </row>
     <row r="2" spans="1:14" s="34" customFormat="1">
       <c r="A2" s="34" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B2" s="34">
         <v>1</v>
@@ -10915,13 +10140,13 @@
         <v>428</v>
       </c>
       <c r="F2" s="34" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G2" s="34" t="s">
         <v>429</v>
       </c>
       <c r="H2" s="34" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I2" s="34" t="s">
         <v>430</v>
@@ -10930,7 +10155,7 @@
         <v>431</v>
       </c>
       <c r="K2" s="34" t="s">
-        <v>222</v>
+        <v>170</v>
       </c>
       <c r="L2" s="34" t="s">
         <v>432</v>
@@ -10977,19 +10202,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>433</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>434</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -11009,10 +10234,10 @@
         <v>19</v>
       </c>
       <c r="F2" s="51" t="s">
-        <v>148</v>
+        <v>106</v>
       </c>
       <c r="G2" s="51" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="H2" s="51" t="s">
         <v>19</v>
@@ -11075,13 +10300,13 @@
         <v>436</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="I1" s="51" t="s">
         <v>437</v>
@@ -11173,7 +10398,7 @@
         <v>454</v>
       </c>
       <c r="E2" s="51" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F2" s="51" t="s">
         <v>59</v>
@@ -11262,7 +10487,7 @@
         <v>455</v>
       </c>
       <c r="E3" s="51" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F3" s="51" t="s">
         <v>59</v>
@@ -11354,7 +10579,7 @@
         <v>456</v>
       </c>
       <c r="F4" s="51" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G4" s="51" t="s">
         <v>28</v>
@@ -11451,7 +10676,7 @@
         <v>454</v>
       </c>
       <c r="F5" s="51" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G5" s="51" t="s">
         <v>28</v>
@@ -12024,7 +11249,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="51" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>149</v>
@@ -12125,7 +11350,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="51" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>28</v>
@@ -12716,10 +11941,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="51" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F1" s="41" t="s">
         <v>487</v>
@@ -12810,7 +12035,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="49" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E3" s="49" t="s">
         <v>19</v>
@@ -12848,7 +12073,7 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="40" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B4" s="40">
         <v>1</v>
@@ -12857,7 +12082,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E4" s="40" t="s">
         <v>19</v>
@@ -12896,7 +12121,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="70" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E5" s="70" t="s">
         <v>19</v>
@@ -13126,7 +12351,7 @@
     </row>
     <row r="2" spans="1:38">
       <c r="A2" s="5" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -13182,7 +12407,7 @@
       <c r="S2" s="48"/>
       <c r="T2" s="48"/>
       <c r="U2" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="V2" s="5" t="s">
         <v>28</v>
@@ -13194,7 +12419,7 @@
         <v>520</v>
       </c>
       <c r="Y2" s="5" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Z2" s="5" t="s">
         <v>28</v>
@@ -13215,22 +12440,22 @@
         <v>28</v>
       </c>
       <c r="AF2" s="5" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AG2" s="5" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AH2" s="5">
         <v>89377</v>
       </c>
       <c r="AI2" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AJ2" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AK2" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AL2" s="5"/>
     </row>
@@ -13287,7 +12512,7 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="5" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -13299,7 +12524,7 @@
         <v>149</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>28</v>
@@ -13369,7 +12594,7 @@
         <v>535</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="M1" s="5" t="s">
         <v>13</v>
@@ -13377,7 +12602,7 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="5" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -13386,10 +12611,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5" t="s">
@@ -13411,7 +12636,7 @@
         <v>28</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -13515,7 +12740,7 @@
         <v>555</v>
       </c>
       <c r="AB1" s="5" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AC1" s="51" t="s">
         <v>556</v>
@@ -13523,7 +12748,7 @@
     </row>
     <row r="2" spans="1:29">
       <c r="A2" s="5" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -13532,27 +12757,27 @@
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>28</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I2" s="5"/>
       <c r="J2" s="5" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K2" s="5"/>
       <c r="L2" s="5" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M2" s="5"/>
       <c r="N2" s="5" t="s">
@@ -13565,7 +12790,7 @@
         <v>558</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="R2" s="5" t="s">
         <v>559</v>
@@ -13574,13 +12799,13 @@
         <v>28</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="U2" s="51" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="V2" s="51" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="W2" s="51" t="s">
         <v>560</v>
@@ -13600,7 +12825,7 @@
     </row>
     <row r="3" spans="1:29">
       <c r="A3" s="5" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B3" s="5">
         <v>1</v>
@@ -13609,7 +12834,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>28</v>
@@ -13648,7 +12873,7 @@
         <v>28</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="R3" s="5" t="s">
         <v>563</v>
@@ -13657,7 +12882,7 @@
         <v>28</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="U3" s="5" t="s">
         <v>28</v>
@@ -13694,10 +12919,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FE06A9D-8317-49A7-9A82-039A1B827ECC}">
-  <dimension ref="A1:AN17"/>
+  <dimension ref="A1:AO17"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AN4" sqref="AN4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -13742,7 +12967,7 @@
     <col min="40" max="40" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -13863,8 +13088,11 @@
       <c r="AN1" s="17" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="2" spans="1:40">
+      <c r="AO1" s="17" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41">
       <c r="A2" s="51" t="s">
         <v>35</v>
       </c>
@@ -13884,28 +13112,28 @@
         <v>19</v>
       </c>
       <c r="G2" s="51" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H2" s="51" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I2" s="51" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J2" s="51" t="s">
         <v>59</v>
       </c>
       <c r="K2" s="42" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L2" s="42" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M2" s="42" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N2" s="17" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O2" s="42" t="s">
         <v>19</v>
@@ -13914,10 +13142,10 @@
         <v>28</v>
       </c>
       <c r="Q2" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="R2" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="S2" s="17" t="s">
         <v>19</v>
@@ -13985,8 +13213,11 @@
       <c r="AN2" s="8" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:40" s="46" customFormat="1" ht="15.65" customHeight="1">
+      <c r="AO2" s="42" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41" s="46" customFormat="1" ht="15.65" customHeight="1">
       <c r="A3" s="65" t="s">
         <v>27</v>
       </c>
@@ -14006,109 +13237,112 @@
         <v>30</v>
       </c>
       <c r="G3" s="65" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H3" s="65" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I3" s="65" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J3" s="65" t="s">
         <v>59</v>
       </c>
       <c r="K3" s="65" t="s">
+        <v>107</v>
+      </c>
+      <c r="L3" s="66" t="s">
+        <v>108</v>
+      </c>
+      <c r="M3" s="65" t="s">
+        <v>103</v>
+      </c>
+      <c r="N3" s="65" t="s">
+        <v>104</v>
+      </c>
+      <c r="O3" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="P3" s="65" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q3" s="65" t="s">
         <v>105</v>
       </c>
-      <c r="L3" s="66" t="s">
+      <c r="R3" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="S3" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="T3" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="U3" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="V3" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="W3" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="X3" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y3" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z3" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA3" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB3" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC3" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD3" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE3" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF3" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG3" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH3" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI3" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ3" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK3" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="AL3" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="AM3" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN3" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="AO3" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="M3" s="65" t="s">
-        <v>102</v>
-      </c>
-      <c r="N3" s="65" t="s">
-        <v>103</v>
-      </c>
-      <c r="O3" s="65" t="s">
-        <v>19</v>
-      </c>
-      <c r="P3" s="65" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q3" s="65" t="s">
-        <v>104</v>
-      </c>
-      <c r="R3" s="65" t="s">
-        <v>104</v>
-      </c>
-      <c r="S3" s="65" t="s">
-        <v>19</v>
-      </c>
-      <c r="T3" s="65" t="s">
-        <v>19</v>
-      </c>
-      <c r="U3" s="67" t="s">
-        <v>28</v>
-      </c>
-      <c r="V3" s="67" t="s">
-        <v>28</v>
-      </c>
-      <c r="W3" s="67" t="s">
-        <v>28</v>
-      </c>
-      <c r="X3" s="67" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y3" s="67" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z3" s="67" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA3" s="67" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB3" s="67" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC3" s="67" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD3" s="67" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE3" s="67" t="s">
-        <v>28</v>
-      </c>
-      <c r="AF3" s="67" t="s">
-        <v>28</v>
-      </c>
-      <c r="AG3" s="67" t="s">
-        <v>28</v>
-      </c>
-      <c r="AH3" s="67" t="s">
-        <v>28</v>
-      </c>
-      <c r="AI3" s="67" t="s">
-        <v>28</v>
-      </c>
-      <c r="AJ3" s="67" t="s">
-        <v>28</v>
-      </c>
-      <c r="AK3" s="67" t="s">
-        <v>28</v>
-      </c>
-      <c r="AL3" s="67" t="s">
-        <v>28</v>
-      </c>
-      <c r="AM3" s="67" t="s">
-        <v>28</v>
-      </c>
-      <c r="AN3" s="67" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:40" s="31" customFormat="1" ht="15.65" customHeight="1">
+    </row>
+    <row r="4" spans="1:41" s="31" customFormat="1" ht="15.65" customHeight="1">
       <c r="A4" s="70" t="s">
         <v>36</v>
       </c>
@@ -14124,28 +13358,28 @@
       <c r="E4" s="71"/>
       <c r="F4" s="71"/>
       <c r="G4" s="70" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H4" s="70" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I4" s="70" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J4" s="70" t="s">
         <v>59</v>
       </c>
       <c r="K4" s="71" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L4" s="47" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M4" s="71" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N4" s="71" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O4" s="71" t="s">
         <v>19</v>
@@ -14154,10 +13388,10 @@
         <v>28</v>
       </c>
       <c r="Q4" s="71" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="R4" s="71" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="S4" s="71" t="s">
         <v>19</v>
@@ -14225,10 +13459,13 @@
       <c r="AN4" s="33" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="5" spans="1:40">
+      <c r="AO4" s="42" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41">
       <c r="A5" s="17" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B5" s="17">
         <v>1</v>
@@ -14343,8 +13580,11 @@
       <c r="AN5" s="17" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="6" spans="1:40">
+      <c r="AO5" s="42" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41">
       <c r="A6" s="17"/>
       <c r="B6" s="17"/>
       <c r="C6" s="17"/>
@@ -14385,8 +13625,9 @@
       <c r="AL6" s="17"/>
       <c r="AM6" s="17"/>
       <c r="AN6" s="17"/>
-    </row>
-    <row r="7" spans="1:40">
+      <c r="AO6" s="51"/>
+    </row>
+    <row r="7" spans="1:41">
       <c r="A7" s="17"/>
       <c r="B7" s="17"/>
       <c r="C7" s="17"/>
@@ -14427,8 +13668,9 @@
       <c r="AL7" s="17"/>
       <c r="AM7" s="17"/>
       <c r="AN7" s="17"/>
-    </row>
-    <row r="8" spans="1:40">
+      <c r="AO7" s="51"/>
+    </row>
+    <row r="8" spans="1:41">
       <c r="A8" s="17"/>
       <c r="B8" s="17"/>
       <c r="C8" s="17"/>
@@ -14469,8 +13711,9 @@
       <c r="AL8" s="17"/>
       <c r="AM8" s="17"/>
       <c r="AN8" s="17"/>
-    </row>
-    <row r="9" spans="1:40">
+      <c r="AO8" s="51"/>
+    </row>
+    <row r="9" spans="1:41">
       <c r="A9" s="17"/>
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
@@ -14511,8 +13754,9 @@
       <c r="AL9" s="17"/>
       <c r="AM9" s="17"/>
       <c r="AN9" s="17"/>
-    </row>
-    <row r="10" spans="1:40">
+      <c r="AO9" s="51"/>
+    </row>
+    <row r="10" spans="1:41">
       <c r="A10" s="17"/>
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
@@ -14553,8 +13797,9 @@
       <c r="AL10" s="17"/>
       <c r="AM10" s="17"/>
       <c r="AN10" s="17"/>
-    </row>
-    <row r="11" spans="1:40">
+      <c r="AO10" s="51"/>
+    </row>
+    <row r="11" spans="1:41">
       <c r="A11" s="17"/>
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>
@@ -14595,8 +13840,9 @@
       <c r="AL11" s="17"/>
       <c r="AM11" s="17"/>
       <c r="AN11" s="17"/>
-    </row>
-    <row r="12" spans="1:40">
+      <c r="AO11" s="51"/>
+    </row>
+    <row r="12" spans="1:41">
       <c r="A12" s="17"/>
       <c r="B12" s="17"/>
       <c r="C12" s="17"/>
@@ -14637,8 +13883,9 @@
       <c r="AL12" s="17"/>
       <c r="AM12" s="17"/>
       <c r="AN12" s="17"/>
-    </row>
-    <row r="13" spans="1:40">
+      <c r="AO12" s="51"/>
+    </row>
+    <row r="13" spans="1:41">
       <c r="A13" s="17"/>
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
@@ -14679,8 +13926,9 @@
       <c r="AL13" s="17"/>
       <c r="AM13" s="17"/>
       <c r="AN13" s="17"/>
-    </row>
-    <row r="14" spans="1:40">
+      <c r="AO13" s="51"/>
+    </row>
+    <row r="14" spans="1:41">
       <c r="A14" s="17"/>
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
@@ -14721,8 +13969,9 @@
       <c r="AL14" s="17"/>
       <c r="AM14" s="17"/>
       <c r="AN14" s="17"/>
-    </row>
-    <row r="15" spans="1:40">
+      <c r="AO14" s="51"/>
+    </row>
+    <row r="15" spans="1:41">
       <c r="A15" s="17"/>
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
@@ -14763,8 +14012,9 @@
       <c r="AL15" s="17"/>
       <c r="AM15" s="17"/>
       <c r="AN15" s="17"/>
-    </row>
-    <row r="16" spans="1:40">
+      <c r="AO15" s="51"/>
+    </row>
+    <row r="16" spans="1:41">
       <c r="A16" s="17"/>
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
@@ -14805,6 +14055,7 @@
       <c r="AL16" s="17"/>
       <c r="AM16" s="17"/>
       <c r="AN16" s="17"/>
+      <c r="AO16" s="51"/>
     </row>
     <row r="17" spans="1:40">
       <c r="A17" s="17"/>
@@ -14858,8 +14109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52296D71-257F-48D6-B061-96C4007B427B}">
   <dimension ref="A1:BF5"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1:Q1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -14934,10 +14185,10 @@
         <v>78</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G1" s="17" t="s">
         <v>67</v>
@@ -14946,31 +14197,31 @@
         <v>69</v>
       </c>
       <c r="I1" s="17" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="J1" s="17" t="s">
         <v>71</v>
       </c>
       <c r="K1" s="17" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L1" s="17" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="M1" s="17" t="s">
         <v>72</v>
       </c>
       <c r="N1" s="17" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="O1" s="17" t="s">
         <v>74</v>
       </c>
       <c r="P1" s="17" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q1" s="17" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="R1" s="17" t="s">
         <v>76</v>
@@ -14979,10 +14230,10 @@
         <v>13</v>
       </c>
       <c r="T1" s="17" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="U1" s="17" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="V1" s="17" t="s">
         <v>81</v>
@@ -14994,7 +14245,7 @@
         <v>80</v>
       </c>
       <c r="Y1" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Z1" s="8" t="s">
         <v>83</v>
@@ -15003,10 +14254,10 @@
         <v>79</v>
       </c>
       <c r="AB1" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AC1" s="8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AD1" s="8" t="s">
         <v>84</v>
@@ -15018,46 +14269,46 @@
         <v>85</v>
       </c>
       <c r="AG1" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AH1" s="8" t="s">
         <v>88</v>
       </c>
       <c r="AI1" s="8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AJ1" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK1" s="8" t="s">
         <v>90</v>
       </c>
       <c r="AL1" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AM1" s="8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AN1" s="8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AO1" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AP1" s="8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AQ1" s="8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AR1" s="8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AS1" s="8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AT1" s="8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AU1" s="8" t="s">
         <v>54</v>
@@ -15069,31 +14320,31 @@
         <v>96</v>
       </c>
       <c r="AX1" s="9" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AY1" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AZ1" s="9" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="BA1" s="9" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="BB1" s="8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="BC1" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BD1" s="9" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="BE1" s="8" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BF1" s="9" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:58">
@@ -15116,19 +14367,19 @@
         <v>59</v>
       </c>
       <c r="G2" s="51" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H2" s="51" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I2" s="51" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J2" s="46" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K2" s="40" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L2" s="51" t="s">
         <v>28</v>
@@ -15137,16 +14388,16 @@
         <v>28</v>
       </c>
       <c r="N2" s="51" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O2" s="51" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P2" s="42" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q2" s="42" t="s">
-        <v>148</v>
+        <v>106</v>
       </c>
       <c r="R2" s="51" t="s">
         <v>28</v>
@@ -15471,16 +14722,16 @@
         <v>150</v>
       </c>
       <c r="H4" s="56" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I4" s="56" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J4" s="56" t="s">
         <v>33</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L4" s="56" t="s">
         <v>28</v>
@@ -15489,16 +14740,16 @@
         <v>28</v>
       </c>
       <c r="N4" s="56" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O4" s="56" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P4" s="56" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q4" s="56" t="s">
-        <v>148</v>
+        <v>106</v>
       </c>
       <c r="R4" s="56" t="s">
         <v>28</v>
@@ -15626,7 +14877,7 @@
     </row>
     <row r="5" spans="1:58">
       <c r="A5" s="51" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B5" s="51">
         <v>1</v>
@@ -15933,10 +15184,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{056B68C9-3C17-4B06-80C0-880DDEDA4E17}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -15946,14 +15197,15 @@
     <col min="3" max="3" width="15.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.54296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.54296875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.1796875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="29.81640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.453125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -15984,8 +15236,11 @@
       <c r="J1" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="51" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="49" t="s">
         <v>36</v>
       </c>
@@ -15999,16 +15254,16 @@
         <v>19</v>
       </c>
       <c r="E2" s="49" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F2" s="49" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G2" s="49" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H2" s="49" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I2" s="49" t="s">
         <v>28</v>
@@ -16016,8 +15271,11 @@
       <c r="J2" s="49" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="K2" s="51" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="49" t="s">
         <v>36</v>
       </c>
@@ -16031,22 +15289,25 @@
         <v>28</v>
       </c>
       <c r="E3" s="49" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F3" s="49" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G3" s="49" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H3" s="49" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I3" s="49" t="s">
         <v>28</v>
       </c>
       <c r="J3" s="49" t="s">
         <v>19</v>
+      </c>
+      <c r="K3" s="51" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -16056,10 +15317,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D515A6D1-7D94-4084-A48A-E45C12FE9CD2}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -16068,10 +15329,9 @@
     <col min="2" max="2" width="16.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="1.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="51" customFormat="1">
+    <row r="1" spans="1:4" s="51" customFormat="1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -16081,13 +15341,11 @@
       <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-    </row>
-    <row r="2" spans="1:6" s="51" customFormat="1">
+      <c r="D1" s="72" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="51" customFormat="1">
       <c r="A2" s="49" t="s">
         <v>36</v>
       </c>
@@ -16099,12 +15357,6 @@
       </c>
       <c r="D2" s="49" t="s">
         <v>19</v>
-      </c>
-      <c r="E2" s="49" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="49" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -16142,31 +15394,31 @@
         <v>2</v>
       </c>
       <c r="D1" s="51" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E1" s="51" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F1" s="51" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G1" s="51" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H1" s="51" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="I1" s="51" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="J1" s="51" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="K1" s="51" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="L1" s="51" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -16180,29 +15432,29 @@
         <v>1</v>
       </c>
       <c r="D2" s="51" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E2" s="51"/>
       <c r="F2" s="51" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G2" s="51" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H2" s="51" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="I2" s="51" t="s">
         <v>59</v>
       </c>
       <c r="J2" s="51" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K2" s="51" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="L2" s="51" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="22" customHeight="1">
@@ -16216,21 +15468,21 @@
         <v>1</v>
       </c>
       <c r="D3" s="51" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E3" s="51" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F3" s="51"/>
       <c r="G3" s="51"/>
       <c r="H3" s="51" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="I3" s="51" t="s">
         <v>59</v>
       </c>
       <c r="J3" s="51" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K3" s="51"/>
       <c r="L3" s="51"/>
@@ -16261,31 +15513,31 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -16299,16 +15551,16 @@
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F2" s="5">
         <v>987654321</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5" t="s">
@@ -16321,7 +15573,7 @@
         <v>59</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -16732,6 +15984,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -16948,15 +16209,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{360C765C-5108-4856-B14E-979324B41D25}">
   <ds:schemaRefs>
@@ -16968,6 +16220,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{527B0702-8AF4-4307-A34D-2633AC2397ED}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBA5B558-DFC3-420B-A09B-072555AB09C7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -16986,14 +16246,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{527B0702-8AF4-4307-A34D-2633AC2397ED}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{ea60d57e-af5b-4752-ac57-3e4f28ca11dc}" enabled="1" method="Standard" siteId="{36da45f1-dd2c-4d1f-af13-5abe46b99921}" contentBits="0" removed="0"/>

--- a/Folio.xlsx
+++ b/Folio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC09C4D7-A9EA-4275-AD13-24348DE42C92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FE87969-F3EC-4F25-9F6E-9699BE4D4A64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="10" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Allegations" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2992" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2997" uniqueCount="564">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -3260,7 +3260,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC3F944F-1B63-4F82-AF7C-B1A12F6C23D1}">
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -4927,8 +4927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{065689CF-B8B7-4123-B223-FA611E0B0CC8}">
   <dimension ref="A1:AN17"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -7012,16 +7012,18 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8FCA55B-CD14-4ADB-91DF-0E908AE3D902}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="25.453125" customWidth="1"/>
+    <col min="4" max="4" width="25.36328125" customWidth="1"/>
     <col min="5" max="5" width="116.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="51" customFormat="1">
@@ -7049,7 +7051,7 @@
     </row>
     <row r="2" spans="1:7" s="46" customFormat="1" ht="12" customHeight="1">
       <c r="A2" s="46" t="s">
-        <v>343</v>
+        <v>27</v>
       </c>
       <c r="B2" s="46">
         <v>1</v>
@@ -7058,19 +7060,19 @@
         <v>1</v>
       </c>
       <c r="D2" s="46" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>350</v>
+        <v>28</v>
       </c>
       <c r="F2" s="46" t="s">
         <v>19</v>
       </c>
       <c r="G2" s="46" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="46" customFormat="1" ht="16">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="46" customFormat="1" ht="12" customHeight="1">
       <c r="A3" s="46" t="s">
         <v>343</v>
       </c>
@@ -7078,13 +7080,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="69" t="s">
-        <v>351</v>
+      <c r="E3" s="26" t="s">
+        <v>350</v>
       </c>
       <c r="F3" s="46" t="s">
         <v>19</v>
@@ -7101,13 +7103,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" s="46" t="s">
         <v>19</v>
       </c>
       <c r="E4" s="69" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F4" s="46" t="s">
         <v>19</v>
@@ -7124,18 +7126,41 @@
         <v>1</v>
       </c>
       <c r="C5" s="46">
+        <v>3</v>
+      </c>
+      <c r="D5" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="69" t="s">
+        <v>352</v>
+      </c>
+      <c r="F5" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="46" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="46" customFormat="1" ht="16">
+      <c r="A6" s="46" t="s">
+        <v>343</v>
+      </c>
+      <c r="B6" s="46">
+        <v>1</v>
+      </c>
+      <c r="C6" s="46">
         <v>4</v>
       </c>
-      <c r="D5" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="69" t="s">
+      <c r="D6" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="69" t="s">
         <v>353</v>
       </c>
-      <c r="F5" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="46" t="s">
+      <c r="F6" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="46" t="s">
         <v>19</v>
       </c>
     </row>
@@ -15974,25 +15999,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -16209,25 +16215,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{360C765C-5108-4856-B14E-979324B41D25}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{527B0702-8AF4-4307-A34D-2633AC2397ED}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBA5B558-DFC3-420B-A09B-072555AB09C7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -16246,6 +16253,24 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{527B0702-8AF4-4307-A34D-2633AC2397ED}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{360C765C-5108-4856-B14E-979324B41D25}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{ea60d57e-af5b-4752-ac57-3e4f28ca11dc}" enabled="1" method="Standard" siteId="{36da45f1-dd2c-4d1f-af13-5abe46b99921}" contentBits="0" removed="0"/>

--- a/Folio.xlsx
+++ b/Folio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FE87969-F3EC-4F25-9F6E-9699BE4D4A64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E67D41BD-1899-4E4F-903B-7D18D8B484DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="10" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="9" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Allegations" sheetId="1" r:id="rId1"/>
@@ -2404,7 +2404,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y13"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="M1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
@@ -3260,7 +3260,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC3F944F-1B63-4F82-AF7C-B1A12F6C23D1}">
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -3548,7 +3548,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5083A157-C67F-458F-A42E-BC1D5FB3C768}">
   <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView zoomScale="95" workbookViewId="0">
+    <sheetView topLeftCell="K1" zoomScale="95" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -3843,7 +3843,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27876FF1-279F-400F-8EDF-C44394A3BDAF}">
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="N1" workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
@@ -4424,8 +4424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B9D3CD3-B1E4-4B19-8BFF-5F4C690A39C5}">
   <dimension ref="A1:AH6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Y6" sqref="Y6"/>
+    <sheetView topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AG1" sqref="AG1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -4448,6 +4448,7 @@
     <col min="18" max="20" width="8.81640625" style="28"/>
     <col min="21" max="21" width="13.1796875" style="28" bestFit="1" customWidth="1"/>
     <col min="23" max="25" width="8.54296875" style="39"/>
+    <col min="32" max="32" width="11.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" s="16" customFormat="1">
@@ -4927,8 +4928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{065689CF-B8B7-4123-B223-FA611E0B0CC8}">
   <dimension ref="A1:AN17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
+      <selection activeCell="AB1" sqref="AB1:AB1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -4970,7 +4971,7 @@
     <col min="37" max="37" width="21.453125" style="39" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="14.81640625" style="39" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="17.7265625" style="51" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="110.453125" style="39" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="24.54296875" style="39" customWidth="1"/>
     <col min="41" max="16384" width="8.81640625" style="39"/>
   </cols>
   <sheetData>
@@ -9372,7 +9373,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{186A334D-3D40-4E6E-89BC-E0399D12F63C}">
   <dimension ref="A1:W12"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
@@ -14134,7 +14135,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52296D71-257F-48D6-B061-96C4007B427B}">
   <dimension ref="A1:BF5"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q1" sqref="Q1:Q1048576"/>
     </sheetView>
   </sheetViews>
@@ -15087,7 +15088,7 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -15211,7 +15212,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{056B68C9-3C17-4B06-80C0-880DDEDA4E17}">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
@@ -15999,6 +16000,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -16215,26 +16235,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{360C765C-5108-4856-B14E-979324B41D25}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{527B0702-8AF4-4307-A34D-2633AC2397ED}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBA5B558-DFC3-420B-A09B-072555AB09C7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -16253,24 +16272,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{527B0702-8AF4-4307-A34D-2633AC2397ED}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{360C765C-5108-4856-B14E-979324B41D25}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{ea60d57e-af5b-4752-ac57-3e4f28ca11dc}" enabled="1" method="Standard" siteId="{36da45f1-dd2c-4d1f-af13-5abe46b99921}" contentBits="0" removed="0"/>
